--- a/platform/embedded/stm32f407/stm32f4_function_mappings.xlsx
+++ b/platform/embedded/stm32f407/stm32f4_function_mappings.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2402" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2405" uniqueCount="422">
   <si>
     <t xml:space="preserve">Port</t>
   </si>
@@ -809,10 +809,19 @@
     <t xml:space="preserve">PC13</t>
   </si>
   <si>
+    <t xml:space="preserve">NRF_CE</t>
+  </si>
+  <si>
     <t xml:space="preserve">PC14</t>
   </si>
   <si>
+    <t xml:space="preserve">NRF_CSN</t>
+  </si>
+  <si>
     <t xml:space="preserve">PC15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NRF_IRQ</t>
   </si>
   <si>
     <t xml:space="preserve">PD0</t>
@@ -1378,7 +1387,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1407,6 +1416,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF33FF"/>
         <bgColor rgb="FFFF00FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B274"/>
+        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
     <fill>
@@ -1456,7 +1471,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1569,12 +1584,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1585,16 +1596,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1605,8 +1612,32 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1669,7 +1700,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF00B274"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -1686,32 +1717,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q142"/>
+  <dimension ref="A1:R142"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="K36" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="I22" activeCellId="0" sqref="I22"/>
+      <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
+      <selection pane="bottomRight" activeCell="R49" activeCellId="0" sqref="R49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.1020408163265"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.265306122449"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.7040816326531"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.36734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="12.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="15.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="8.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4028,7 +4059,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="24" t="s">
         <v>233</v>
       </c>
@@ -4103,7 +4134,7 @@
       <c r="G46" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="H46" s="25" t="s">
+      <c r="H46" s="26" t="s">
         <v>134</v>
       </c>
       <c r="I46" s="25" t="s">
@@ -4134,7 +4165,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="24" t="s">
         <v>240</v>
       </c>
@@ -4187,274 +4218,283 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="5" t="s">
+    <row r="48" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J48" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K48" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L48" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M48" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N48" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O48" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="P48" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q48" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="5" t="s">
+      <c r="B48" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="F48" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="H48" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="I48" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="J48" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="K48" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="L48" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="M48" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="N48" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="O48" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="P48" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q48" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="R48" s="32" t="s">
         <v>245</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J49" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K49" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L49" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M49" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N49" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O49" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P49" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q49" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="5" t="s">
+    </row>
+    <row r="49" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I50" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J50" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K50" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L50" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M50" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N50" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O50" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="P50" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q50" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="51" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="30" t="s">
+      <c r="B49" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="F49" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="G49" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="H49" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="I49" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="J49" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="K49" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="L49" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="M49" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="N49" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="O49" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="P49" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q49" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="R49" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="B51" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C51" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="D51" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E51" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="F51" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="G51" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="H51" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="I51" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="J51" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="K51" s="31" t="s">
+    </row>
+    <row r="50" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="B50" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="F50" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="G50" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="H50" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="I50" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="J50" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="K50" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="L50" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="M50" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="N50" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="O50" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="P50" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q50" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="R50" s="32" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="51" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="B51" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F51" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G51" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="H51" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="I51" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="J51" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="K51" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="L51" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="M51" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="N51" s="32" t="s">
-        <v>248</v>
-      </c>
-      <c r="O51" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="P51" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q51" s="31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="52" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="30" t="s">
-        <v>249</v>
-      </c>
-      <c r="B52" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C52" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="D52" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E52" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="F52" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="G52" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="H52" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="I52" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="J52" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="K52" s="31" t="s">
+      <c r="L51" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="M51" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="N51" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="O51" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="P51" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q51" s="34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="B52" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F52" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G52" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="H52" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="I52" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="J52" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="K52" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="L52" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="M52" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="N52" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="O52" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="P52" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q52" s="31" t="s">
+      <c r="L52" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="M52" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="N52" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="O52" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="P52" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q52" s="34" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="53" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="24" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B53" s="25" t="s">
         <v>32</v>
@@ -4463,7 +4503,7 @@
         <v>32</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E53" s="25" t="s">
         <v>32</v>
@@ -4481,7 +4521,7 @@
         <v>32</v>
       </c>
       <c r="J53" s="25" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="K53" s="25" t="s">
         <v>32</v>
@@ -4493,10 +4533,10 @@
         <v>32</v>
       </c>
       <c r="N53" s="26" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="O53" s="25" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="P53" s="25" t="s">
         <v>32</v>
@@ -4507,7 +4547,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>32</v>
@@ -4546,7 +4586,7 @@
         <v>32</v>
       </c>
       <c r="N54" s="6" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="O54" s="6" t="s">
         <v>32</v>
@@ -4558,115 +4598,115 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="30" t="s">
-        <v>258</v>
-      </c>
-      <c r="B55" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C55" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="D55" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E55" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="F55" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="G55" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="H55" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="I55" s="31" t="s">
+    <row r="55" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="B55" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C55" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D55" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F55" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G55" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="H55" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="I55" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="J55" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="K55" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="L55" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="M55" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="N55" s="32" t="s">
-        <v>259</v>
-      </c>
-      <c r="O55" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="P55" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q55" s="31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="56" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="30" t="s">
-        <v>260</v>
-      </c>
-      <c r="B56" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C56" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="D56" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E56" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="F56" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="G56" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="H56" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="I56" s="31" t="s">
+      <c r="J55" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="K55" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="L55" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="M55" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="N55" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="O55" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="P55" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q55" s="34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="B56" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E56" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F56" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G56" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="H56" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="I56" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="J56" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="K56" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="L56" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="M56" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="N56" s="32" t="s">
-        <v>261</v>
-      </c>
-      <c r="O56" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="P56" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q56" s="31" t="s">
+      <c r="J56" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="K56" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="L56" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="M56" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="N56" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="O56" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="P56" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q56" s="34" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>32</v>
@@ -4705,7 +4745,7 @@
         <v>32</v>
       </c>
       <c r="N57" s="6" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="O57" s="6" t="s">
         <v>32</v>
@@ -4717,486 +4757,486 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" s="33" customFormat="true" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="30" t="s">
-        <v>264</v>
-      </c>
-      <c r="B58" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C58" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="D58" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E58" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="F58" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="G58" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="H58" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="I58" s="31" t="s">
+    <row r="58" s="36" customFormat="true" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="B58" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D58" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F58" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G58" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="H58" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="I58" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="J58" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="K58" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="L58" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="M58" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="N58" s="34" t="s">
-        <v>265</v>
-      </c>
-      <c r="O58" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="P58" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q58" s="31" t="s">
+      <c r="J58" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="K58" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="L58" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="M58" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="N58" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="O58" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="P58" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q58" s="34" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="30" t="s">
-        <v>266</v>
-      </c>
-      <c r="B59" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C59" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="D59" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E59" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="F59" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="G59" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="H59" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="I59" s="31" t="s">
+      <c r="A59" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="B59" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C59" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D59" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E59" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F59" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G59" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="H59" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="I59" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="K59" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="L59" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="M59" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="N59" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="O59" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="P59" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q59" s="31" t="s">
+      <c r="J59" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="K59" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="L59" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="M59" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="N59" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="O59" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="P59" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q59" s="34" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="30" t="s">
-        <v>268</v>
-      </c>
-      <c r="B60" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C60" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="D60" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E60" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="F60" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="G60" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="H60" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="I60" s="31" t="s">
+      <c r="A60" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="B60" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C60" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D60" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E60" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F60" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G60" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="H60" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="I60" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="J60" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="K60" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="L60" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="M60" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="N60" s="32" t="s">
-        <v>269</v>
-      </c>
-      <c r="O60" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="P60" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q60" s="31" t="s">
+      <c r="J60" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="K60" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="L60" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="M60" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="N60" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="O60" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="P60" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q60" s="34" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="B61" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C61" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="D61" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E61" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="F61" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="G61" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="H61" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="I61" s="31" t="s">
+      <c r="A61" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="B61" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C61" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D61" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E61" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F61" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G61" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="H61" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="I61" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="J61" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="K61" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="L61" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="M61" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="N61" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="O61" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="P61" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q61" s="31" t="s">
+      <c r="J61" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="K61" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="L61" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="M61" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="N61" s="35" t="s">
+        <v>274</v>
+      </c>
+      <c r="O61" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="P61" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q61" s="34" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="30" t="s">
-        <v>272</v>
-      </c>
-      <c r="B62" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C62" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="D62" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E62" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="F62" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="G62" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="H62" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="I62" s="31" t="s">
+      <c r="A62" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="B62" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D62" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E62" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F62" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G62" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="H62" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="I62" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="J62" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="K62" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="L62" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="M62" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="N62" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="O62" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="P62" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q62" s="31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="63" s="37" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="35" t="s">
-        <v>274</v>
-      </c>
-      <c r="B63" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C63" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="D63" s="36" t="s">
+      <c r="J62" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="K62" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="L62" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="M62" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="N62" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="O62" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="P62" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q62" s="34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" s="40" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="B63" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C63" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D63" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="E63" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="F63" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="G63" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="H63" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="I63" s="36" t="s">
+      <c r="E63" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="F63" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="G63" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="H63" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="I63" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="J63" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="K63" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="L63" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="M63" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="N63" s="36" t="s">
-        <v>275</v>
-      </c>
-      <c r="O63" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="P63" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q63" s="36" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="64" s="37" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="35" t="s">
-        <v>276</v>
-      </c>
-      <c r="B64" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C64" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="D64" s="36" t="s">
+      <c r="J63" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="K63" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="L63" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="M63" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="N63" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="O63" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="P63" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q63" s="39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" s="40" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="38" t="s">
+        <v>279</v>
+      </c>
+      <c r="B64" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C64" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D64" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="E64" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="F64" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="G64" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="H64" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="I64" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="J64" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="K64" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="L64" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="M64" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="N64" s="36" t="s">
-        <v>277</v>
-      </c>
-      <c r="O64" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="P64" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q64" s="36" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="65" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="30" t="s">
-        <v>278</v>
-      </c>
-      <c r="B65" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C65" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="D65" s="31" t="s">
+      <c r="E64" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="F64" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="G64" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="H64" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="I64" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="J64" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="K64" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="L64" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="M64" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="N64" s="39" t="s">
+        <v>280</v>
+      </c>
+      <c r="O64" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="P64" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q64" s="39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="B65" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C65" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D65" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="E65" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="F65" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="G65" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="H65" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="I65" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="J65" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="K65" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="L65" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="M65" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="N65" s="32" t="s">
-        <v>279</v>
-      </c>
-      <c r="O65" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="P65" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q65" s="31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="66" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="30" t="s">
-        <v>280</v>
-      </c>
-      <c r="B66" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C66" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="D66" s="31" t="s">
+      <c r="E65" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F65" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G65" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="H65" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="I65" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="J65" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="K65" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="L65" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="M65" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="N65" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="O65" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="P65" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q65" s="34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="B66" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C66" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D66" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="E66" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="F66" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="G66" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="H66" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="I66" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="J66" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="K66" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="L66" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="M66" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="N66" s="32" t="s">
-        <v>281</v>
-      </c>
-      <c r="O66" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="P66" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q66" s="31" t="s">
+      <c r="E66" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F66" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G66" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="H66" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="I66" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="J66" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="K66" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="L66" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="M66" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="N66" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="O66" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="P66" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q66" s="34" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>32</v>
@@ -5205,7 +5245,7 @@
         <v>32</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>32</v>
@@ -5235,7 +5275,7 @@
         <v>32</v>
       </c>
       <c r="N67" s="6" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="O67" s="6" t="s">
         <v>225</v>
@@ -5249,7 +5289,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>32</v>
@@ -5288,7 +5328,7 @@
         <v>32</v>
       </c>
       <c r="N68" s="6" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="O68" s="6" t="s">
         <v>232</v>
@@ -5302,10 +5342,10 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>32</v>
@@ -5341,7 +5381,7 @@
         <v>156</v>
       </c>
       <c r="N69" s="6" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="O69" s="6" t="s">
         <v>32</v>
@@ -5355,10 +5395,10 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>32</v>
@@ -5394,7 +5434,7 @@
         <v>32</v>
       </c>
       <c r="N70" s="6" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="O70" s="6" t="s">
         <v>32</v>
@@ -5408,10 +5448,10 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>32</v>
@@ -5447,7 +5487,7 @@
         <v>32</v>
       </c>
       <c r="N71" s="6" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="O71" s="6" t="s">
         <v>239</v>
@@ -5461,10 +5501,10 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>32</v>
@@ -5500,7 +5540,7 @@
         <v>32</v>
       </c>
       <c r="N72" s="6" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="O72" s="6" t="s">
         <v>158</v>
@@ -5514,10 +5554,10 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>32</v>
@@ -5553,7 +5593,7 @@
         <v>32</v>
       </c>
       <c r="N73" s="6" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="O73" s="6" t="s">
         <v>164</v>
@@ -5565,486 +5605,486 @@
         <v>32</v>
       </c>
     </row>
-    <row r="74" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="30" t="s">
-        <v>302</v>
-      </c>
-      <c r="B74" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C74" s="31" t="s">
+    <row r="74" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="B74" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C74" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="D74" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E74" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="F74" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="G74" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="H74" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="I74" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="J74" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="K74" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="L74" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="M74" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="N74" s="32" t="s">
-        <v>303</v>
-      </c>
-      <c r="O74" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="P74" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q74" s="31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="75" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="30" t="s">
-        <v>304</v>
-      </c>
-      <c r="B75" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C75" s="31" t="s">
+      <c r="D74" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E74" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F74" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G74" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="H74" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="I74" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="J74" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="K74" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="L74" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="M74" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="N74" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="O74" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="P74" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q74" s="34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="33" t="s">
+        <v>307</v>
+      </c>
+      <c r="B75" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C75" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D75" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E75" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="F75" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="G75" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="H75" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="I75" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="J75" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="K75" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="L75" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="M75" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="N75" s="32" t="s">
-        <v>305</v>
-      </c>
-      <c r="O75" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="P75" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q75" s="31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="76" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="30" t="s">
-        <v>306</v>
-      </c>
-      <c r="B76" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C76" s="31" t="s">
+      <c r="D75" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E75" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F75" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G75" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="H75" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="I75" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="J75" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="K75" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="L75" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="M75" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="N75" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="O75" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="P75" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q75" s="34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="33" t="s">
+        <v>309</v>
+      </c>
+      <c r="B76" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C76" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="D76" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E76" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="F76" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="G76" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="H76" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="I76" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="J76" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="K76" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="L76" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="M76" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="N76" s="32" t="s">
-        <v>307</v>
-      </c>
-      <c r="O76" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="P76" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q76" s="31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="77" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="B77" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C77" s="31" t="s">
+      <c r="D76" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E76" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F76" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G76" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="H76" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="I76" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="J76" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="K76" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="L76" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="M76" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="N76" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="O76" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="P76" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q76" s="34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="B77" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C77" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="D77" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E77" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="F77" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="G77" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="H77" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="I77" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="J77" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="K77" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="L77" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="M77" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="N77" s="32" t="s">
-        <v>309</v>
-      </c>
-      <c r="O77" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="P77" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q77" s="31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="78" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="30" t="s">
-        <v>310</v>
-      </c>
-      <c r="B78" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C78" s="31" t="s">
+      <c r="D77" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E77" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F77" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G77" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="H77" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="I77" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="J77" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="K77" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="L77" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="M77" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="N77" s="35" t="s">
+        <v>312</v>
+      </c>
+      <c r="O77" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="P77" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q77" s="34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="B78" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C78" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="D78" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E78" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="F78" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="G78" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="H78" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="I78" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="J78" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="K78" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="L78" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="M78" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="N78" s="32" t="s">
-        <v>311</v>
-      </c>
-      <c r="O78" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="P78" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q78" s="31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="79" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="30" t="s">
-        <v>312</v>
-      </c>
-      <c r="B79" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C79" s="31" t="s">
+      <c r="D78" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E78" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F78" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G78" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="H78" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="I78" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="J78" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="K78" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="L78" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="M78" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="N78" s="35" t="s">
+        <v>314</v>
+      </c>
+      <c r="O78" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="P78" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q78" s="34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="33" t="s">
+        <v>315</v>
+      </c>
+      <c r="B79" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C79" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="D79" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E79" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="F79" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="G79" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="H79" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="I79" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="J79" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="K79" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="L79" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="M79" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="N79" s="32" t="s">
-        <v>313</v>
-      </c>
-      <c r="O79" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="P79" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q79" s="31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="80" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="30" t="s">
-        <v>314</v>
-      </c>
-      <c r="B80" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C80" s="31" t="s">
+      <c r="D79" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E79" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F79" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G79" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="H79" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="I79" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="J79" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="K79" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="L79" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="M79" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="N79" s="35" t="s">
+        <v>316</v>
+      </c>
+      <c r="O79" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="P79" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q79" s="34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="33" t="s">
+        <v>317</v>
+      </c>
+      <c r="B80" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C80" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="D80" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E80" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="F80" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="G80" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="H80" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="I80" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="J80" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="K80" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="L80" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="M80" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="N80" s="32" t="s">
-        <v>315</v>
-      </c>
-      <c r="O80" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="P80" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q80" s="31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="81" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="30" t="s">
-        <v>316</v>
-      </c>
-      <c r="B81" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C81" s="31" t="s">
+      <c r="D80" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E80" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F80" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G80" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="H80" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="I80" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="J80" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="K80" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="L80" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="M80" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="N80" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="O80" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="P80" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q80" s="34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="33" t="s">
+        <v>319</v>
+      </c>
+      <c r="B81" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C81" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="D81" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E81" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="F81" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="G81" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="H81" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="I81" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="J81" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="K81" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="L81" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="M81" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="N81" s="32" t="s">
-        <v>317</v>
-      </c>
-      <c r="O81" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="P81" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q81" s="31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="82" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="30" t="s">
-        <v>318</v>
-      </c>
-      <c r="B82" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C82" s="31" t="s">
+      <c r="D81" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E81" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F81" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G81" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="H81" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="I81" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="J81" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="K81" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="L81" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="M81" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="N81" s="35" t="s">
+        <v>320</v>
+      </c>
+      <c r="O81" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="P81" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q81" s="34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="82" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="B82" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C82" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="D82" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E82" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="F82" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="G82" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="H82" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="I82" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="J82" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="K82" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="L82" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="M82" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="N82" s="32" t="s">
-        <v>319</v>
-      </c>
-      <c r="O82" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="P82" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q82" s="31" t="s">
+      <c r="D82" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E82" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F82" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G82" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="H82" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="I82" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="J82" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="K82" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="L82" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="M82" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="N82" s="35" t="s">
+        <v>322</v>
+      </c>
+      <c r="O82" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="P82" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q82" s="34" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>32</v>
@@ -6083,7 +6123,7 @@
         <v>32</v>
       </c>
       <c r="N83" s="6" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="O83" s="6" t="s">
         <v>32</v>
@@ -6097,7 +6137,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="5" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>32</v>
@@ -6136,7 +6176,7 @@
         <v>32</v>
       </c>
       <c r="N84" s="6" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="O84" s="6" t="s">
         <v>32</v>
@@ -6150,7 +6190,7 @@
     </row>
     <row r="85" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>32</v>
@@ -6189,7 +6229,7 @@
         <v>32</v>
       </c>
       <c r="N85" s="6" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="O85" s="6" t="s">
         <v>32</v>
@@ -6203,7 +6243,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="5" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>32</v>
@@ -6242,7 +6282,7 @@
         <v>32</v>
       </c>
       <c r="N86" s="6" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="O86" s="6" t="s">
         <v>32</v>
@@ -6256,7 +6296,7 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>32</v>
@@ -6295,7 +6335,7 @@
         <v>32</v>
       </c>
       <c r="N87" s="6" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="O87" s="6" t="s">
         <v>32</v>
@@ -6309,7 +6349,7 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="5" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>32</v>
@@ -6348,7 +6388,7 @@
         <v>32</v>
       </c>
       <c r="N88" s="6" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O88" s="6" t="s">
         <v>32</v>
@@ -6362,7 +6402,7 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="5" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>32</v>
@@ -6399,7 +6439,7 @@
         <v>32</v>
       </c>
       <c r="N89" s="6" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="O89" s="6" t="s">
         <v>32</v>
@@ -6413,7 +6453,7 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="5" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>32</v>
@@ -6450,7 +6490,7 @@
         <v>32</v>
       </c>
       <c r="N90" s="6" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="O90" s="6" t="s">
         <v>32</v>
@@ -6464,7 +6504,7 @@
     </row>
     <row r="91" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>32</v>
@@ -6503,7 +6543,7 @@
         <v>32</v>
       </c>
       <c r="N91" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="O91" s="6" t="s">
         <v>32</v>
@@ -6517,7 +6557,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="5" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>32</v>
@@ -6556,7 +6596,7 @@
         <v>32</v>
       </c>
       <c r="N92" s="6" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="O92" s="6" t="s">
         <v>32</v>
@@ -6570,7 +6610,7 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="5" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>32</v>
@@ -6609,7 +6649,7 @@
         <v>32</v>
       </c>
       <c r="N93" s="6" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="O93" s="6" t="s">
         <v>32</v>
@@ -6623,7 +6663,7 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="5" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>32</v>
@@ -6665,7 +6705,7 @@
         <v>32</v>
       </c>
       <c r="O94" s="6" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="P94" s="6" t="s">
         <v>32</v>
@@ -6676,7 +6716,7 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="5" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>32</v>
@@ -6715,7 +6755,7 @@
         <v>32</v>
       </c>
       <c r="N95" s="6" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="O95" s="6" t="s">
         <v>32</v>
@@ -6729,7 +6769,7 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="5" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>32</v>
@@ -6768,7 +6808,7 @@
         <v>32</v>
       </c>
       <c r="N96" s="6" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="O96" s="6" t="s">
         <v>32</v>
@@ -6782,7 +6822,7 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="5" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>32</v>
@@ -6821,7 +6861,7 @@
         <v>32</v>
       </c>
       <c r="N97" s="6" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="O97" s="6" t="s">
         <v>32</v>
@@ -6835,7 +6875,7 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="5" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>32</v>
@@ -6874,7 +6914,7 @@
         <v>32</v>
       </c>
       <c r="N98" s="6" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="O98" s="6" t="s">
         <v>32</v>
@@ -6888,7 +6928,7 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="5" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>32</v>
@@ -6927,7 +6967,7 @@
         <v>32</v>
       </c>
       <c r="N99" s="6" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O99" s="6" t="s">
         <v>32</v>
@@ -6941,7 +6981,7 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="5" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>32</v>
@@ -6980,7 +7020,7 @@
         <v>32</v>
       </c>
       <c r="N100" s="6" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="O100" s="6" t="s">
         <v>32</v>
@@ -6994,7 +7034,7 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="5" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>32</v>
@@ -7033,7 +7073,7 @@
         <v>32</v>
       </c>
       <c r="N101" s="6" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="O101" s="6" t="s">
         <v>32</v>
@@ -7047,7 +7087,7 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="5" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>32</v>
@@ -7086,7 +7126,7 @@
         <v>32</v>
       </c>
       <c r="N102" s="6" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="O102" s="6" t="s">
         <v>32</v>
@@ -7100,7 +7140,7 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="5" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>32</v>
@@ -7139,7 +7179,7 @@
         <v>32</v>
       </c>
       <c r="N103" s="6" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="O103" s="6" t="s">
         <v>32</v>
@@ -7153,7 +7193,7 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="5" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>32</v>
@@ -7192,7 +7232,7 @@
         <v>32</v>
       </c>
       <c r="N104" s="6" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="O104" s="6" t="s">
         <v>32</v>
@@ -7206,7 +7246,7 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="5" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>32</v>
@@ -7245,7 +7285,7 @@
         <v>32</v>
       </c>
       <c r="N105" s="6" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="O105" s="6" t="s">
         <v>32</v>
@@ -7259,7 +7299,7 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="5" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>32</v>
@@ -7298,7 +7338,7 @@
         <v>32</v>
       </c>
       <c r="N106" s="6" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="O106" s="6" t="s">
         <v>32</v>
@@ -7312,7 +7352,7 @@
     </row>
     <row r="107" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="5" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>32</v>
@@ -7339,7 +7379,7 @@
         <v>32</v>
       </c>
       <c r="J107" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="K107" s="6" t="s">
         <v>32</v>
@@ -7365,7 +7405,7 @@
     </row>
     <row r="108" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="5" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>32</v>
@@ -7404,7 +7444,7 @@
         <v>32</v>
       </c>
       <c r="N108" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="O108" s="6" t="s">
         <v>32</v>
@@ -7418,7 +7458,7 @@
     </row>
     <row r="109" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="5" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>32</v>
@@ -7457,7 +7497,7 @@
         <v>32</v>
       </c>
       <c r="N109" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="O109" s="6" t="s">
         <v>32</v>
@@ -7471,7 +7511,7 @@
     </row>
     <row r="110" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="5" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>32</v>
@@ -7507,10 +7547,10 @@
         <v>32</v>
       </c>
       <c r="M110" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="N110" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="O110" s="6" t="s">
         <v>32</v>
@@ -7524,7 +7564,7 @@
     </row>
     <row r="111" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="5" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>32</v>
@@ -7551,7 +7591,7 @@
         <v>32</v>
       </c>
       <c r="J111" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="K111" s="6" t="s">
         <v>32</v>
@@ -7563,7 +7603,7 @@
         <v>32</v>
       </c>
       <c r="N111" s="6" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="O111" s="6" t="s">
         <v>32</v>
@@ -7577,7 +7617,7 @@
     </row>
     <row r="112" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="5" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>32</v>
@@ -7604,7 +7644,7 @@
         <v>32</v>
       </c>
       <c r="J112" s="6" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="K112" s="6" t="s">
         <v>32</v>
@@ -7613,10 +7653,10 @@
         <v>32</v>
       </c>
       <c r="M112" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="N112" s="6" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="O112" s="6" t="s">
         <v>32</v>
@@ -7630,7 +7670,7 @@
     </row>
     <row r="113" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="5" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>32</v>
@@ -7669,7 +7709,7 @@
         <v>186</v>
       </c>
       <c r="N113" s="6" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="O113" s="6" t="s">
         <v>32</v>
@@ -7683,7 +7723,7 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="5" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>32</v>
@@ -7710,7 +7750,7 @@
         <v>32</v>
       </c>
       <c r="J114" s="6" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="K114" s="6" t="s">
         <v>32</v>
@@ -7725,7 +7765,7 @@
         <v>32</v>
       </c>
       <c r="O114" s="6" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="P114" s="6" t="s">
         <v>32</v>
@@ -7736,7 +7776,7 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="5" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>32</v>
@@ -7789,7 +7829,7 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="5" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>32</v>
@@ -7842,7 +7882,7 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="5" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>32</v>
@@ -7895,7 +7935,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="5" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>32</v>
@@ -7948,7 +7988,7 @@
     </row>
     <row r="119" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="5" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>32</v>
@@ -8001,7 +8041,7 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="5" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>32</v>
@@ -8054,7 +8094,7 @@
     </row>
     <row r="121" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="5" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>32</v>
@@ -8107,7 +8147,7 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="5" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>32</v>
@@ -8160,7 +8200,7 @@
     </row>
     <row r="123" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="5" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B123" s="6" t="s">
         <v>32</v>
@@ -8213,7 +8253,7 @@
     </row>
     <row r="124" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="5" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>32</v>
@@ -8266,7 +8306,7 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="5" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B125" s="6" t="s">
         <v>32</v>
@@ -8275,7 +8315,7 @@
         <v>32</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="E125" s="6" t="s">
         <v>32</v>
@@ -8319,7 +8359,7 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="5" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B126" s="6" t="s">
         <v>32</v>
@@ -8328,7 +8368,7 @@
         <v>32</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="E126" s="6" t="s">
         <v>32</v>
@@ -8372,7 +8412,7 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="5" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B127" s="6" t="s">
         <v>32</v>
@@ -8381,7 +8421,7 @@
         <v>32</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="E127" s="6" t="s">
         <v>32</v>
@@ -8425,7 +8465,7 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="5" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B128" s="6" t="s">
         <v>32</v>
@@ -8464,7 +8504,7 @@
       <c r="N128" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="O128" s="29" t="s">
+      <c r="O128" s="41" t="s">
         <v>32</v>
       </c>
       <c r="P128" s="6" t="s">
@@ -8476,7 +8516,7 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="5" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B129" s="6" t="s">
         <v>32</v>
@@ -8529,7 +8569,7 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="5" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B130" s="6" t="s">
         <v>32</v>
@@ -8571,7 +8611,7 @@
         <v>32</v>
       </c>
       <c r="O130" s="6" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="P130" s="6" t="s">
         <v>32</v>
@@ -8582,7 +8622,7 @@
     </row>
     <row r="131" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="5" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B131" s="6" t="s">
         <v>32</v>
@@ -8591,7 +8631,7 @@
         <v>32</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="E131" s="6" t="s">
         <v>32</v>
@@ -8624,7 +8664,7 @@
         <v>32</v>
       </c>
       <c r="O131" s="6" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="P131" s="6" t="s">
         <v>32</v>
@@ -8635,7 +8675,7 @@
     </row>
     <row r="132" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="5" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>32</v>
@@ -8688,7 +8728,7 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="5" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>32</v>
@@ -8741,7 +8781,7 @@
     </row>
     <row r="134" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="5" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>32</v>
@@ -8794,7 +8834,7 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="5" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B135" s="6" t="s">
         <v>32</v>
@@ -8847,7 +8887,7 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="5" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B136" s="6" t="s">
         <v>32</v>
@@ -8900,7 +8940,7 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="5" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B137" s="6" t="s">
         <v>32</v>
@@ -8953,7 +8993,7 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="5" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>32</v>
@@ -9006,7 +9046,7 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="5" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>32</v>
@@ -9059,7 +9099,7 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="5" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B140" s="6" t="s">
         <v>32</v>
@@ -9112,7 +9152,7 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="5" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B141" s="6" t="s">
         <v>32</v>
@@ -9165,7 +9205,7 @@
     </row>
     <row r="142" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="5" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B142" s="6" t="s">
         <v>32</v>
@@ -9224,7 +9264,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CSeite &amp;P</oddFooter>

--- a/platform/embedded/stm32f407/stm32f4_function_mappings.xlsx
+++ b/platform/embedded/stm32f407/stm32f4_function_mappings.xlsx
@@ -1387,12 +1387,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3838"/>
+        <bgColor rgb="FFFF6600"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1404,6 +1410,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00FF66"/>
         <bgColor rgb="FF00FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B274"/>
+        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
     <fill>
@@ -1420,12 +1432,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B274"/>
-        <bgColor rgb="FF008080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
@@ -1433,7 +1439,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF6600"/>
-        <bgColor rgb="FFFF8080"/>
+        <bgColor rgb="FFFF3838"/>
       </patternFill>
     </fill>
   </fills>
@@ -1471,7 +1477,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="48">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1520,10 +1526,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1532,16 +1534,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1556,14 +1554,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1573,10 +1563,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1584,8 +1574,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1596,11 +1594,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1624,6 +1626,14 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1632,7 +1642,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1642,18 +1672,18 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFFF3838"/>
       <rgbColor rgb="FF00FF66"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1720,21 +1750,22 @@
   <dimension ref="A1:R142"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="K36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
-      <selection pane="bottomRight" activeCell="R49" activeCellId="0" sqref="R49"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="12.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.8"/>
@@ -1898,109 +1929,109 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+    <row r="4" s="11" customFormat="true" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="6" t="s">
+      <c r="E4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="7" t="s">
+      <c r="K4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+      <c r="N4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="6" t="s">
+      <c r="F5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" s="6" t="s">
+      <c r="J5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="N5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q5" s="6" t="s">
+      <c r="N5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="9" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2216,321 +2247,321 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="37.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
+    <row r="10" s="11" customFormat="true" ht="37.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="6" t="s">
+      <c r="F10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="6" t="s">
+      <c r="H10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="L10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="7" t="s">
+      <c r="L10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="N10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q10" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
+      <c r="N10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="6" t="s">
+      <c r="D11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="6" t="s">
+      <c r="G11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="J11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11" s="6" t="s">
+      <c r="J11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="M11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" s="11" customFormat="true" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
+      <c r="M11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" s="15" customFormat="true" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="10" t="s">
+      <c r="D12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="9" t="s">
+      <c r="G12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="J12" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="M12" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="N12" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="O12" s="9" t="s">
+      <c r="J12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="P12" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q12" s="9" t="s">
+      <c r="P12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q12" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="B13" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="9" t="s">
+      <c r="D13" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="J13" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="L13" s="12" t="s">
+      <c r="J13" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="M13" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="N13" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="O13" s="9" t="s">
+      <c r="M13" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="O13" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="P13" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q13" s="9" t="s">
+      <c r="P13" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q13" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" s="9" t="s">
+      <c r="D14" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="J14" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14" s="9" t="s">
+      <c r="J14" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="L14" s="12" t="s">
+      <c r="L14" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="M14" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="N14" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="O14" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="P14" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q14" s="9" t="s">
+      <c r="M14" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P14" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q14" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="9" t="s">
+      <c r="B15" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="9" t="s">
+      <c r="D15" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="J15" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="9" t="s">
+      <c r="J15" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="L15" s="12" t="s">
+      <c r="L15" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="M15" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="N15" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="O15" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="P15" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q15" s="9" t="s">
+      <c r="M15" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P15" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q15" s="13" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2799,311 +2830,311 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13" t="s">
+    <row r="21" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="I21" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="J21" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="K21" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="L21" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O21" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="P21" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q21" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="s">
+      <c r="B21" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O21" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="P21" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q21" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" s="23" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" s="6" t="s">
+      <c r="D22" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="I22" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O22" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P22" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q22" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="s">
+      <c r="I22" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="L22" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O22" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="P22" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q22" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="6" t="s">
+      <c r="C23" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" s="6" t="s">
+      <c r="E23" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="J23" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O23" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P23" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q23" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="s">
+      <c r="J23" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="L23" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O23" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="P23" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q23" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" s="23" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="6" t="s">
+      <c r="B24" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="E24" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="I24" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K24" s="6" t="s">
+      <c r="I24" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="L24" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="M24" s="6" t="s">
+      <c r="M24" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="N24" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O24" s="6" t="s">
+      <c r="N24" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O24" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="P24" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q24" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="s">
+      <c r="P24" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q24" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="9" t="s">
+      <c r="B25" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E25" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="9" t="s">
+      <c r="E25" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="G25" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I25" s="12" t="s">
+      <c r="G25" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="J25" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K25" s="9" t="s">
+      <c r="J25" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K25" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="L25" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="O25" s="9" t="s">
+      <c r="L25" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="O25" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="P25" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q25" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="s">
+      <c r="P25" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q25" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="9" t="s">
+      <c r="B26" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="E26" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="9" t="s">
+      <c r="E26" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="G26" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I26" s="12" t="s">
+      <c r="G26" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="J26" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K26" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="L26" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9" t="s">
+      <c r="J26" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="O26" s="11" t="s">
+      <c r="O26" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="P26" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q26" s="9" t="s">
+      <c r="P26" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q26" s="13" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3211,215 +3242,215 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" s="15" customFormat="true" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="13" t="s">
+    <row r="29" s="19" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="B29" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="14" t="s">
+      <c r="B29" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F29" s="14" t="s">
+      <c r="D29" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="G29" s="16" t="s">
+      <c r="G29" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="H29" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="I29" s="14" t="s">
+      <c r="H29" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="J29" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="K29" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="L29" s="17" t="s">
+      <c r="J29" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="K29" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="L29" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="M29" s="14" t="s">
+      <c r="M29" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="N29" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O29" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="P29" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q29" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="s">
+      <c r="N29" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O29" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="P29" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q29" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" s="11" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="6" t="s">
+      <c r="B30" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F30" s="6" t="s">
+      <c r="D30" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="G30" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I30" s="6" t="s">
+      <c r="G30" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I30" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="J30" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L30" s="7" t="s">
+      <c r="J30" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L30" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="M30" s="7" t="s">
+      <c r="M30" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="N30" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O30" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P30" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q30" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="s">
+      <c r="N30" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="O30" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P30" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q30" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" s="11" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="6" t="s">
+      <c r="B31" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F31" s="7" t="s">
+      <c r="D31" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G31" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="H31" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I31" s="6" t="s">
+      <c r="H31" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I31" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="J31" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K31" s="6" t="s">
+      <c r="J31" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K31" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="L31" s="7" t="s">
+      <c r="L31" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="M31" s="7" t="s">
+      <c r="M31" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="N31" s="6" t="s">
+      <c r="N31" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="O31" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P31" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q31" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5" t="s">
+      <c r="O31" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P31" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q31" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" s="11" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="6" t="s">
+      <c r="B32" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G32" s="7" t="s">
+      <c r="D32" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="H32" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I32" s="6" t="s">
+      <c r="H32" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I32" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="J32" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K32" s="6" t="s">
+      <c r="J32" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K32" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="L32" s="7" t="s">
+      <c r="L32" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="M32" s="7" t="s">
+      <c r="M32" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="N32" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O32" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P32" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q32" s="6" t="s">
+      <c r="N32" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="O32" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P32" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q32" s="9" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3476,7 +3507,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
         <v>193</v>
       </c>
@@ -3529,7 +3560,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
         <v>198</v>
       </c>
@@ -3582,113 +3613,113 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5" t="s">
+    <row r="36" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K36" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L36" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M36" s="6" t="s">
+      <c r="B36" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L36" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M36" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="N36" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O36" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P36" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q36" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" s="15" customFormat="true" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="13" t="s">
+      <c r="N36" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="O36" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P36" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q36" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" s="19" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="B37" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G37" s="18" t="s">
+      <c r="B37" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="H37" s="14" t="s">
+      <c r="H37" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="I37" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="J37" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="K37" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="L37" s="17" t="s">
+      <c r="I37" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J37" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="K37" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="L37" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="M37" s="14" t="s">
+      <c r="M37" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="N37" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O37" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="P37" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q37" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N37" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O37" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="P37" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q37" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
         <v>205</v>
       </c>
@@ -3741,807 +3772,807 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="5" t="s">
+    <row r="39" s="11" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K39" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L39" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M39" s="7" t="s">
+      <c r="B39" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L39" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M39" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="N39" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O39" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P39" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q39" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5" t="s">
+      <c r="N39" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="O39" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P39" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q39" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" s="11" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J40" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K40" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L40" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M40" s="7" t="s">
+      <c r="B40" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M40" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="N40" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O40" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P40" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q40" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" s="23" customFormat="true" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="19" t="s">
+      <c r="N40" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="O40" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P40" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q40" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" s="31" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="B41" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D41" s="20" t="s">
+      <c r="B41" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="E41" s="20" t="s">
+      <c r="E41" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="F41" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G41" s="20" t="s">
+      <c r="F41" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="H41" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I41" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J41" s="21" t="s">
+      <c r="H41" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="I41" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="J41" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="K41" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="L41" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="M41" s="22" t="s">
+      <c r="K41" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="L41" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="M41" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="N41" s="20" t="s">
+      <c r="N41" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="O41" s="20" t="s">
+      <c r="O41" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="P41" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q41" s="20" t="s">
+      <c r="P41" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q41" s="28" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="B42" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42" s="20" t="s">
+      <c r="B42" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="E42" s="20" t="s">
+      <c r="E42" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="F42" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G42" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H42" s="20" t="s">
+      <c r="F42" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="H42" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="I42" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J42" s="21" t="s">
+      <c r="I42" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="J42" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="K42" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="L42" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="M42" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="N42" s="20" t="s">
+      <c r="K42" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="L42" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="M42" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="N42" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="O42" s="20" t="s">
+      <c r="O42" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="P42" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q42" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="43" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="24" t="s">
+      <c r="P42" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q42" s="28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="B43" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D43" s="25" t="s">
+      <c r="B43" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="E43" s="25" t="s">
+      <c r="E43" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="F43" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="G43" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H43" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="I43" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="J43" s="25" t="s">
+      <c r="F43" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="G43" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="H43" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="I43" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="J43" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="K43" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="L43" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="M43" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N43" s="26" t="s">
+      <c r="K43" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="L43" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="M43" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="N43" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="O43" s="25" t="s">
+      <c r="O43" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="P43" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q43" s="25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="44" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="24" t="s">
+      <c r="P43" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q43" s="33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="32" t="s">
         <v>226</v>
       </c>
-      <c r="B44" s="25" t="s">
+      <c r="B44" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="C44" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D44" s="25" t="s">
+      <c r="C44" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="33" t="s">
         <v>228</v>
       </c>
-      <c r="E44" s="25" t="s">
+      <c r="E44" s="33" t="s">
         <v>228</v>
       </c>
-      <c r="F44" s="25" t="s">
+      <c r="F44" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="G44" s="25" t="s">
+      <c r="G44" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="H44" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="I44" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="J44" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="K44" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="L44" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="M44" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N44" s="26" t="s">
+      <c r="H44" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="I44" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="J44" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="K44" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="L44" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="M44" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="N44" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O44" s="25" t="s">
+      <c r="O44" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="P44" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q44" s="25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="24" t="s">
+      <c r="P44" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q44" s="33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="B45" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C45" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D45" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E45" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F45" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="G45" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H45" s="28" t="s">
+      <c r="B45" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F45" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="G45" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="H45" s="36" t="s">
         <v>234</v>
       </c>
-      <c r="I45" s="25" t="s">
+      <c r="I45" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="J45" s="25" t="s">
+      <c r="J45" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="K45" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="L45" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="M45" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N45" s="26" t="s">
+      <c r="K45" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="L45" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="M45" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="N45" s="34" t="s">
         <v>235</v>
       </c>
-      <c r="O45" s="25" t="s">
+      <c r="O45" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="P45" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q45" s="25" t="s">
+      <c r="P45" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q45" s="33" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="24" t="s">
+      <c r="A46" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="B46" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C46" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D46" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E46" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F46" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="G46" s="25" t="s">
+      <c r="B46" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F46" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="G46" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="H46" s="26" t="s">
+      <c r="H46" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="I46" s="25" t="s">
+      <c r="I46" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="J46" s="25" t="s">
+      <c r="J46" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="K46" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="L46" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="M46" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N46" s="26" t="s">
+      <c r="K46" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="L46" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="M46" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="N46" s="34" t="s">
         <v>238</v>
       </c>
-      <c r="O46" s="25" t="s">
+      <c r="O46" s="33" t="s">
         <v>239</v>
       </c>
-      <c r="P46" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q46" s="25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="24" t="s">
+      <c r="P46" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q46" s="33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="32" t="s">
         <v>240</v>
       </c>
-      <c r="B47" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C47" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D47" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E47" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F47" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="G47" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H47" s="28" t="s">
+      <c r="B47" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F47" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="G47" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="H47" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="I47" s="25" t="s">
+      <c r="I47" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="J47" s="25" t="s">
+      <c r="J47" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="K47" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="L47" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="M47" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N47" s="26" t="s">
+      <c r="K47" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="L47" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="M47" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="N47" s="34" t="s">
         <v>242</v>
       </c>
-      <c r="O47" s="25" t="s">
+      <c r="O47" s="33" t="s">
         <v>243</v>
       </c>
-      <c r="P47" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q47" s="25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="48" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="29" t="s">
+      <c r="P47" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q47" s="33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="B48" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C48" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="D48" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="E48" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="F48" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="G48" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="H48" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="I48" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="J48" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="K48" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="L48" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="M48" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="N48" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="O48" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="P48" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q48" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="R48" s="32" t="s">
+      <c r="B48" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="H48" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="I48" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J48" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="K48" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="L48" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="M48" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="N48" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O48" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="P48" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q48" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="R48" s="38" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="49" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="29" t="s">
+    <row r="49" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="B49" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C49" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="D49" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="E49" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="F49" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="G49" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="H49" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="I49" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="J49" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="K49" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="L49" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="M49" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="N49" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="O49" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="P49" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q49" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="R49" s="32" t="s">
+      <c r="B49" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F49" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G49" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="H49" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="I49" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J49" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="K49" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="L49" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="M49" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="N49" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O49" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="P49" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q49" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="R49" s="38" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="50" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="29" t="s">
+    <row r="50" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="B50" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C50" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="D50" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="E50" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="F50" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="G50" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="H50" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="I50" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="J50" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="K50" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="L50" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="M50" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="N50" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="O50" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="P50" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q50" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="R50" s="32" t="s">
+      <c r="B50" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F50" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G50" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="H50" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="I50" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J50" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="K50" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="L50" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="M50" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="N50" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O50" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="P50" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q50" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="R50" s="38" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="51" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="33" t="s">
+    <row r="51" s="42" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="39" t="s">
         <v>250</v>
       </c>
-      <c r="B51" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C51" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="D51" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E51" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="F51" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G51" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="H51" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="I51" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="J51" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="K51" s="34" t="s">
+      <c r="B51" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F51" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G51" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="H51" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="I51" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="J51" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="K51" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="L51" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="M51" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="N51" s="35" t="s">
+      <c r="L51" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="M51" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="N51" s="41" t="s">
         <v>251</v>
       </c>
-      <c r="O51" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="P51" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q51" s="34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="52" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="33" t="s">
+      <c r="O51" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="P51" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q51" s="40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" s="42" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="39" t="s">
         <v>252</v>
       </c>
-      <c r="B52" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C52" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="D52" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E52" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="F52" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G52" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="H52" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="I52" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="J52" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="K52" s="34" t="s">
+      <c r="B52" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F52" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G52" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="H52" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="I52" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="J52" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="K52" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="L52" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="M52" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="N52" s="35" t="s">
+      <c r="L52" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="M52" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="N52" s="41" t="s">
         <v>253</v>
       </c>
-      <c r="O52" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="P52" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q52" s="34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="53" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="24" t="s">
+      <c r="O52" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="P52" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q52" s="40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="32" t="s">
         <v>254</v>
       </c>
-      <c r="B53" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C53" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D53" s="25" t="s">
+      <c r="B53" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="E53" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F53" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="G53" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H53" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="I53" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="J53" s="25" t="s">
+      <c r="E53" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F53" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="H53" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="I53" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="J53" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="K53" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="L53" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="M53" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N53" s="26" t="s">
+      <c r="K53" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="L53" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="M53" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="N53" s="34" t="s">
         <v>257</v>
       </c>
-      <c r="O53" s="25" t="s">
+      <c r="O53" s="33" t="s">
         <v>258</v>
       </c>
-      <c r="P53" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q53" s="25" t="s">
+      <c r="P53" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q53" s="33" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4598,109 +4629,109 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="33" t="s">
+    <row r="55" s="42" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="39" t="s">
         <v>261</v>
       </c>
-      <c r="B55" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C55" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="D55" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E55" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="F55" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G55" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="H55" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="I55" s="34" t="s">
+      <c r="B55" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C55" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D55" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F55" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G55" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="H55" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="I55" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="J55" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="K55" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="L55" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="M55" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="N55" s="35" t="s">
+      <c r="J55" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="K55" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="L55" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="M55" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="N55" s="41" t="s">
         <v>262</v>
       </c>
-      <c r="O55" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="P55" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q55" s="34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="56" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="33" t="s">
+      <c r="O55" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="P55" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q55" s="40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" s="42" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="39" t="s">
         <v>263</v>
       </c>
-      <c r="B56" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C56" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="D56" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E56" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="F56" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G56" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="H56" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="I56" s="34" t="s">
+      <c r="B56" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E56" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F56" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G56" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="H56" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="I56" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="J56" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="K56" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="L56" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="M56" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="N56" s="35" t="s">
+      <c r="J56" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="K56" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="L56" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="M56" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="N56" s="41" t="s">
         <v>264</v>
       </c>
-      <c r="O56" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="P56" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q56" s="34" t="s">
+      <c r="O56" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="P56" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q56" s="40" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4757,480 +4788,480 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" s="36" customFormat="true" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="33" t="s">
+    <row r="58" s="42" customFormat="true" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="39" t="s">
         <v>267</v>
       </c>
-      <c r="B58" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C58" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="D58" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E58" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="F58" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G58" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="H58" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="I58" s="34" t="s">
+      <c r="B58" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D58" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F58" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G58" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="H58" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="I58" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="J58" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="K58" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="L58" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="M58" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="N58" s="37" t="s">
+      <c r="J58" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="K58" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="L58" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="M58" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="N58" s="43" t="s">
         <v>268</v>
       </c>
-      <c r="O58" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="P58" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q58" s="34" t="s">
+      <c r="O58" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="P58" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q58" s="40" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="33" t="s">
+      <c r="A59" s="39" t="s">
         <v>269</v>
       </c>
-      <c r="B59" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C59" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="D59" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E59" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="F59" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G59" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="H59" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="I59" s="34" t="s">
+      <c r="B59" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C59" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D59" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E59" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F59" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G59" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="H59" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="I59" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="K59" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="L59" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="M59" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="N59" s="35" t="s">
+      <c r="J59" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="K59" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="L59" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="M59" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="N59" s="41" t="s">
         <v>270</v>
       </c>
-      <c r="O59" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="P59" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q59" s="34" t="s">
+      <c r="O59" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="P59" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q59" s="40" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="33" t="s">
+      <c r="A60" s="39" t="s">
         <v>271</v>
       </c>
-      <c r="B60" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C60" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="D60" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E60" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="F60" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G60" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="H60" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="I60" s="34" t="s">
+      <c r="B60" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C60" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D60" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E60" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F60" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G60" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="H60" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="I60" s="40" t="s">
         <v>173</v>
       </c>
-      <c r="J60" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="K60" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="L60" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="M60" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="N60" s="35" t="s">
+      <c r="J60" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="K60" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="L60" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="M60" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="N60" s="41" t="s">
         <v>272</v>
       </c>
-      <c r="O60" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="P60" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q60" s="34" t="s">
+      <c r="O60" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="P60" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q60" s="40" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="33" t="s">
+      <c r="A61" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="B61" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C61" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="D61" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E61" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="F61" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G61" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="H61" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="I61" s="34" t="s">
+      <c r="B61" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C61" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D61" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E61" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F61" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G61" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="H61" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="I61" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="J61" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="K61" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="L61" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="M61" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="N61" s="35" t="s">
+      <c r="J61" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="K61" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="L61" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="M61" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="N61" s="41" t="s">
         <v>274</v>
       </c>
-      <c r="O61" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="P61" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q61" s="34" t="s">
+      <c r="O61" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="P61" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q61" s="40" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="33" t="s">
+      <c r="A62" s="39" t="s">
         <v>275</v>
       </c>
-      <c r="B62" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C62" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="D62" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E62" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="F62" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G62" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="H62" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="I62" s="34" t="s">
+      <c r="B62" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D62" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E62" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F62" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G62" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="H62" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="I62" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="J62" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="K62" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="L62" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="M62" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="N62" s="35" t="s">
+      <c r="J62" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="K62" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="L62" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="M62" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="N62" s="41" t="s">
         <v>276</v>
       </c>
-      <c r="O62" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="P62" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q62" s="34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="63" s="40" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="38" t="s">
+      <c r="O62" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="P62" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q62" s="40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" s="46" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="44" t="s">
         <v>277</v>
       </c>
-      <c r="B63" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="C63" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="D63" s="39" t="s">
+      <c r="B63" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="C63" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="D63" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="E63" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="F63" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="G63" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="H63" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="I63" s="39" t="s">
+      <c r="E63" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="F63" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="G63" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="H63" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="I63" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="J63" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="K63" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="L63" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="M63" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="N63" s="39" t="s">
+      <c r="J63" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="K63" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="L63" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="M63" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="N63" s="45" t="s">
         <v>278</v>
       </c>
-      <c r="O63" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="P63" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q63" s="39" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="64" s="40" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="38" t="s">
+      <c r="O63" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="P63" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q63" s="45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" s="46" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="44" t="s">
         <v>279</v>
       </c>
-      <c r="B64" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="C64" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="D64" s="39" t="s">
+      <c r="B64" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="C64" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="D64" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="E64" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="F64" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="G64" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="H64" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="I64" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="J64" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="K64" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="L64" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="M64" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="N64" s="39" t="s">
+      <c r="E64" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="F64" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="G64" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="H64" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="I64" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="J64" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="K64" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="L64" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="M64" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="N64" s="45" t="s">
         <v>280</v>
       </c>
-      <c r="O64" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="P64" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q64" s="39" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="65" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="33" t="s">
+      <c r="O64" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="P64" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q64" s="45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" s="42" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="39" t="s">
         <v>281</v>
       </c>
-      <c r="B65" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C65" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="D65" s="34" t="s">
+      <c r="B65" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C65" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D65" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="E65" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="F65" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G65" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="H65" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="I65" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="J65" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="K65" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="L65" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="M65" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="N65" s="35" t="s">
+      <c r="E65" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F65" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G65" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="H65" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="I65" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="J65" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="K65" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="L65" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="M65" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="N65" s="41" t="s">
         <v>282</v>
       </c>
-      <c r="O65" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="P65" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q65" s="34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="66" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="33" t="s">
+      <c r="O65" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="P65" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q65" s="40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" s="42" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="39" t="s">
         <v>283</v>
       </c>
-      <c r="B66" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C66" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="D66" s="34" t="s">
+      <c r="B66" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C66" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D66" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="E66" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="F66" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G66" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="H66" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="I66" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="J66" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="K66" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="L66" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="M66" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="N66" s="35" t="s">
+      <c r="E66" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F66" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G66" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="H66" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="I66" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="J66" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="K66" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="L66" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="M66" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="N66" s="41" t="s">
         <v>284</v>
       </c>
-      <c r="O66" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="P66" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q66" s="34" t="s">
+      <c r="O66" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="P66" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q66" s="40" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5605,480 +5636,480 @@
         <v>32</v>
       </c>
     </row>
-    <row r="74" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="33" t="s">
+    <row r="74" s="42" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="39" t="s">
         <v>305</v>
       </c>
-      <c r="B74" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C74" s="34" t="s">
+      <c r="B74" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C74" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="D74" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E74" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="F74" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G74" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="H74" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="I74" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="J74" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="K74" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="L74" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="M74" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="N74" s="35" t="s">
+      <c r="D74" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E74" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F74" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G74" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="H74" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="I74" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="J74" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="K74" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="L74" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="M74" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="N74" s="41" t="s">
         <v>306</v>
       </c>
-      <c r="O74" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="P74" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q74" s="34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="75" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="33" t="s">
+      <c r="O74" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="P74" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q74" s="40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" s="42" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="39" t="s">
         <v>307</v>
       </c>
-      <c r="B75" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C75" s="34" t="s">
+      <c r="B75" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C75" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="D75" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E75" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="F75" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G75" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="H75" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="I75" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="J75" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="K75" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="L75" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="M75" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="N75" s="35" t="s">
+      <c r="D75" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E75" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F75" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G75" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="H75" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="I75" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="J75" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="K75" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="L75" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="M75" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="N75" s="41" t="s">
         <v>308</v>
       </c>
-      <c r="O75" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="P75" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q75" s="34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="76" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="33" t="s">
+      <c r="O75" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="P75" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q75" s="40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76" s="42" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="39" t="s">
         <v>309</v>
       </c>
-      <c r="B76" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C76" s="34" t="s">
+      <c r="B76" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C76" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="D76" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E76" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="F76" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G76" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="H76" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="I76" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="J76" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="K76" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="L76" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="M76" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="N76" s="35" t="s">
+      <c r="D76" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E76" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F76" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G76" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="H76" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="I76" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="J76" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="K76" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="L76" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="M76" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="N76" s="41" t="s">
         <v>310</v>
       </c>
-      <c r="O76" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="P76" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q76" s="34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="77" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="33" t="s">
+      <c r="O76" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="P76" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q76" s="40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" s="42" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="39" t="s">
         <v>311</v>
       </c>
-      <c r="B77" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C77" s="34" t="s">
+      <c r="B77" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C77" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="D77" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E77" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="F77" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G77" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="H77" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="I77" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="J77" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="K77" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="L77" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="M77" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="N77" s="35" t="s">
+      <c r="D77" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E77" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F77" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G77" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="H77" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="I77" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="J77" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="K77" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="L77" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="M77" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="N77" s="41" t="s">
         <v>312</v>
       </c>
-      <c r="O77" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="P77" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q77" s="34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="78" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="33" t="s">
+      <c r="O77" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="P77" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q77" s="40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" s="42" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="39" t="s">
         <v>313</v>
       </c>
-      <c r="B78" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C78" s="34" t="s">
+      <c r="B78" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C78" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="D78" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E78" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="F78" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G78" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="H78" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="I78" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="J78" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="K78" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="L78" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="M78" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="N78" s="35" t="s">
+      <c r="D78" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E78" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F78" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G78" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="H78" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="I78" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="J78" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="K78" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="L78" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="M78" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="N78" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="O78" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="P78" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q78" s="34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="79" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="33" t="s">
+      <c r="O78" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="P78" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q78" s="40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" s="42" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="39" t="s">
         <v>315</v>
       </c>
-      <c r="B79" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C79" s="34" t="s">
+      <c r="B79" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C79" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="D79" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E79" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="F79" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G79" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="H79" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="I79" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="J79" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="K79" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="L79" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="M79" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="N79" s="35" t="s">
+      <c r="D79" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E79" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F79" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G79" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="H79" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="I79" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="J79" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="K79" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="L79" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="M79" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="N79" s="41" t="s">
         <v>316</v>
       </c>
-      <c r="O79" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="P79" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q79" s="34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="80" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="33" t="s">
+      <c r="O79" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="P79" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q79" s="40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80" s="42" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="39" t="s">
         <v>317</v>
       </c>
-      <c r="B80" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C80" s="34" t="s">
+      <c r="B80" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C80" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="D80" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E80" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="F80" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G80" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="H80" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="I80" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="J80" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="K80" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="L80" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="M80" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="N80" s="35" t="s">
+      <c r="D80" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E80" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F80" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G80" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="H80" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="I80" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="J80" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="K80" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="L80" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="M80" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="N80" s="41" t="s">
         <v>318</v>
       </c>
-      <c r="O80" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="P80" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q80" s="34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="81" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="33" t="s">
+      <c r="O80" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="P80" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q80" s="40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81" s="42" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="39" t="s">
         <v>319</v>
       </c>
-      <c r="B81" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C81" s="34" t="s">
+      <c r="B81" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C81" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="D81" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E81" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="F81" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G81" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="H81" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="I81" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="J81" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="K81" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="L81" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="M81" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="N81" s="35" t="s">
+      <c r="D81" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E81" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F81" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G81" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="H81" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="I81" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="J81" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="K81" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="L81" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="M81" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="N81" s="41" t="s">
         <v>320</v>
       </c>
-      <c r="O81" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="P81" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q81" s="34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="82" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="33" t="s">
+      <c r="O81" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="P81" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q81" s="40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="82" s="42" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="39" t="s">
         <v>321</v>
       </c>
-      <c r="B82" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C82" s="34" t="s">
+      <c r="B82" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C82" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="D82" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E82" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="F82" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G82" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="H82" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="I82" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="J82" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="K82" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="L82" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="M82" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="N82" s="35" t="s">
+      <c r="D82" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E82" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F82" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G82" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="H82" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="I82" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="J82" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="K82" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="L82" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="M82" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="N82" s="41" t="s">
         <v>322</v>
       </c>
-      <c r="O82" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="P82" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q82" s="34" t="s">
+      <c r="O82" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="P82" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q82" s="40" t="s">
         <v>32</v>
       </c>
     </row>
@@ -8504,7 +8535,7 @@
       <c r="N128" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="O128" s="41" t="s">
+      <c r="O128" s="47" t="s">
         <v>32</v>
       </c>
       <c r="P128" s="6" t="s">

--- a/platform/embedded/stm32f407/stm32f4_function_mappings.xlsx
+++ b/platform/embedded/stm32f407/stm32f4_function_mappings.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2405" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2404" uniqueCount="422">
   <si>
     <t xml:space="preserve">Port</t>
   </si>
@@ -692,30 +692,30 @@
 NXT</t>
   </si>
   <si>
-    <t xml:space="preserve">PC4</t>
-  </si>
-  <si>
     <t xml:space="preserve">ETH
 _MII_TX_CLK</t>
   </si>
   <si>
+    <t xml:space="preserve">PC4</t>
+  </si>
+  <si>
     <t xml:space="preserve">PC5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM8_CH1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I2S2_MCK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USART6_TX</t>
   </si>
   <si>
     <t xml:space="preserve">ETH_MII_RXD1
 ETH_RMII_RXD1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM8_CH1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2S2_MCK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USART6_TX</t>
   </si>
   <si>
     <t xml:space="preserve">SDIO_D6</t>
@@ -1477,7 +1477,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1518,12 +1518,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1570,8 +1574,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1579,6 +1591,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1596,10 +1612,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1750,11 +1762,11 @@
   <dimension ref="A1:R142"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="bottomRight" activeCell="M40" activeCellId="0" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1929,7 +1941,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" s="11" customFormat="true" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="11" customFormat="true" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
         <v>39</v>
       </c>
@@ -2019,7 +2031,7 @@
       <c r="L5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="12" t="s">
         <v>50</v>
       </c>
       <c r="N5" s="9" t="s">
@@ -2247,7 +2259,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" s="11" customFormat="true" ht="37.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" s="11" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
         <v>76</v>
       </c>
@@ -2353,215 +2365,215 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" s="15" customFormat="true" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="s">
+    <row r="12" s="16" customFormat="true" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="13" t="s">
+      <c r="B12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="14" t="s">
+      <c r="D12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="G12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="13" t="s">
+      <c r="G12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="J12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="L12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="M12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="N12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="O12" s="13" t="s">
+      <c r="J12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="P12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q12" s="13" t="s">
+      <c r="P12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q12" s="14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="13" t="s">
+      <c r="B13" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="13" t="s">
+      <c r="D13" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="J13" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="L13" s="16" t="s">
+      <c r="J13" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="M13" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="N13" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="O13" s="13" t="s">
+      <c r="M13" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O13" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="P13" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q13" s="13" t="s">
+      <c r="P13" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q13" s="14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="13" t="s">
+      <c r="B14" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" s="13" t="s">
+      <c r="D14" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="J14" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14" s="13" t="s">
+      <c r="J14" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="L14" s="16" t="s">
+      <c r="L14" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="M14" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="N14" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="O14" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="P14" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q14" s="13" t="s">
+      <c r="M14" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N14" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q14" s="14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="13" t="s">
+      <c r="B15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="13" t="s">
+      <c r="D15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="J15" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="13" t="s">
+      <c r="J15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="L15" s="16" t="s">
+      <c r="L15" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="M15" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="N15" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="O15" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="P15" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q15" s="13" t="s">
+      <c r="M15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="P15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q15" s="14" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2830,311 +2842,311 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="17" t="s">
+    <row r="21" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="B21" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="I21" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="J21" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="K21" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="L21" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="O21" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="P21" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q21" s="18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" s="23" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="20" t="s">
+      <c r="B21" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="O21" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="P21" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q21" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" s="25" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" s="22" t="s">
+      <c r="D22" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="H22" s="21" t="s">
+      <c r="H22" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="I22" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="J22" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="K22" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="L22" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O22" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="P22" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q22" s="22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="20" t="s">
+      <c r="I22" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="L22" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O22" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="P22" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q22" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="C23" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="22" t="s">
+      <c r="C23" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" s="22" t="s">
+      <c r="E23" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="H23" s="22" t="s">
+      <c r="H23" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="I23" s="22" t="s">
+      <c r="I23" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="J23" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="K23" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="L23" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O23" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="P23" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q23" s="22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" s="23" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="20" t="s">
+      <c r="J23" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="L23" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O23" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="P23" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q23" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" s="25" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="B24" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="22" t="s">
+      <c r="B24" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24" s="21" t="s">
+      <c r="E24" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="H24" s="21" t="s">
+      <c r="H24" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="I24" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="J24" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="K24" s="22" t="s">
+      <c r="I24" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="L24" s="21" t="s">
+      <c r="L24" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="M24" s="22" t="s">
+      <c r="M24" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="N24" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O24" s="22" t="s">
+      <c r="N24" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O24" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="P24" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q24" s="22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12" t="s">
+      <c r="P24" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q24" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="13" t="s">
+      <c r="B25" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="E25" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="13" t="s">
+      <c r="E25" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="G25" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I25" s="16" t="s">
+      <c r="G25" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="J25" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="K25" s="13" t="s">
+      <c r="J25" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K25" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="L25" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="O25" s="13" t="s">
+      <c r="L25" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O25" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="P25" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q25" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12" t="s">
+      <c r="P25" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q25" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="13" t="s">
+      <c r="B26" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="E26" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="13" t="s">
+      <c r="E26" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="G26" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I26" s="16" t="s">
+      <c r="G26" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="J26" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="K26" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="L26" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13" t="s">
+      <c r="J26" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K26" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="O26" s="15" t="s">
+      <c r="O26" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="P26" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q26" s="13" t="s">
+      <c r="P26" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q26" s="14" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3242,56 +3254,56 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" s="19" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="17" t="s">
+    <row r="29" s="20" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="B29" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="18" t="s">
+      <c r="B29" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F29" s="18" t="s">
+      <c r="D29" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="G29" s="24" t="s">
+      <c r="G29" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="H29" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="I29" s="18" t="s">
+      <c r="H29" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="J29" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="K29" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="L29" s="25" t="s">
+      <c r="J29" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="K29" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="L29" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="M29" s="18" t="s">
+      <c r="M29" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="N29" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="O29" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="P29" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q29" s="18" t="s">
+      <c r="N29" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="O29" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="P29" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q29" s="19" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3329,7 +3341,7 @@
       <c r="K30" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="L30" s="10" t="s">
+      <c r="L30" s="29" t="s">
         <v>174</v>
       </c>
       <c r="M30" s="10" t="s">
@@ -3364,10 +3376,10 @@
       <c r="E31" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F31" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G31" s="29" t="s">
         <v>178</v>
       </c>
       <c r="H31" s="9" t="s">
@@ -3382,7 +3394,7 @@
       <c r="K31" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="L31" s="10" t="s">
+      <c r="L31" s="29" t="s">
         <v>180</v>
       </c>
       <c r="M31" s="10" t="s">
@@ -3420,7 +3432,7 @@
       <c r="F32" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="G32" s="29" t="s">
         <v>167</v>
       </c>
       <c r="H32" s="9" t="s">
@@ -3435,7 +3447,7 @@
       <c r="K32" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="L32" s="10" t="s">
+      <c r="L32" s="29" t="s">
         <v>185</v>
       </c>
       <c r="M32" s="10" t="s">
@@ -3650,7 +3662,7 @@
       <c r="L36" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M36" s="9" t="s">
+      <c r="M36" s="12" t="s">
         <v>201</v>
       </c>
       <c r="N36" s="9" t="s">
@@ -3666,56 +3678,56 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" s="19" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="17" t="s">
+    <row r="37" s="20" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="B37" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E37" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F37" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="G37" s="26" t="s">
+      <c r="B37" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="H37" s="18" t="s">
+      <c r="H37" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="I37" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="J37" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="K37" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="L37" s="25" t="s">
+      <c r="I37" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J37" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="K37" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="L37" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="M37" s="18" t="s">
+      <c r="M37" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="N37" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="O37" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="P37" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q37" s="18" t="s">
+      <c r="N37" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="O37" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="P37" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q37" s="19" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3756,8 +3768,8 @@
       <c r="L38" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="M38" s="6" t="s">
-        <v>204</v>
+      <c r="M38" s="7" t="s">
+        <v>207</v>
       </c>
       <c r="N38" s="6" t="s">
         <v>32</v>
@@ -3774,7 +3786,7 @@
     </row>
     <row r="39" s="11" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>32</v>
@@ -3810,7 +3822,7 @@
         <v>32</v>
       </c>
       <c r="M39" s="10" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="N39" s="9" t="s">
         <v>32</v>
@@ -3863,7 +3875,7 @@
         <v>32</v>
       </c>
       <c r="M40" s="10" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="N40" s="9" t="s">
         <v>32</v>
@@ -3878,701 +3890,699 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" s="31" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="27" t="s">
-        <v>210</v>
-      </c>
-      <c r="B41" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C41" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="D41" s="28" t="s">
+    <row r="41" s="34" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="E41" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="F41" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="G41" s="28" t="s">
+      <c r="B41" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="H41" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="I41" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="J41" s="29" t="s">
+      <c r="E41" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="F41" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="K41" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="L41" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="M41" s="30" t="s">
+      <c r="H41" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="I41" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="J41" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="N41" s="28" t="s">
+      <c r="K41" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="L41" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="M41" s="32"/>
+      <c r="N41" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="O41" s="28" t="s">
+      <c r="O41" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="P41" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q41" s="28" t="s">
+      <c r="P41" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q41" s="32" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="27" t="s">
+      <c r="A42" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="B42" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C42" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42" s="28" t="s">
+      <c r="B42" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="E42" s="28" t="s">
+      <c r="E42" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="F42" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="G42" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="H42" s="28" t="s">
+      <c r="F42" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="H42" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="I42" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="J42" s="29" t="s">
+      <c r="I42" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="J42" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="K42" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="L42" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="M42" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="N42" s="28" t="s">
+      <c r="K42" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="L42" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="M42" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="N42" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="O42" s="28" t="s">
+      <c r="O42" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="P42" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q42" s="28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="43" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="32" t="s">
+      <c r="P42" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q42" s="32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="B43" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C43" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D43" s="33" t="s">
+      <c r="B43" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="36" t="s">
         <v>222</v>
       </c>
-      <c r="E43" s="33" t="s">
+      <c r="E43" s="36" t="s">
         <v>222</v>
       </c>
-      <c r="F43" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="G43" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="H43" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="I43" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="J43" s="33" t="s">
+      <c r="F43" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G43" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="H43" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="I43" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="J43" s="36" t="s">
         <v>223</v>
       </c>
-      <c r="K43" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="L43" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="M43" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="N43" s="34" t="s">
+      <c r="K43" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="L43" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="M43" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="N43" s="37" t="s">
         <v>224</v>
       </c>
-      <c r="O43" s="33" t="s">
+      <c r="O43" s="36" t="s">
         <v>225</v>
       </c>
-      <c r="P43" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q43" s="33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="44" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="32" t="s">
+      <c r="P43" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q43" s="36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="B44" s="33" t="s">
+      <c r="B44" s="36" t="s">
         <v>227</v>
       </c>
-      <c r="C44" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D44" s="33" t="s">
+      <c r="C44" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="E44" s="33" t="s">
+      <c r="E44" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="F44" s="33" t="s">
+      <c r="F44" s="36" t="s">
         <v>229</v>
       </c>
-      <c r="G44" s="33" t="s">
+      <c r="G44" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="H44" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="I44" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="J44" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="K44" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="L44" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="M44" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="N44" s="34" t="s">
+      <c r="H44" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="I44" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="J44" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="K44" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="L44" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="M44" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="N44" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="O44" s="33" t="s">
+      <c r="O44" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="P44" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q44" s="33" t="s">
+      <c r="P44" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q44" s="36" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="32" t="s">
+      <c r="A45" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="B45" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C45" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D45" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="E45" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="F45" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="G45" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="H45" s="36" t="s">
+      <c r="B45" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="F45" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G45" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="H45" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="I45" s="33" t="s">
+      <c r="I45" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="J45" s="33" t="s">
+      <c r="J45" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="K45" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="L45" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="M45" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="N45" s="34" t="s">
+      <c r="K45" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="L45" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="M45" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="N45" s="37" t="s">
         <v>235</v>
       </c>
-      <c r="O45" s="33" t="s">
+      <c r="O45" s="36" t="s">
         <v>236</v>
       </c>
-      <c r="P45" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q45" s="33" t="s">
+      <c r="P45" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q45" s="36" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="32" t="s">
+      <c r="A46" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="B46" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C46" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D46" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="E46" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="F46" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="G46" s="33" t="s">
+      <c r="B46" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="F46" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G46" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="H46" s="34" t="s">
+      <c r="H46" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="I46" s="33" t="s">
+      <c r="I46" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="J46" s="33" t="s">
+      <c r="J46" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="K46" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="L46" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="M46" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="N46" s="34" t="s">
+      <c r="K46" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="L46" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="M46" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="N46" s="37" t="s">
         <v>238</v>
       </c>
-      <c r="O46" s="33" t="s">
+      <c r="O46" s="36" t="s">
         <v>239</v>
       </c>
-      <c r="P46" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q46" s="33" t="s">
+      <c r="P46" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q46" s="36" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="32" t="s">
+      <c r="A47" s="35" t="s">
         <v>240</v>
       </c>
-      <c r="B47" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C47" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D47" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="E47" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="F47" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="G47" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="H47" s="36" t="s">
+      <c r="B47" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="F47" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G47" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="H47" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="I47" s="33" t="s">
+      <c r="I47" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="J47" s="33" t="s">
+      <c r="J47" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="K47" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="L47" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="M47" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="N47" s="34" t="s">
+      <c r="K47" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="L47" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="M47" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="N47" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="O47" s="33" t="s">
+      <c r="O47" s="36" t="s">
         <v>243</v>
       </c>
-      <c r="P47" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q47" s="33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="48" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="20" t="s">
+      <c r="P47" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q47" s="36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" s="41" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="B48" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C48" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D48" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E48" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F48" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="G48" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="H48" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="I48" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="J48" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="K48" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="L48" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="M48" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="N48" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O48" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="P48" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q48" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="R48" s="38" t="s">
+      <c r="B48" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F48" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H48" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I48" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="J48" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="K48" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="L48" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="M48" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="N48" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O48" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="P48" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q48" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="R48" s="41" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="49" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="20" t="s">
+    <row r="49" s="41" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="B49" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C49" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D49" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E49" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F49" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="G49" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="H49" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="I49" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="J49" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="K49" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="L49" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="M49" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="N49" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O49" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="P49" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q49" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="R49" s="38" t="s">
+      <c r="B49" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F49" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G49" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H49" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I49" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="J49" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="K49" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="L49" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="M49" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="N49" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O49" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="P49" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q49" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="R49" s="41" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="50" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="20" t="s">
+    <row r="50" s="41" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="B50" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D50" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E50" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F50" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="G50" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="H50" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="I50" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="J50" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="K50" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="L50" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="M50" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="N50" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O50" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="P50" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q50" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="R50" s="38" t="s">
+      <c r="B50" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F50" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G50" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H50" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I50" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="J50" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="K50" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="L50" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="M50" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="N50" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O50" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="P50" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q50" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="R50" s="41" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="51" s="42" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="39" t="s">
+    <row r="51" s="45" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="42" t="s">
         <v>250</v>
       </c>
-      <c r="B51" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="C51" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="D51" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="E51" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="F51" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="G51" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="H51" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="I51" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="J51" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="K51" s="40" t="s">
+      <c r="B51" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="F51" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="G51" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="H51" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="I51" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="J51" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="K51" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="L51" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="M51" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="N51" s="41" t="s">
+      <c r="L51" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="M51" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="N51" s="44" t="s">
         <v>251</v>
       </c>
-      <c r="O51" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="P51" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q51" s="40" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="52" s="42" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="39" t="s">
+      <c r="O51" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="P51" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q51" s="43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" s="45" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="B52" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="C52" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="D52" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="E52" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="F52" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="G52" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="H52" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="I52" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="J52" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="K52" s="40" t="s">
+      <c r="B52" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="F52" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="G52" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="H52" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="I52" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="J52" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="K52" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="L52" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="M52" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="N52" s="41" t="s">
+      <c r="L52" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="M52" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="N52" s="44" t="s">
         <v>253</v>
       </c>
-      <c r="O52" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="P52" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q52" s="40" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="53" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="32" t="s">
+      <c r="O52" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="P52" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q52" s="43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="35" t="s">
         <v>254</v>
       </c>
-      <c r="B53" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C53" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D53" s="33" t="s">
+      <c r="B53" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" s="36" t="s">
         <v>255</v>
       </c>
-      <c r="E53" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="F53" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="G53" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="H53" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="I53" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="J53" s="33" t="s">
+      <c r="E53" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="F53" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="H53" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="I53" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="J53" s="36" t="s">
         <v>256</v>
       </c>
-      <c r="K53" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="L53" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="M53" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="N53" s="34" t="s">
+      <c r="K53" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="L53" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="M53" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="N53" s="37" t="s">
         <v>257</v>
       </c>
-      <c r="O53" s="33" t="s">
+      <c r="O53" s="36" t="s">
         <v>258</v>
       </c>
-      <c r="P53" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q53" s="33" t="s">
+      <c r="P53" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q53" s="36" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4629,109 +4639,109 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" s="42" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="39" t="s">
+    <row r="55" s="45" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="42" t="s">
         <v>261</v>
       </c>
-      <c r="B55" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="C55" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="D55" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="E55" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="F55" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="G55" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="H55" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="I55" s="40" t="s">
+      <c r="B55" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C55" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D55" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="F55" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="G55" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="H55" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="I55" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="J55" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="K55" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="L55" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="M55" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="N55" s="41" t="s">
+      <c r="J55" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="K55" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="L55" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="M55" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="N55" s="44" t="s">
         <v>262</v>
       </c>
-      <c r="O55" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="P55" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q55" s="40" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="56" s="42" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="39" t="s">
+      <c r="O55" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="P55" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q55" s="43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" s="45" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="42" t="s">
         <v>263</v>
       </c>
-      <c r="B56" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="C56" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="D56" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="E56" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="F56" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="G56" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="H56" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="I56" s="40" t="s">
+      <c r="B56" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E56" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="F56" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="G56" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="H56" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="I56" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="J56" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="K56" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="L56" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="M56" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="N56" s="41" t="s">
+      <c r="J56" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="K56" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="L56" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="M56" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="N56" s="44" t="s">
         <v>264</v>
       </c>
-      <c r="O56" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="P56" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q56" s="40" t="s">
+      <c r="O56" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="P56" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q56" s="43" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4788,480 +4798,480 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" s="42" customFormat="true" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="39" t="s">
+    <row r="58" s="45" customFormat="true" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="42" t="s">
         <v>267</v>
       </c>
-      <c r="B58" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="C58" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="D58" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="E58" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="F58" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="G58" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="H58" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="I58" s="40" t="s">
+      <c r="B58" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D58" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="F58" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="G58" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="H58" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="I58" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="J58" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="K58" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="L58" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="M58" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="N58" s="43" t="s">
+      <c r="J58" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="K58" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="L58" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="M58" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="N58" s="46" t="s">
         <v>268</v>
       </c>
-      <c r="O58" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="P58" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q58" s="40" t="s">
+      <c r="O58" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="P58" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q58" s="43" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="39" t="s">
+      <c r="A59" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="B59" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="C59" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="D59" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="E59" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="F59" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="G59" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="H59" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="I59" s="40" t="s">
+      <c r="B59" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C59" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D59" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E59" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="F59" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="G59" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="H59" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="I59" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="K59" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="L59" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="M59" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="N59" s="41" t="s">
+      <c r="J59" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="K59" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="L59" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="M59" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="N59" s="44" t="s">
         <v>270</v>
       </c>
-      <c r="O59" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="P59" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q59" s="40" t="s">
+      <c r="O59" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="P59" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q59" s="43" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="39" t="s">
+      <c r="A60" s="42" t="s">
         <v>271</v>
       </c>
-      <c r="B60" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="C60" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="D60" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="E60" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="F60" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="G60" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="H60" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="I60" s="40" t="s">
+      <c r="B60" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C60" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D60" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E60" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="F60" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="G60" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="H60" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="I60" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="J60" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="K60" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="L60" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="M60" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="N60" s="41" t="s">
+      <c r="J60" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="K60" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="L60" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="M60" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="N60" s="44" t="s">
         <v>272</v>
       </c>
-      <c r="O60" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="P60" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q60" s="40" t="s">
+      <c r="O60" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="P60" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q60" s="43" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="39" t="s">
+      <c r="A61" s="42" t="s">
         <v>273</v>
       </c>
-      <c r="B61" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="C61" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="D61" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="E61" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="F61" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="G61" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="H61" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="I61" s="40" t="s">
+      <c r="B61" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C61" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D61" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E61" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="F61" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="G61" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="H61" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="I61" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="J61" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="K61" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="L61" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="M61" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="N61" s="41" t="s">
+      <c r="J61" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="K61" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="L61" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="M61" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="N61" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="O61" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="P61" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q61" s="40" t="s">
+      <c r="O61" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="P61" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q61" s="43" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="39" t="s">
+      <c r="A62" s="42" t="s">
         <v>275</v>
       </c>
-      <c r="B62" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="C62" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="D62" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="E62" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="F62" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="G62" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="H62" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="I62" s="40" t="s">
+      <c r="B62" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D62" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E62" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="F62" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="G62" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="H62" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="I62" s="43" t="s">
         <v>184</v>
       </c>
-      <c r="J62" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="K62" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="L62" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="M62" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="N62" s="41" t="s">
+      <c r="J62" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="K62" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="L62" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="M62" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="N62" s="44" t="s">
         <v>276</v>
       </c>
-      <c r="O62" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="P62" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q62" s="40" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="63" s="46" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="44" t="s">
+      <c r="O62" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="P62" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q62" s="43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" s="49" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="47" t="s">
         <v>277</v>
       </c>
-      <c r="B63" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="C63" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="D63" s="45" t="s">
+      <c r="B63" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C63" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="D63" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="E63" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="F63" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="G63" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="H63" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="I63" s="45" t="s">
+      <c r="E63" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="F63" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="G63" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="H63" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="I63" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="J63" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="K63" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="L63" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="M63" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="N63" s="45" t="s">
+      <c r="J63" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="K63" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="L63" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="M63" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="N63" s="48" t="s">
         <v>278</v>
       </c>
-      <c r="O63" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="P63" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q63" s="45" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="64" s="46" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="44" t="s">
+      <c r="O63" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="P63" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q63" s="48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" s="49" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="47" t="s">
         <v>279</v>
       </c>
-      <c r="B64" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="C64" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="D64" s="45" t="s">
+      <c r="B64" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C64" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="D64" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="E64" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="F64" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="G64" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="H64" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="I64" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="J64" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="K64" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="L64" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="M64" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="N64" s="45" t="s">
+      <c r="E64" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="F64" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="G64" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="H64" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="I64" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="J64" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="K64" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="L64" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="M64" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="N64" s="48" t="s">
         <v>280</v>
       </c>
-      <c r="O64" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="P64" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q64" s="45" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="65" s="42" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="39" t="s">
+      <c r="O64" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="P64" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q64" s="48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" s="45" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="42" t="s">
         <v>281</v>
       </c>
-      <c r="B65" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="C65" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="D65" s="40" t="s">
+      <c r="B65" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C65" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D65" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="E65" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="F65" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="G65" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="H65" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="I65" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="J65" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="K65" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="L65" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="M65" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="N65" s="41" t="s">
+      <c r="E65" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="F65" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="G65" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="H65" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="I65" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="J65" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="K65" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="L65" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="M65" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="N65" s="44" t="s">
         <v>282</v>
       </c>
-      <c r="O65" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="P65" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q65" s="40" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="66" s="42" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="39" t="s">
+      <c r="O65" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="P65" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q65" s="43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" s="45" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="42" t="s">
         <v>283</v>
       </c>
-      <c r="B66" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="C66" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="D66" s="40" t="s">
+      <c r="B66" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C66" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D66" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="E66" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="F66" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="G66" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="H66" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="I66" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="J66" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="K66" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="L66" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="M66" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="N66" s="41" t="s">
+      <c r="E66" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="F66" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="G66" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="H66" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="I66" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="J66" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="K66" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="L66" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="M66" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="N66" s="44" t="s">
         <v>284</v>
       </c>
-      <c r="O66" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="P66" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q66" s="40" t="s">
+      <c r="O66" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="P66" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q66" s="43" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5636,480 +5646,480 @@
         <v>32</v>
       </c>
     </row>
-    <row r="74" s="42" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="39" t="s">
+    <row r="74" s="45" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="42" t="s">
         <v>305</v>
       </c>
-      <c r="B74" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="C74" s="40" t="s">
+      <c r="B74" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C74" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="D74" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="E74" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="F74" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="G74" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="H74" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="I74" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="J74" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="K74" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="L74" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="M74" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="N74" s="41" t="s">
+      <c r="D74" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E74" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="F74" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="G74" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="H74" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="I74" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="J74" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="K74" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="L74" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="M74" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="N74" s="44" t="s">
         <v>306</v>
       </c>
-      <c r="O74" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="P74" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q74" s="40" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="75" s="42" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="39" t="s">
+      <c r="O74" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="P74" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q74" s="43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" s="45" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="42" t="s">
         <v>307</v>
       </c>
-      <c r="B75" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="C75" s="40" t="s">
+      <c r="B75" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C75" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="D75" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="E75" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="F75" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="G75" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="H75" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="I75" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="J75" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="K75" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="L75" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="M75" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="N75" s="41" t="s">
+      <c r="D75" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E75" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="F75" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="G75" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="H75" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="I75" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="J75" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="K75" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="L75" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="M75" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="N75" s="44" t="s">
         <v>308</v>
       </c>
-      <c r="O75" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="P75" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q75" s="40" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="76" s="42" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="39" t="s">
+      <c r="O75" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="P75" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q75" s="43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76" s="45" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="42" t="s">
         <v>309</v>
       </c>
-      <c r="B76" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="C76" s="40" t="s">
+      <c r="B76" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C76" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="D76" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="E76" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="F76" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="G76" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="H76" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="I76" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="J76" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="K76" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="L76" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="M76" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="N76" s="41" t="s">
+      <c r="D76" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E76" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="F76" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="G76" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="H76" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="I76" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="J76" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="K76" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="L76" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="M76" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="N76" s="44" t="s">
         <v>310</v>
       </c>
-      <c r="O76" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="P76" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q76" s="40" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="77" s="42" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="39" t="s">
+      <c r="O76" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="P76" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q76" s="43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" s="45" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="42" t="s">
         <v>311</v>
       </c>
-      <c r="B77" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="C77" s="40" t="s">
+      <c r="B77" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C77" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="D77" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="E77" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="F77" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="G77" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="H77" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="I77" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="J77" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="K77" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="L77" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="M77" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="N77" s="41" t="s">
+      <c r="D77" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E77" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="F77" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="G77" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="H77" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="I77" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="J77" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="K77" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="L77" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="M77" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="N77" s="44" t="s">
         <v>312</v>
       </c>
-      <c r="O77" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="P77" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q77" s="40" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="78" s="42" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="39" t="s">
+      <c r="O77" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="P77" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q77" s="43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" s="45" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="42" t="s">
         <v>313</v>
       </c>
-      <c r="B78" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="C78" s="40" t="s">
+      <c r="B78" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C78" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="D78" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="E78" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="F78" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="G78" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="H78" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="I78" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="J78" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="K78" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="L78" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="M78" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="N78" s="41" t="s">
+      <c r="D78" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E78" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="F78" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="G78" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="H78" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="I78" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="J78" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="K78" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="L78" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="M78" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="N78" s="44" t="s">
         <v>314</v>
       </c>
-      <c r="O78" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="P78" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q78" s="40" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="79" s="42" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="39" t="s">
+      <c r="O78" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="P78" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q78" s="43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" s="45" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="42" t="s">
         <v>315</v>
       </c>
-      <c r="B79" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="C79" s="40" t="s">
+      <c r="B79" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C79" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="D79" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="E79" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="F79" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="G79" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="H79" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="I79" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="J79" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="K79" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="L79" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="M79" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="N79" s="41" t="s">
+      <c r="D79" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E79" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="F79" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="G79" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="H79" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="I79" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="J79" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="K79" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="L79" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="M79" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="N79" s="44" t="s">
         <v>316</v>
       </c>
-      <c r="O79" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="P79" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q79" s="40" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="80" s="42" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="39" t="s">
+      <c r="O79" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="P79" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q79" s="43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80" s="45" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="42" t="s">
         <v>317</v>
       </c>
-      <c r="B80" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="C80" s="40" t="s">
+      <c r="B80" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C80" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="D80" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="E80" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="F80" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="G80" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="H80" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="I80" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="J80" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="K80" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="L80" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="M80" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="N80" s="41" t="s">
+      <c r="D80" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E80" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="F80" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="G80" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="H80" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="I80" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="J80" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="K80" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="L80" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="M80" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="N80" s="44" t="s">
         <v>318</v>
       </c>
-      <c r="O80" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="P80" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q80" s="40" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="81" s="42" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="39" t="s">
+      <c r="O80" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="P80" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q80" s="43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81" s="45" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="42" t="s">
         <v>319</v>
       </c>
-      <c r="B81" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="C81" s="40" t="s">
+      <c r="B81" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C81" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="D81" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="E81" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="F81" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="G81" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="H81" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="I81" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="J81" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="K81" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="L81" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="M81" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="N81" s="41" t="s">
+      <c r="D81" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E81" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="F81" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="G81" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="H81" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="I81" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="J81" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="K81" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="L81" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="M81" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="N81" s="44" t="s">
         <v>320</v>
       </c>
-      <c r="O81" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="P81" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q81" s="40" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="82" s="42" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="39" t="s">
+      <c r="O81" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="P81" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q81" s="43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="82" s="45" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="42" t="s">
         <v>321</v>
       </c>
-      <c r="B82" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="C82" s="40" t="s">
+      <c r="B82" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C82" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="D82" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="E82" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="F82" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="G82" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="H82" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="I82" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="J82" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="K82" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="L82" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="M82" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="N82" s="41" t="s">
+      <c r="D82" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E82" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="F82" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="G82" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="H82" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="I82" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="J82" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="K82" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="L82" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="M82" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="N82" s="44" t="s">
         <v>322</v>
       </c>
-      <c r="O82" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="P82" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q82" s="40" t="s">
+      <c r="O82" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="P82" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q82" s="43" t="s">
         <v>32</v>
       </c>
     </row>
@@ -7728,7 +7738,7 @@
         <v>32</v>
       </c>
       <c r="J113" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K113" s="6" t="s">
         <v>32</v>
@@ -8535,7 +8545,7 @@
       <c r="N128" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="O128" s="47" t="s">
+      <c r="O128" s="50" t="s">
         <v>32</v>
       </c>
       <c r="P128" s="6" t="s">
@@ -8930,7 +8940,7 @@
         <v>32</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F136" s="6" t="s">
         <v>32</v>

--- a/platform/embedded/stm32f407/stm32f4_function_mappings.xlsx
+++ b/platform/embedded/stm32f407/stm32f4_function_mappings.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2404" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2405" uniqueCount="423">
   <si>
     <t xml:space="preserve">Port</t>
   </si>
@@ -667,6 +667,9 @@
   <si>
     <t xml:space="preserve">OTG_HS_ULPI_
 STP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDIO_CD</t>
   </si>
   <si>
     <t xml:space="preserve">PC1</t>
@@ -1420,14 +1423,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00FFFF"/>
-        <bgColor rgb="FF00FFFF"/>
+        <fgColor rgb="FFFF33FF"/>
+        <bgColor rgb="FFFF00FF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF33FF"/>
-        <bgColor rgb="FFFF00FF"/>
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor rgb="FF00FFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -1477,7 +1480,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1598,10 +1601,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1610,12 +1609,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1634,7 +1637,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1762,11 +1769,11 @@
   <dimension ref="A1:R142"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
-      <selection pane="bottomRight" activeCell="M40" activeCellId="0" sqref="M40"/>
+      <selection pane="bottomLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
+      <selection pane="bottomRight" activeCell="R48" activeCellId="0" sqref="R48:R50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3572,62 +3579,65 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5" t="s">
+    <row r="35" s="33" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K35" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L35" s="7" t="s">
+      <c r="B35" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J35" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="K35" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="L35" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="M35" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N35" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O35" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P35" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q35" s="6" t="s">
-        <v>32</v>
+      <c r="M35" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="N35" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="O35" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="P35" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q35" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="R35" s="30" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="36" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>32</v>
@@ -3663,7 +3673,7 @@
         <v>32</v>
       </c>
       <c r="M36" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N36" s="9" t="s">
         <v>32</v>
@@ -3680,7 +3690,7 @@
     </row>
     <row r="37" s="20" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="18" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B37" s="19" t="s">
         <v>32</v>
@@ -3697,7 +3707,7 @@
       <c r="F37" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="G37" s="30" t="s">
+      <c r="G37" s="34" t="s">
         <v>188</v>
       </c>
       <c r="H37" s="19" t="s">
@@ -3713,10 +3723,10 @@
         <v>32</v>
       </c>
       <c r="L37" s="28" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M37" s="19" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N37" s="19" t="s">
         <v>32</v>
@@ -3733,7 +3743,7 @@
     </row>
     <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>32</v>
@@ -3766,10 +3776,10 @@
         <v>32</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N38" s="6" t="s">
         <v>32</v>
@@ -3786,7 +3796,7 @@
     </row>
     <row r="39" s="11" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>32</v>
@@ -3839,7 +3849,7 @@
     </row>
     <row r="40" s="11" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>32</v>
@@ -3875,7 +3885,7 @@
         <v>32</v>
       </c>
       <c r="M40" s="10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N40" s="9" t="s">
         <v>32</v>
@@ -3890,378 +3900,378 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" s="34" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="B41" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C41" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="D41" s="32" t="s">
+    <row r="41" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="E41" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="F41" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="G41" s="32" t="s">
+      <c r="B41" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="H41" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="I41" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="J41" s="33" t="s">
+      <c r="E41" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="F41" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" s="36" t="s">
         <v>214</v>
       </c>
-      <c r="K41" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="L41" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="M41" s="32"/>
-      <c r="N41" s="32" t="s">
+      <c r="H41" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="I41" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="J41" s="37" t="s">
         <v>215</v>
       </c>
-      <c r="O41" s="32" t="s">
+      <c r="K41" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="L41" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="O41" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="P41" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q41" s="32" t="s">
+      <c r="P41" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q41" s="36" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="B42" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C42" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42" s="32" t="s">
+      <c r="A42" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="E42" s="32" t="s">
-        <v>217</v>
-      </c>
-      <c r="F42" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="G42" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="H42" s="32" t="s">
+      <c r="B42" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="I42" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="J42" s="33" t="s">
+      <c r="E42" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="F42" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="H42" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="K42" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="L42" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="M42" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="N42" s="32" t="s">
+      <c r="I42" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="J42" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="O42" s="32" t="s">
+      <c r="K42" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="L42" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="M42" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="N42" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="O42" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="P42" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q42" s="32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="43" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="35" t="s">
-        <v>221</v>
-      </c>
-      <c r="B43" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C43" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="D43" s="36" t="s">
+      <c r="P42" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q42" s="36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="E43" s="36" t="s">
-        <v>222</v>
-      </c>
-      <c r="F43" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="G43" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="H43" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="I43" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="J43" s="36" t="s">
+      <c r="B43" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="K43" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="L43" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="M43" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="N43" s="37" t="s">
+      <c r="E43" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="F43" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G43" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="H43" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I43" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J43" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="O43" s="36" t="s">
+      <c r="K43" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="L43" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="M43" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="N43" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="P43" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q43" s="36" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="44" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="35" t="s">
+      <c r="O43" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="B44" s="36" t="s">
+      <c r="P43" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q43" s="31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="C44" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="D44" s="36" t="s">
+      <c r="B44" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="E44" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="F44" s="36" t="s">
+      <c r="C44" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="G44" s="36" t="s">
+      <c r="E44" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="F44" s="31" t="s">
         <v>230</v>
       </c>
-      <c r="H44" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="I44" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="J44" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="K44" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="L44" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="M44" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="N44" s="37" t="s">
+      <c r="G44" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="O44" s="36" t="s">
+      <c r="H44" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I44" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J44" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="K44" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="L44" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="M44" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="N44" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="P44" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q44" s="36" t="s">
+      <c r="O44" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="P44" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q44" s="31" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="B45" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C45" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="D45" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="E45" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="F45" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="G45" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="H45" s="39" t="s">
+      <c r="A45" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="I45" s="36" t="s">
+      <c r="B45" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F45" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G45" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="H45" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="I45" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="J45" s="36" t="s">
+      <c r="J45" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="K45" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="L45" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="M45" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="N45" s="37" t="s">
-        <v>235</v>
-      </c>
-      <c r="O45" s="36" t="s">
+      <c r="K45" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="L45" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="M45" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="N45" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="P45" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q45" s="36" t="s">
+      <c r="O45" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="P45" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q45" s="31" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="B46" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C46" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="D46" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="E46" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="F46" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="G46" s="36" t="s">
+      <c r="A46" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="B46" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F46" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G46" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="H46" s="37" t="s">
+      <c r="H46" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="I46" s="36" t="s">
+      <c r="I46" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="J46" s="36" t="s">
+      <c r="J46" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="K46" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="L46" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="M46" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="N46" s="37" t="s">
-        <v>238</v>
-      </c>
-      <c r="O46" s="36" t="s">
+      <c r="K46" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="L46" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="M46" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="N46" s="39" t="s">
         <v>239</v>
       </c>
-      <c r="P46" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q46" s="36" t="s">
+      <c r="O46" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="P46" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q46" s="31" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="35" t="s">
-        <v>240</v>
-      </c>
-      <c r="B47" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C47" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="D47" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="E47" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="F47" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="G47" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="H47" s="39" t="s">
+      <c r="A47" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="B47" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F47" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G47" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="H47" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="I47" s="36" t="s">
+      <c r="I47" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="J47" s="36" t="s">
-        <v>241</v>
-      </c>
-      <c r="K47" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="L47" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="M47" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="N47" s="37" t="s">
+      <c r="J47" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="O47" s="36" t="s">
+      <c r="K47" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="L47" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="M47" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="N47" s="39" t="s">
         <v>243</v>
       </c>
-      <c r="P47" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q47" s="36" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="48" s="41" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O47" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="P47" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q47" s="31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" s="42" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="21" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B48" s="23" t="s">
         <v>32</v>
@@ -4302,7 +4312,7 @@
       <c r="N48" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="O48" s="40" t="s">
+      <c r="O48" s="41" t="s">
         <v>32</v>
       </c>
       <c r="P48" s="23" t="s">
@@ -4311,13 +4321,13 @@
       <c r="Q48" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="R48" s="41" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="49" s="41" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R48" s="21" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="49" s="42" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="21" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B49" s="23" t="s">
         <v>32</v>
@@ -4367,13 +4377,13 @@
       <c r="Q49" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="R49" s="41" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="50" s="41" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R49" s="21" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="50" s="42" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="21" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B50" s="23" t="s">
         <v>32</v>
@@ -4414,7 +4424,7 @@
       <c r="N50" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="O50" s="40" t="s">
+      <c r="O50" s="41" t="s">
         <v>32</v>
       </c>
       <c r="P50" s="23" t="s">
@@ -4423,172 +4433,172 @@
       <c r="Q50" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="R50" s="41" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="51" s="45" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="42" t="s">
+      <c r="R50" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="B51" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C51" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="D51" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="E51" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="F51" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G51" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="H51" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="I51" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="J51" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="K51" s="43" t="s">
+    </row>
+    <row r="51" s="46" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="43" t="s">
+        <v>251</v>
+      </c>
+      <c r="B51" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="F51" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="G51" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="H51" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="I51" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="J51" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="K51" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="L51" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="M51" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="N51" s="44" t="s">
-        <v>251</v>
-      </c>
-      <c r="O51" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="P51" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q51" s="43" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="52" s="45" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="42" t="s">
+      <c r="L51" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="M51" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="N51" s="45" t="s">
         <v>252</v>
       </c>
-      <c r="B52" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C52" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="D52" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="E52" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="F52" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G52" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="H52" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="I52" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="J52" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="K52" s="43" t="s">
+      <c r="O51" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="P51" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q51" s="44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" s="46" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="B52" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="F52" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="G52" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="H52" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="I52" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="J52" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="K52" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="L52" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="M52" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="N52" s="44" t="s">
-        <v>253</v>
-      </c>
-      <c r="O52" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="P52" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q52" s="43" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="53" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="35" t="s">
+      <c r="L52" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="M52" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="N52" s="45" t="s">
         <v>254</v>
       </c>
-      <c r="B53" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C53" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="D53" s="36" t="s">
+      <c r="O52" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="P52" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q52" s="44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="30" t="s">
         <v>255</v>
       </c>
-      <c r="E53" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="F53" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="G53" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="H53" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="I53" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="J53" s="36" t="s">
+      <c r="B53" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" s="31" t="s">
         <v>256</v>
       </c>
-      <c r="K53" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="L53" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="M53" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="N53" s="37" t="s">
+      <c r="E53" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F53" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="H53" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I53" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J53" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="O53" s="36" t="s">
+      <c r="K53" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="L53" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="M53" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="N53" s="39" t="s">
         <v>258</v>
       </c>
-      <c r="P53" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q53" s="36" t="s">
+      <c r="O53" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="P53" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q53" s="31" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>32</v>
@@ -4627,7 +4637,7 @@
         <v>32</v>
       </c>
       <c r="N54" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O54" s="6" t="s">
         <v>32</v>
@@ -4639,115 +4649,115 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" s="45" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="42" t="s">
-        <v>261</v>
-      </c>
-      <c r="B55" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C55" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="D55" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="E55" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="F55" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G55" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="H55" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="I55" s="43" t="s">
+    <row r="55" s="46" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="43" t="s">
+        <v>262</v>
+      </c>
+      <c r="B55" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C55" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="D55" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="F55" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="G55" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="H55" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="I55" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="J55" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="K55" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="L55" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="M55" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="N55" s="44" t="s">
-        <v>262</v>
-      </c>
-      <c r="O55" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="P55" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q55" s="43" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="56" s="45" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="42" t="s">
+      <c r="J55" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="K55" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="L55" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="M55" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="N55" s="45" t="s">
         <v>263</v>
       </c>
-      <c r="B56" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C56" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="D56" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="E56" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="F56" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G56" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="H56" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="I56" s="43" t="s">
+      <c r="O55" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="P55" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q55" s="44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" s="46" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="43" t="s">
+        <v>264</v>
+      </c>
+      <c r="B56" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E56" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="F56" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="G56" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="H56" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="I56" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="J56" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="K56" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="L56" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="M56" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="N56" s="44" t="s">
-        <v>264</v>
-      </c>
-      <c r="O56" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="P56" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q56" s="43" t="s">
+      <c r="J56" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="K56" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="L56" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="M56" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="N56" s="45" t="s">
+        <v>265</v>
+      </c>
+      <c r="O56" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="P56" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q56" s="44" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>32</v>
@@ -4786,7 +4796,7 @@
         <v>32</v>
       </c>
       <c r="N57" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O57" s="6" t="s">
         <v>32</v>
@@ -4798,486 +4808,486 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" s="45" customFormat="true" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="42" t="s">
-        <v>267</v>
-      </c>
-      <c r="B58" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C58" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="D58" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="E58" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="F58" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G58" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="H58" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="I58" s="43" t="s">
+    <row r="58" s="46" customFormat="true" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="43" t="s">
+        <v>268</v>
+      </c>
+      <c r="B58" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="D58" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="F58" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="G58" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="H58" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="I58" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="J58" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="K58" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="L58" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="M58" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="N58" s="46" t="s">
-        <v>268</v>
-      </c>
-      <c r="O58" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="P58" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q58" s="43" t="s">
+      <c r="J58" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="K58" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="L58" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="M58" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="N58" s="47" t="s">
+        <v>269</v>
+      </c>
+      <c r="O58" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="P58" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q58" s="44" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="42" t="s">
-        <v>269</v>
-      </c>
-      <c r="B59" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C59" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="D59" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="E59" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="F59" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G59" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="H59" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="I59" s="43" t="s">
+      <c r="A59" s="43" t="s">
+        <v>270</v>
+      </c>
+      <c r="B59" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C59" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="D59" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E59" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="F59" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="G59" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="H59" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="I59" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="K59" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="L59" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="M59" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="N59" s="44" t="s">
-        <v>270</v>
-      </c>
-      <c r="O59" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="P59" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q59" s="43" t="s">
+      <c r="J59" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="K59" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="L59" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="M59" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="N59" s="45" t="s">
+        <v>271</v>
+      </c>
+      <c r="O59" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="P59" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q59" s="44" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="42" t="s">
-        <v>271</v>
-      </c>
-      <c r="B60" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C60" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="D60" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="E60" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="F60" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G60" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="H60" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="I60" s="43" t="s">
+      <c r="A60" s="43" t="s">
+        <v>272</v>
+      </c>
+      <c r="B60" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C60" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="D60" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E60" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="F60" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="G60" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="H60" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="I60" s="44" t="s">
         <v>173</v>
       </c>
-      <c r="J60" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="K60" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="L60" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="M60" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="N60" s="44" t="s">
-        <v>272</v>
-      </c>
-      <c r="O60" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="P60" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q60" s="43" t="s">
+      <c r="J60" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="K60" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="L60" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="M60" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="N60" s="45" t="s">
+        <v>273</v>
+      </c>
+      <c r="O60" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="P60" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q60" s="44" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="42" t="s">
-        <v>273</v>
-      </c>
-      <c r="B61" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C61" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="D61" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="E61" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="F61" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G61" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="H61" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="I61" s="43" t="s">
+      <c r="A61" s="43" t="s">
+        <v>274</v>
+      </c>
+      <c r="B61" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C61" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="D61" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E61" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="F61" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="G61" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="H61" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="I61" s="44" t="s">
         <v>179</v>
       </c>
-      <c r="J61" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="K61" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="L61" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="M61" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="N61" s="44" t="s">
-        <v>274</v>
-      </c>
-      <c r="O61" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="P61" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q61" s="43" t="s">
+      <c r="J61" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="K61" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="L61" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="M61" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="N61" s="45" t="s">
+        <v>275</v>
+      </c>
+      <c r="O61" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="P61" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q61" s="44" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="42" t="s">
-        <v>275</v>
-      </c>
-      <c r="B62" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C62" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="D62" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="E62" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="F62" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G62" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="H62" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="I62" s="43" t="s">
+      <c r="A62" s="43" t="s">
+        <v>276</v>
+      </c>
+      <c r="B62" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="D62" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E62" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="F62" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="G62" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="H62" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="I62" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="J62" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="K62" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="L62" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="M62" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="N62" s="44" t="s">
-        <v>276</v>
-      </c>
-      <c r="O62" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="P62" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q62" s="43" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="63" s="49" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="47" t="s">
+      <c r="J62" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="K62" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="L62" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="M62" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="N62" s="45" t="s">
         <v>277</v>
       </c>
-      <c r="B63" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="C63" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="D63" s="48" t="s">
+      <c r="O62" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="P62" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q62" s="44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" s="50" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="48" t="s">
+        <v>278</v>
+      </c>
+      <c r="B63" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="C63" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="D63" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="E63" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="F63" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="G63" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="H63" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="I63" s="48" t="s">
+      <c r="E63" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="F63" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="G63" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="H63" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="I63" s="49" t="s">
         <v>190</v>
       </c>
-      <c r="J63" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="K63" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="L63" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="M63" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="N63" s="48" t="s">
-        <v>278</v>
-      </c>
-      <c r="O63" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="P63" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q63" s="48" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="64" s="49" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="47" t="s">
+      <c r="J63" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="K63" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="L63" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="M63" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="N63" s="49" t="s">
         <v>279</v>
       </c>
-      <c r="B64" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="C64" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="D64" s="48" t="s">
+      <c r="O63" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="P63" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q63" s="49" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" s="50" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="48" t="s">
+        <v>280</v>
+      </c>
+      <c r="B64" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="C64" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="D64" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="E64" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="F64" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="G64" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="H64" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="I64" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="J64" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="K64" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="L64" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="M64" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="N64" s="48" t="s">
-        <v>280</v>
-      </c>
-      <c r="O64" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="P64" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q64" s="48" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="65" s="45" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="42" t="s">
+      <c r="E64" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="F64" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="G64" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="H64" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="I64" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="J64" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="K64" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="L64" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="M64" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="N64" s="49" t="s">
         <v>281</v>
       </c>
-      <c r="B65" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C65" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="D65" s="43" t="s">
+      <c r="O64" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="P64" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q64" s="49" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" s="46" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="43" t="s">
+        <v>282</v>
+      </c>
+      <c r="B65" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C65" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="D65" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="E65" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="F65" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G65" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="H65" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="I65" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="J65" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="K65" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="L65" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="M65" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="N65" s="44" t="s">
-        <v>282</v>
-      </c>
-      <c r="O65" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="P65" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q65" s="43" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="66" s="45" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="42" t="s">
+      <c r="E65" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="F65" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="G65" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="H65" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="I65" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="J65" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="K65" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="L65" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="M65" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="N65" s="45" t="s">
         <v>283</v>
       </c>
-      <c r="B66" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C66" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="D66" s="43" t="s">
+      <c r="O65" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="P65" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q65" s="44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" s="46" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="43" t="s">
+        <v>284</v>
+      </c>
+      <c r="B66" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C66" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="D66" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="E66" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="F66" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G66" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="H66" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="I66" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="J66" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="K66" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="L66" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="M66" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="N66" s="44" t="s">
-        <v>284</v>
-      </c>
-      <c r="O66" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="P66" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q66" s="43" t="s">
+      <c r="E66" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="F66" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="G66" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="H66" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="I66" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="J66" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="K66" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="L66" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="M66" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="N66" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="O66" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="P66" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q66" s="44" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>32</v>
@@ -5286,7 +5296,7 @@
         <v>32</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>32</v>
@@ -5316,10 +5326,10 @@
         <v>32</v>
       </c>
       <c r="N67" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O67" s="6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P67" s="6" t="s">
         <v>32</v>
@@ -5330,7 +5340,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>32</v>
@@ -5369,10 +5379,10 @@
         <v>32</v>
       </c>
       <c r="N68" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O68" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P68" s="6" t="s">
         <v>32</v>
@@ -5383,10 +5393,10 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>32</v>
@@ -5422,7 +5432,7 @@
         <v>156</v>
       </c>
       <c r="N69" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O69" s="6" t="s">
         <v>32</v>
@@ -5436,10 +5446,10 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>32</v>
@@ -5475,7 +5485,7 @@
         <v>32</v>
       </c>
       <c r="N70" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O70" s="6" t="s">
         <v>32</v>
@@ -5489,10 +5499,10 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>32</v>
@@ -5528,10 +5538,10 @@
         <v>32</v>
       </c>
       <c r="N71" s="6" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O71" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P71" s="6" t="s">
         <v>32</v>
@@ -5542,10 +5552,10 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>32</v>
@@ -5581,7 +5591,7 @@
         <v>32</v>
       </c>
       <c r="N72" s="6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O72" s="6" t="s">
         <v>158</v>
@@ -5595,10 +5605,10 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>32</v>
@@ -5634,7 +5644,7 @@
         <v>32</v>
       </c>
       <c r="N73" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O73" s="6" t="s">
         <v>164</v>
@@ -5646,486 +5656,486 @@
         <v>32</v>
       </c>
     </row>
-    <row r="74" s="45" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="42" t="s">
-        <v>305</v>
-      </c>
-      <c r="B74" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C74" s="43" t="s">
+    <row r="74" s="46" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="43" t="s">
+        <v>306</v>
+      </c>
+      <c r="B74" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C74" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="D74" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="E74" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="F74" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G74" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="H74" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="I74" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="J74" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="K74" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="L74" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="M74" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="N74" s="44" t="s">
-        <v>306</v>
-      </c>
-      <c r="O74" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="P74" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q74" s="43" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="75" s="45" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="42" t="s">
+      <c r="D74" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E74" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="F74" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="G74" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="H74" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="I74" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="J74" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="K74" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="L74" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="M74" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="N74" s="45" t="s">
         <v>307</v>
       </c>
-      <c r="B75" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C75" s="43" t="s">
+      <c r="O74" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="P74" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q74" s="44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" s="46" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="43" t="s">
+        <v>308</v>
+      </c>
+      <c r="B75" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C75" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="D75" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="E75" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="F75" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G75" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="H75" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="I75" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="J75" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="K75" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="L75" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="M75" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="N75" s="44" t="s">
-        <v>308</v>
-      </c>
-      <c r="O75" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="P75" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q75" s="43" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="76" s="45" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="42" t="s">
+      <c r="D75" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E75" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="F75" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="G75" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="H75" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="I75" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="J75" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="K75" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="L75" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="M75" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="N75" s="45" t="s">
         <v>309</v>
       </c>
-      <c r="B76" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C76" s="43" t="s">
+      <c r="O75" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="P75" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q75" s="44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76" s="46" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="43" t="s">
+        <v>310</v>
+      </c>
+      <c r="B76" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C76" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="D76" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="E76" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="F76" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G76" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="H76" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="I76" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="J76" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="K76" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="L76" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="M76" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="N76" s="44" t="s">
-        <v>310</v>
-      </c>
-      <c r="O76" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="P76" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q76" s="43" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="77" s="45" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="42" t="s">
+      <c r="D76" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E76" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="F76" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="G76" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="H76" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="I76" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="J76" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="K76" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="L76" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="M76" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="N76" s="45" t="s">
         <v>311</v>
       </c>
-      <c r="B77" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C77" s="43" t="s">
+      <c r="O76" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="P76" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q76" s="44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" s="46" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="43" t="s">
+        <v>312</v>
+      </c>
+      <c r="B77" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C77" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="D77" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="E77" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="F77" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G77" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="H77" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="I77" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="J77" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="K77" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="L77" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="M77" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="N77" s="44" t="s">
-        <v>312</v>
-      </c>
-      <c r="O77" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="P77" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q77" s="43" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="78" s="45" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="42" t="s">
+      <c r="D77" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E77" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="F77" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="G77" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="H77" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="I77" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="J77" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="K77" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="L77" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="M77" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="N77" s="45" t="s">
         <v>313</v>
       </c>
-      <c r="B78" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C78" s="43" t="s">
+      <c r="O77" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="P77" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q77" s="44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" s="46" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="43" t="s">
+        <v>314</v>
+      </c>
+      <c r="B78" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C78" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="D78" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="E78" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="F78" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G78" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="H78" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="I78" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="J78" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="K78" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="L78" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="M78" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="N78" s="44" t="s">
-        <v>314</v>
-      </c>
-      <c r="O78" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="P78" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q78" s="43" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="79" s="45" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="42" t="s">
+      <c r="D78" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E78" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="F78" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="G78" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="H78" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="I78" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="J78" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="K78" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="L78" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="M78" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="N78" s="45" t="s">
         <v>315</v>
       </c>
-      <c r="B79" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C79" s="43" t="s">
+      <c r="O78" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="P78" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q78" s="44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" s="46" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="43" t="s">
+        <v>316</v>
+      </c>
+      <c r="B79" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C79" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="D79" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="E79" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="F79" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G79" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="H79" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="I79" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="J79" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="K79" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="L79" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="M79" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="N79" s="44" t="s">
-        <v>316</v>
-      </c>
-      <c r="O79" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="P79" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q79" s="43" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="80" s="45" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="42" t="s">
+      <c r="D79" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E79" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="F79" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="G79" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="H79" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="I79" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="J79" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="K79" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="L79" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="M79" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="N79" s="45" t="s">
         <v>317</v>
       </c>
-      <c r="B80" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C80" s="43" t="s">
+      <c r="O79" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="P79" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q79" s="44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80" s="46" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="43" t="s">
+        <v>318</v>
+      </c>
+      <c r="B80" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C80" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="D80" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="E80" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="F80" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G80" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="H80" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="I80" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="J80" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="K80" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="L80" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="M80" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="N80" s="44" t="s">
-        <v>318</v>
-      </c>
-      <c r="O80" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="P80" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q80" s="43" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="81" s="45" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="42" t="s">
+      <c r="D80" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E80" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="F80" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="G80" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="H80" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="I80" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="J80" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="K80" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="L80" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="M80" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="N80" s="45" t="s">
         <v>319</v>
       </c>
-      <c r="B81" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C81" s="43" t="s">
+      <c r="O80" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="P80" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q80" s="44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81" s="46" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="43" t="s">
+        <v>320</v>
+      </c>
+      <c r="B81" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C81" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="D81" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="E81" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="F81" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G81" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="H81" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="I81" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="J81" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="K81" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="L81" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="M81" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="N81" s="44" t="s">
-        <v>320</v>
-      </c>
-      <c r="O81" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="P81" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q81" s="43" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="82" s="45" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="42" t="s">
+      <c r="D81" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E81" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="F81" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="G81" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="H81" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="I81" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="J81" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="K81" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="L81" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="M81" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="N81" s="45" t="s">
         <v>321</v>
       </c>
-      <c r="B82" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C82" s="43" t="s">
+      <c r="O81" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="P81" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q81" s="44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="82" s="46" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="43" t="s">
+        <v>322</v>
+      </c>
+      <c r="B82" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C82" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="D82" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="E82" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="F82" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G82" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="H82" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="I82" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="J82" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="K82" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="L82" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="M82" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="N82" s="44" t="s">
-        <v>322</v>
-      </c>
-      <c r="O82" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="P82" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q82" s="43" t="s">
+      <c r="D82" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E82" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="F82" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="G82" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="H82" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="I82" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="J82" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="K82" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="L82" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="M82" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="N82" s="45" t="s">
+        <v>323</v>
+      </c>
+      <c r="O82" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="P82" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q82" s="44" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>32</v>
@@ -6164,7 +6174,7 @@
         <v>32</v>
       </c>
       <c r="N83" s="6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O83" s="6" t="s">
         <v>32</v>
@@ -6178,7 +6188,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>32</v>
@@ -6217,7 +6227,7 @@
         <v>32</v>
       </c>
       <c r="N84" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O84" s="6" t="s">
         <v>32</v>
@@ -6231,7 +6241,7 @@
     </row>
     <row r="85" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>32</v>
@@ -6270,7 +6280,7 @@
         <v>32</v>
       </c>
       <c r="N85" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O85" s="6" t="s">
         <v>32</v>
@@ -6284,7 +6294,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>32</v>
@@ -6323,7 +6333,7 @@
         <v>32</v>
       </c>
       <c r="N86" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O86" s="6" t="s">
         <v>32</v>
@@ -6337,7 +6347,7 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>32</v>
@@ -6376,7 +6386,7 @@
         <v>32</v>
       </c>
       <c r="N87" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O87" s="6" t="s">
         <v>32</v>
@@ -6390,7 +6400,7 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>32</v>
@@ -6429,7 +6439,7 @@
         <v>32</v>
       </c>
       <c r="N88" s="6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O88" s="6" t="s">
         <v>32</v>
@@ -6443,7 +6453,7 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>32</v>
@@ -6480,7 +6490,7 @@
         <v>32</v>
       </c>
       <c r="N89" s="6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O89" s="6" t="s">
         <v>32</v>
@@ -6494,7 +6504,7 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>32</v>
@@ -6531,7 +6541,7 @@
         <v>32</v>
       </c>
       <c r="N90" s="6" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O90" s="6" t="s">
         <v>32</v>
@@ -6545,7 +6555,7 @@
     </row>
     <row r="91" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>32</v>
@@ -6584,7 +6594,7 @@
         <v>32</v>
       </c>
       <c r="N91" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O91" s="6" t="s">
         <v>32</v>
@@ -6598,7 +6608,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="5" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>32</v>
@@ -6637,7 +6647,7 @@
         <v>32</v>
       </c>
       <c r="N92" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O92" s="6" t="s">
         <v>32</v>
@@ -6651,7 +6661,7 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>32</v>
@@ -6690,7 +6700,7 @@
         <v>32</v>
       </c>
       <c r="N93" s="6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O93" s="6" t="s">
         <v>32</v>
@@ -6704,7 +6714,7 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>32</v>
@@ -6746,7 +6756,7 @@
         <v>32</v>
       </c>
       <c r="O94" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P94" s="6" t="s">
         <v>32</v>
@@ -6757,7 +6767,7 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>32</v>
@@ -6796,7 +6806,7 @@
         <v>32</v>
       </c>
       <c r="N95" s="6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="O95" s="6" t="s">
         <v>32</v>
@@ -6810,7 +6820,7 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="5" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>32</v>
@@ -6849,7 +6859,7 @@
         <v>32</v>
       </c>
       <c r="N96" s="6" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O96" s="6" t="s">
         <v>32</v>
@@ -6863,7 +6873,7 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="5" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>32</v>
@@ -6902,7 +6912,7 @@
         <v>32</v>
       </c>
       <c r="N97" s="6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O97" s="6" t="s">
         <v>32</v>
@@ -6916,7 +6926,7 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="5" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>32</v>
@@ -6955,7 +6965,7 @@
         <v>32</v>
       </c>
       <c r="N98" s="6" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O98" s="6" t="s">
         <v>32</v>
@@ -6969,7 +6979,7 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>32</v>
@@ -7008,7 +7018,7 @@
         <v>32</v>
       </c>
       <c r="N99" s="6" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O99" s="6" t="s">
         <v>32</v>
@@ -7022,7 +7032,7 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="5" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>32</v>
@@ -7061,7 +7071,7 @@
         <v>32</v>
       </c>
       <c r="N100" s="6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O100" s="6" t="s">
         <v>32</v>
@@ -7075,7 +7085,7 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>32</v>
@@ -7114,7 +7124,7 @@
         <v>32</v>
       </c>
       <c r="N101" s="6" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="O101" s="6" t="s">
         <v>32</v>
@@ -7128,7 +7138,7 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="5" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>32</v>
@@ -7167,7 +7177,7 @@
         <v>32</v>
       </c>
       <c r="N102" s="6" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O102" s="6" t="s">
         <v>32</v>
@@ -7181,7 +7191,7 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="5" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>32</v>
@@ -7220,7 +7230,7 @@
         <v>32</v>
       </c>
       <c r="N103" s="6" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O103" s="6" t="s">
         <v>32</v>
@@ -7234,7 +7244,7 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>32</v>
@@ -7273,7 +7283,7 @@
         <v>32</v>
       </c>
       <c r="N104" s="6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O104" s="6" t="s">
         <v>32</v>
@@ -7287,7 +7297,7 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="5" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>32</v>
@@ -7326,7 +7336,7 @@
         <v>32</v>
       </c>
       <c r="N105" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O105" s="6" t="s">
         <v>32</v>
@@ -7340,7 +7350,7 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="5" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>32</v>
@@ -7367,7 +7377,7 @@
         <v>32</v>
       </c>
       <c r="J106" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K106" s="6" t="s">
         <v>32</v>
@@ -7379,7 +7389,7 @@
         <v>32</v>
       </c>
       <c r="N106" s="6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O106" s="6" t="s">
         <v>32</v>
@@ -7393,7 +7403,7 @@
     </row>
     <row r="107" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="5" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>32</v>
@@ -7420,7 +7430,7 @@
         <v>32</v>
       </c>
       <c r="J107" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K107" s="6" t="s">
         <v>32</v>
@@ -7446,7 +7456,7 @@
     </row>
     <row r="108" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="5" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>32</v>
@@ -7473,7 +7483,7 @@
         <v>32</v>
       </c>
       <c r="J108" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K108" s="6" t="s">
         <v>32</v>
@@ -7485,7 +7495,7 @@
         <v>32</v>
       </c>
       <c r="N108" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O108" s="6" t="s">
         <v>32</v>
@@ -7499,7 +7509,7 @@
     </row>
     <row r="109" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>32</v>
@@ -7538,7 +7548,7 @@
         <v>32</v>
       </c>
       <c r="N109" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O109" s="6" t="s">
         <v>32</v>
@@ -7552,7 +7562,7 @@
     </row>
     <row r="110" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>32</v>
@@ -7588,10 +7598,10 @@
         <v>32</v>
       </c>
       <c r="M110" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N110" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O110" s="6" t="s">
         <v>32</v>
@@ -7605,7 +7615,7 @@
     </row>
     <row r="111" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="5" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>32</v>
@@ -7632,7 +7642,7 @@
         <v>32</v>
       </c>
       <c r="J111" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K111" s="6" t="s">
         <v>32</v>
@@ -7644,7 +7654,7 @@
         <v>32</v>
       </c>
       <c r="N111" s="6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O111" s="6" t="s">
         <v>32</v>
@@ -7658,7 +7668,7 @@
     </row>
     <row r="112" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="5" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>32</v>
@@ -7685,7 +7695,7 @@
         <v>32</v>
       </c>
       <c r="J112" s="6" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K112" s="6" t="s">
         <v>32</v>
@@ -7694,10 +7704,10 @@
         <v>32</v>
       </c>
       <c r="M112" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N112" s="6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O112" s="6" t="s">
         <v>32</v>
@@ -7711,7 +7721,7 @@
     </row>
     <row r="113" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="5" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>32</v>
@@ -7738,7 +7748,7 @@
         <v>32</v>
       </c>
       <c r="J113" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K113" s="6" t="s">
         <v>32</v>
@@ -7750,7 +7760,7 @@
         <v>186</v>
       </c>
       <c r="N113" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="O113" s="6" t="s">
         <v>32</v>
@@ -7764,7 +7774,7 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="5" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>32</v>
@@ -7791,7 +7801,7 @@
         <v>32</v>
       </c>
       <c r="J114" s="6" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K114" s="6" t="s">
         <v>32</v>
@@ -7806,7 +7816,7 @@
         <v>32</v>
       </c>
       <c r="O114" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="P114" s="6" t="s">
         <v>32</v>
@@ -7817,7 +7827,7 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="5" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>32</v>
@@ -7870,7 +7880,7 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="5" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>32</v>
@@ -7923,7 +7933,7 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="5" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>32</v>
@@ -7976,7 +7986,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="5" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>32</v>
@@ -8029,7 +8039,7 @@
     </row>
     <row r="119" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>32</v>
@@ -8062,7 +8072,7 @@
         <v>32</v>
       </c>
       <c r="L119" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M119" s="6" t="s">
         <v>32</v>
@@ -8082,7 +8092,7 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="5" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>32</v>
@@ -8135,7 +8145,7 @@
     </row>
     <row r="121" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="5" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>32</v>
@@ -8188,7 +8198,7 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="5" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>32</v>
@@ -8241,7 +8251,7 @@
     </row>
     <row r="123" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="5" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B123" s="6" t="s">
         <v>32</v>
@@ -8256,7 +8266,7 @@
         <v>32</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G123" s="6" t="s">
         <v>32</v>
@@ -8294,7 +8304,7 @@
     </row>
     <row r="124" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="5" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>32</v>
@@ -8347,7 +8357,7 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B125" s="6" t="s">
         <v>32</v>
@@ -8356,7 +8366,7 @@
         <v>32</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E125" s="6" t="s">
         <v>32</v>
@@ -8400,7 +8410,7 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B126" s="6" t="s">
         <v>32</v>
@@ -8409,7 +8419,7 @@
         <v>32</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E126" s="6" t="s">
         <v>32</v>
@@ -8442,7 +8452,7 @@
         <v>32</v>
       </c>
       <c r="O126" s="6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P126" s="6" t="s">
         <v>32</v>
@@ -8453,7 +8463,7 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="5" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B127" s="6" t="s">
         <v>32</v>
@@ -8462,7 +8472,7 @@
         <v>32</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E127" s="6" t="s">
         <v>32</v>
@@ -8495,7 +8505,7 @@
         <v>32</v>
       </c>
       <c r="O127" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P127" s="6" t="s">
         <v>32</v>
@@ -8506,7 +8516,7 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B128" s="6" t="s">
         <v>32</v>
@@ -8545,7 +8555,7 @@
       <c r="N128" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="O128" s="50" t="s">
+      <c r="O128" s="51" t="s">
         <v>32</v>
       </c>
       <c r="P128" s="6" t="s">
@@ -8557,7 +8567,7 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="5" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B129" s="6" t="s">
         <v>32</v>
@@ -8599,7 +8609,7 @@
         <v>32</v>
       </c>
       <c r="O129" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P129" s="6" t="s">
         <v>32</v>
@@ -8610,7 +8620,7 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="5" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B130" s="6" t="s">
         <v>32</v>
@@ -8652,7 +8662,7 @@
         <v>32</v>
       </c>
       <c r="O130" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P130" s="6" t="s">
         <v>32</v>
@@ -8663,7 +8673,7 @@
     </row>
     <row r="131" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="5" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B131" s="6" t="s">
         <v>32</v>
@@ -8672,7 +8682,7 @@
         <v>32</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E131" s="6" t="s">
         <v>32</v>
@@ -8705,7 +8715,7 @@
         <v>32</v>
       </c>
       <c r="O131" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="P131" s="6" t="s">
         <v>32</v>
@@ -8716,7 +8726,7 @@
     </row>
     <row r="132" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>32</v>
@@ -8758,7 +8768,7 @@
         <v>32</v>
       </c>
       <c r="O132" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P132" s="6" t="s">
         <v>32</v>
@@ -8769,7 +8779,7 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>32</v>
@@ -8781,7 +8791,7 @@
         <v>32</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F133" s="6" t="s">
         <v>32</v>
@@ -8811,7 +8821,7 @@
         <v>32</v>
       </c>
       <c r="O133" s="6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P133" s="6" t="s">
         <v>32</v>
@@ -8822,7 +8832,7 @@
     </row>
     <row r="134" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="5" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>32</v>
@@ -8875,7 +8885,7 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="5" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B135" s="6" t="s">
         <v>32</v>
@@ -8928,7 +8938,7 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B136" s="6" t="s">
         <v>32</v>
@@ -8940,7 +8950,7 @@
         <v>32</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F136" s="6" t="s">
         <v>32</v>
@@ -8981,7 +8991,7 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="5" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B137" s="6" t="s">
         <v>32</v>
@@ -8993,7 +9003,7 @@
         <v>32</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F137" s="6" t="s">
         <v>32</v>
@@ -9034,7 +9044,7 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="5" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>32</v>
@@ -9046,7 +9056,7 @@
         <v>32</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F138" s="6" t="s">
         <v>32</v>
@@ -9087,7 +9097,7 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="5" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>32</v>
@@ -9140,7 +9150,7 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="5" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B140" s="6" t="s">
         <v>32</v>
@@ -9193,7 +9203,7 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B141" s="6" t="s">
         <v>32</v>
@@ -9246,7 +9256,7 @@
     </row>
     <row r="142" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="5" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B142" s="6" t="s">
         <v>32</v>
@@ -9279,7 +9289,7 @@
         <v>32</v>
       </c>
       <c r="L142" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M142" s="6" t="s">
         <v>32</v>

--- a/platform/embedded/stm32f407/stm32f4_function_mappings.xlsx
+++ b/platform/embedded/stm32f407/stm32f4_function_mappings.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2405" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2412" uniqueCount="426">
   <si>
     <t xml:space="preserve">Port</t>
   </si>
@@ -435,6 +435,9 @@
     <t xml:space="preserve">PB2</t>
   </si>
   <si>
+    <t xml:space="preserve">Gamepad</t>
+  </si>
+  <si>
     <t xml:space="preserve">PB3</t>
   </si>
   <si>
@@ -498,6 +501,9 @@
     <t xml:space="preserve">DCMI_D5</t>
   </si>
   <si>
+    <t xml:space="preserve">DebugUart</t>
+  </si>
+  <si>
     <t xml:space="preserve">PB7</t>
   </si>
   <si>
@@ -722,6 +728,9 @@
   </si>
   <si>
     <t xml:space="preserve">SDIO_D6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BusUart</t>
   </si>
   <si>
     <t xml:space="preserve">PC7</t>
@@ -1480,7 +1489,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1621,6 +1630,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1635,6 +1648,18 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1769,11 +1794,11 @@
   <dimension ref="A1:R142"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="N35" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
-      <selection pane="bottomRight" activeCell="R48" activeCellId="0" sqref="R48:R50"/>
+      <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
+      <selection pane="bottomLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
+      <selection pane="bottomRight" activeCell="R41" activeCellId="0" sqref="R41:R42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2899,13 +2924,16 @@
       <c r="Q21" s="19" t="s">
         <v>32</v>
       </c>
+      <c r="R21" s="18" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="22" s="25" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C22" s="23" t="s">
         <v>40</v>
@@ -2923,7 +2951,7 @@
         <v>67</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I22" s="23" t="s">
         <v>32</v>
@@ -2953,10 +2981,10 @@
     </row>
     <row r="23" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C23" s="23" t="s">
         <v>32</v>
@@ -2974,10 +3002,10 @@
         <v>73</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J23" s="23" t="s">
         <v>32</v>
@@ -3004,7 +3032,7 @@
     </row>
     <row r="24" s="25" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B24" s="23" t="s">
         <v>32</v>
@@ -3019,13 +3047,13 @@
         <v>32</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G24" s="23" t="s">
         <v>79</v>
       </c>
       <c r="H24" s="24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I24" s="23" t="s">
         <v>32</v>
@@ -3034,19 +3062,19 @@
         <v>32</v>
       </c>
       <c r="K24" s="23" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L24" s="22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M24" s="23" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N24" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O24" s="23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P24" s="23" t="s">
         <v>32</v>
@@ -3057,7 +3085,7 @@
     </row>
     <row r="25" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>32</v>
@@ -3066,13 +3094,13 @@
         <v>32</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E25" s="14" t="s">
         <v>32</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G25" s="14" t="s">
         <v>32</v>
@@ -3087,7 +3115,7 @@
         <v>32</v>
       </c>
       <c r="K25" s="14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L25" s="14" t="s">
         <v>32</v>
@@ -3097,18 +3125,21 @@
         <v>32</v>
       </c>
       <c r="O25" s="14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P25" s="14" t="s">
         <v>32</v>
       </c>
       <c r="Q25" s="14" t="s">
         <v>32</v>
+      </c>
+      <c r="R25" s="13" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="26" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="13" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>32</v>
@@ -3117,13 +3148,13 @@
         <v>32</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E26" s="14" t="s">
         <v>32</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G26" s="14" t="s">
         <v>32</v>
@@ -3145,21 +3176,24 @@
       </c>
       <c r="M26" s="14"/>
       <c r="N26" s="14" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O26" s="16" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P26" s="14" t="s">
         <v>32</v>
       </c>
       <c r="Q26" s="14" t="s">
         <v>32</v>
+      </c>
+      <c r="R26" s="13" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>32</v>
@@ -3168,13 +3202,13 @@
         <v>32</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>32</v>
@@ -3195,13 +3229,13 @@
         <v>32</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P27" s="6" t="s">
         <v>32</v>
@@ -3212,7 +3246,7 @@
     </row>
     <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>32</v>
@@ -3221,16 +3255,16 @@
         <v>32</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>32</v>
@@ -3249,10 +3283,10 @@
       </c>
       <c r="M28" s="6"/>
       <c r="N28" s="6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P28" s="6" t="s">
         <v>32</v>
@@ -3263,7 +3297,7 @@
     </row>
     <row r="29" s="20" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="18" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B29" s="19" t="s">
         <v>32</v>
@@ -3278,16 +3312,16 @@
         <v>32</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G29" s="27" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H29" s="19" t="s">
         <v>32</v>
       </c>
       <c r="I29" s="19" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="J29" s="19" t="s">
         <v>32</v>
@@ -3296,10 +3330,10 @@
         <v>32</v>
       </c>
       <c r="L29" s="28" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M29" s="19" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="N29" s="19" t="s">
         <v>32</v>
@@ -3312,11 +3346,14 @@
       </c>
       <c r="Q29" s="19" t="s">
         <v>32</v>
+      </c>
+      <c r="R29" s="18" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="30" s="11" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>32</v>
@@ -3331,7 +3368,7 @@
         <v>32</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>32</v>
@@ -3340,7 +3377,7 @@
         <v>32</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J30" s="9" t="s">
         <v>32</v>
@@ -3349,10 +3386,10 @@
         <v>32</v>
       </c>
       <c r="L30" s="29" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="N30" s="9" t="s">
         <v>32</v>
@@ -3369,7 +3406,7 @@
     </row>
     <row r="31" s="11" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>32</v>
@@ -3384,31 +3421,31 @@
         <v>32</v>
       </c>
       <c r="F31" s="29" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G31" s="29" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>32</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J31" s="9" t="s">
         <v>32</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L31" s="29" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M31" s="10" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="N31" s="9" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O31" s="9" t="s">
         <v>32</v>
@@ -3422,7 +3459,7 @@
     </row>
     <row r="32" s="11" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>32</v>
@@ -3440,25 +3477,25 @@
         <v>32</v>
       </c>
       <c r="G32" s="29" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>32</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J32" s="9" t="s">
         <v>32</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L32" s="29" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="N32" s="9" t="s">
         <v>32</v>
@@ -3475,7 +3512,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>32</v>
@@ -3493,19 +3530,19 @@
         <v>32</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J33" s="6" t="s">
         <v>32</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L33" s="6" t="s">
         <v>32</v>
@@ -3514,7 +3551,7 @@
         <v>32</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O33" s="6" t="s">
         <v>32</v>
@@ -3528,10 +3565,10 @@
     </row>
     <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>123</v>
@@ -3546,7 +3583,7 @@
         <v>32</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>32</v>
@@ -3558,7 +3595,7 @@
         <v>32</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L34" s="6" t="s">
         <v>32</v>
@@ -3567,7 +3604,7 @@
         <v>32</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O34" s="6" t="s">
         <v>32</v>
@@ -3581,7 +3618,7 @@
     </row>
     <row r="35" s="33" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="30" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B35" s="31" t="s">
         <v>32</v>
@@ -3614,7 +3651,7 @@
         <v>32</v>
       </c>
       <c r="L35" s="32" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M35" s="31" t="s">
         <v>32</v>
@@ -3632,12 +3669,12 @@
         <v>32</v>
       </c>
       <c r="R35" s="30" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>32</v>
@@ -3673,7 +3710,7 @@
         <v>32</v>
       </c>
       <c r="M36" s="12" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="N36" s="9" t="s">
         <v>32</v>
@@ -3690,7 +3727,7 @@
     </row>
     <row r="37" s="20" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="18" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B37" s="19" t="s">
         <v>32</v>
@@ -3708,10 +3745,10 @@
         <v>32</v>
       </c>
       <c r="G37" s="34" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H37" s="19" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I37" s="19" t="s">
         <v>32</v>
@@ -3723,10 +3760,10 @@
         <v>32</v>
       </c>
       <c r="L37" s="28" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M37" s="19" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="N37" s="19" t="s">
         <v>32</v>
@@ -3739,11 +3776,14 @@
       </c>
       <c r="Q37" s="19" t="s">
         <v>32</v>
+      </c>
+      <c r="R37" s="18" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>32</v>
@@ -3761,7 +3801,7 @@
         <v>32</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>32</v>
@@ -3776,10 +3816,10 @@
         <v>32</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="N38" s="6" t="s">
         <v>32</v>
@@ -3793,10 +3833,11 @@
       <c r="Q38" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="R38" s="35"/>
     </row>
     <row r="39" s="11" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>32</v>
@@ -3832,7 +3873,7 @@
         <v>32</v>
       </c>
       <c r="M39" s="10" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="N39" s="9" t="s">
         <v>32</v>
@@ -3849,7 +3890,7 @@
     </row>
     <row r="40" s="11" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>32</v>
@@ -3885,7 +3926,7 @@
         <v>32</v>
       </c>
       <c r="M40" s="10" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="N40" s="9" t="s">
         <v>32</v>
@@ -3900,113 +3941,119 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="B41" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C41" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="D41" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="E41" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="F41" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="G41" s="36" t="s">
+    <row r="41" s="39" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="36" t="s">
         <v>214</v>
       </c>
-      <c r="H41" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="I41" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="J41" s="37" t="s">
+      <c r="B41" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="37" t="s">
         <v>215</v>
       </c>
-      <c r="K41" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="L41" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="M41" s="36"/>
-      <c r="N41" s="36" t="s">
+      <c r="E41" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="F41" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="O41" s="36" t="s">
+      <c r="H41" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="I41" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="J41" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="K41" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="L41" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="M41" s="37"/>
+      <c r="N41" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="O41" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="P41" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q41" s="36" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="35" t="s">
-        <v>217</v>
-      </c>
-      <c r="B42" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C42" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="E42" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="F42" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="G42" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="H42" s="36" t="s">
+      <c r="P41" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q41" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="R41" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="I42" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="J42" s="37" t="s">
+    </row>
+    <row r="42" s="41" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="K42" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="L42" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="M42" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="N42" s="36" t="s">
+      <c r="B42" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="41" t="s">
         <v>221</v>
       </c>
-      <c r="O42" s="36" t="s">
+      <c r="E42" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="F42" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="H42" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="I42" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="J42" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="K42" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="L42" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="M42" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="N42" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="O42" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="P42" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q42" s="36" t="s">
-        <v>32</v>
+      <c r="P42" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q42" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="R42" s="40" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="43" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="30" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B43" s="31" t="s">
         <v>32</v>
@@ -4015,10 +4062,10 @@
         <v>32</v>
       </c>
       <c r="D43" s="31" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E43" s="31" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F43" s="31" t="s">
         <v>32</v>
@@ -4033,7 +4080,7 @@
         <v>32</v>
       </c>
       <c r="J43" s="31" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K43" s="31" t="s">
         <v>32</v>
@@ -4044,11 +4091,11 @@
       <c r="M43" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="N43" s="39" t="s">
-        <v>225</v>
+      <c r="N43" s="43" t="s">
+        <v>228</v>
       </c>
       <c r="O43" s="31" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="P43" s="31" t="s">
         <v>32</v>
@@ -4059,25 +4106,25 @@
     </row>
     <row r="44" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="30" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C44" s="31" t="s">
         <v>32</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E44" s="31" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F44" s="31" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G44" s="31" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H44" s="31" t="s">
         <v>32</v>
@@ -4097,11 +4144,11 @@
       <c r="M44" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="N44" s="39" t="s">
-        <v>232</v>
+      <c r="N44" s="43" t="s">
+        <v>235</v>
       </c>
       <c r="O44" s="31" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="P44" s="31" t="s">
         <v>32</v>
@@ -4112,7 +4159,7 @@
     </row>
     <row r="45" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="30" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B45" s="31" t="s">
         <v>32</v>
@@ -4132,11 +4179,11 @@
       <c r="G45" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="H45" s="40" t="s">
-        <v>235</v>
+      <c r="H45" s="44" t="s">
+        <v>238</v>
       </c>
       <c r="I45" s="31" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="J45" s="31" t="s">
         <v>37</v>
@@ -4150,11 +4197,11 @@
       <c r="M45" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="N45" s="39" t="s">
-        <v>236</v>
+      <c r="N45" s="43" t="s">
+        <v>239</v>
       </c>
       <c r="O45" s="31" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="P45" s="31" t="s">
         <v>32</v>
@@ -4165,7 +4212,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="30" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B46" s="31" t="s">
         <v>32</v>
@@ -4183,13 +4230,13 @@
         <v>32</v>
       </c>
       <c r="G46" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="H46" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="H46" s="39" t="s">
-        <v>134</v>
-      </c>
       <c r="I46" s="31" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J46" s="31" t="s">
         <v>43</v>
@@ -4203,11 +4250,11 @@
       <c r="M46" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="N46" s="39" t="s">
-        <v>239</v>
+      <c r="N46" s="43" t="s">
+        <v>242</v>
       </c>
       <c r="O46" s="31" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="P46" s="31" t="s">
         <v>32</v>
@@ -4218,7 +4265,7 @@
     </row>
     <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="30" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B47" s="31" t="s">
         <v>32</v>
@@ -4238,14 +4285,14 @@
       <c r="G47" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="H47" s="40" t="s">
-        <v>138</v>
+      <c r="H47" s="44" t="s">
+        <v>139</v>
       </c>
       <c r="I47" s="31" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J47" s="31" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="K47" s="31" t="s">
         <v>32</v>
@@ -4256,11 +4303,11 @@
       <c r="M47" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="N47" s="39" t="s">
-        <v>243</v>
+      <c r="N47" s="43" t="s">
+        <v>246</v>
       </c>
       <c r="O47" s="31" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="P47" s="31" t="s">
         <v>32</v>
@@ -4269,9 +4316,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" s="42" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" s="46" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="21" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B48" s="23" t="s">
         <v>32</v>
@@ -4312,7 +4359,7 @@
       <c r="N48" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="O48" s="41" t="s">
+      <c r="O48" s="45" t="s">
         <v>32</v>
       </c>
       <c r="P48" s="23" t="s">
@@ -4322,12 +4369,12 @@
         <v>32</v>
       </c>
       <c r="R48" s="21" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="49" s="42" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="49" s="46" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="21" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B49" s="23" t="s">
         <v>32</v>
@@ -4378,12 +4425,12 @@
         <v>32</v>
       </c>
       <c r="R49" s="21" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="50" s="42" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="50" s="46" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="21" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B50" s="23" t="s">
         <v>32</v>
@@ -4424,7 +4471,7 @@
       <c r="N50" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="O50" s="41" t="s">
+      <c r="O50" s="45" t="s">
         <v>32</v>
       </c>
       <c r="P50" s="23" t="s">
@@ -4434,118 +4481,118 @@
         <v>32</v>
       </c>
       <c r="R50" s="21" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="51" s="46" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="43" t="s">
-        <v>251</v>
-      </c>
-      <c r="B51" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C51" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="D51" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="E51" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="F51" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="G51" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="H51" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="I51" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="J51" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="K51" s="44" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="51" s="50" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="47" t="s">
+        <v>254</v>
+      </c>
+      <c r="B51" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="F51" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="G51" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="H51" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="I51" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="J51" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="K51" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="L51" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="M51" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="N51" s="45" t="s">
-        <v>252</v>
-      </c>
-      <c r="O51" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="P51" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q51" s="44" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="52" s="46" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="43" t="s">
-        <v>253</v>
-      </c>
-      <c r="B52" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C52" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="D52" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="E52" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="F52" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="G52" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="H52" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="I52" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="J52" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="K52" s="44" t="s">
+      <c r="L51" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="M51" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="N51" s="49" t="s">
+        <v>255</v>
+      </c>
+      <c r="O51" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="P51" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q51" s="48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" s="50" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="B52" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="F52" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="G52" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="H52" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="I52" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="J52" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="K52" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="L52" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="M52" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="N52" s="45" t="s">
-        <v>254</v>
-      </c>
-      <c r="O52" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="P52" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q52" s="44" t="s">
+      <c r="L52" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="M52" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="N52" s="49" t="s">
+        <v>257</v>
+      </c>
+      <c r="O52" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="P52" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q52" s="48" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="53" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="30" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B53" s="31" t="s">
         <v>32</v>
@@ -4554,7 +4601,7 @@
         <v>32</v>
       </c>
       <c r="D53" s="31" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E53" s="31" t="s">
         <v>32</v>
@@ -4572,7 +4619,7 @@
         <v>32</v>
       </c>
       <c r="J53" s="31" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="K53" s="31" t="s">
         <v>32</v>
@@ -4583,11 +4630,11 @@
       <c r="M53" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="N53" s="39" t="s">
-        <v>258</v>
+      <c r="N53" s="43" t="s">
+        <v>261</v>
       </c>
       <c r="O53" s="31" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="P53" s="31" t="s">
         <v>32</v>
@@ -4598,7 +4645,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>32</v>
@@ -4637,7 +4684,7 @@
         <v>32</v>
       </c>
       <c r="N54" s="6" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="O54" s="6" t="s">
         <v>32</v>
@@ -4649,115 +4696,115 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" s="46" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="43" t="s">
-        <v>262</v>
-      </c>
-      <c r="B55" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C55" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="D55" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="E55" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="F55" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="G55" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="H55" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="I55" s="44" t="s">
+    <row r="55" s="50" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="47" t="s">
+        <v>265</v>
+      </c>
+      <c r="B55" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C55" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="D55" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="F55" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="G55" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="H55" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="I55" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="J55" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="K55" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="L55" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="M55" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="N55" s="45" t="s">
-        <v>263</v>
-      </c>
-      <c r="O55" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="P55" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q55" s="44" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="56" s="46" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="43" t="s">
-        <v>264</v>
-      </c>
-      <c r="B56" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C56" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="D56" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="E56" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="F56" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="G56" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="H56" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="I56" s="44" t="s">
+      <c r="J55" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="K55" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="L55" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="M55" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="N55" s="49" t="s">
+        <v>266</v>
+      </c>
+      <c r="O55" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="P55" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q55" s="48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" s="50" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="B56" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E56" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="F56" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="G56" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="H56" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="I56" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="J56" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="K56" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="L56" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="M56" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="N56" s="45" t="s">
-        <v>265</v>
-      </c>
-      <c r="O56" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="P56" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q56" s="44" t="s">
+      <c r="J56" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="K56" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="L56" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="M56" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="N56" s="49" t="s">
+        <v>268</v>
+      </c>
+      <c r="O56" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="P56" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q56" s="48" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>32</v>
@@ -4796,7 +4843,7 @@
         <v>32</v>
       </c>
       <c r="N57" s="6" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="O57" s="6" t="s">
         <v>32</v>
@@ -4808,486 +4855,486 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" s="46" customFormat="true" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="43" t="s">
-        <v>268</v>
-      </c>
-      <c r="B58" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C58" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="D58" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="E58" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="F58" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="G58" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="H58" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="I58" s="44" t="s">
+    <row r="58" s="50" customFormat="true" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="47" t="s">
+        <v>271</v>
+      </c>
+      <c r="B58" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="D58" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="F58" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="G58" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="H58" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="I58" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="J58" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="K58" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="L58" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="M58" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="N58" s="47" t="s">
-        <v>269</v>
-      </c>
-      <c r="O58" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="P58" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q58" s="44" t="s">
+      <c r="J58" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="K58" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="L58" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="M58" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="N58" s="51" t="s">
+        <v>272</v>
+      </c>
+      <c r="O58" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="P58" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q58" s="48" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="43" t="s">
-        <v>270</v>
-      </c>
-      <c r="B59" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C59" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="D59" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="E59" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="F59" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="G59" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="H59" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="I59" s="44" t="s">
-        <v>168</v>
-      </c>
-      <c r="J59" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="K59" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="L59" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="M59" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="N59" s="45" t="s">
-        <v>271</v>
-      </c>
-      <c r="O59" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="P59" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q59" s="44" t="s">
+      <c r="A59" s="47" t="s">
+        <v>273</v>
+      </c>
+      <c r="B59" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C59" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="D59" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E59" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="F59" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="G59" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="H59" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="I59" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="J59" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="K59" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="L59" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="M59" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="N59" s="49" t="s">
+        <v>274</v>
+      </c>
+      <c r="O59" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="P59" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q59" s="48" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="43" t="s">
-        <v>272</v>
-      </c>
-      <c r="B60" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C60" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="D60" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="E60" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="F60" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="G60" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="H60" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="I60" s="44" t="s">
-        <v>173</v>
-      </c>
-      <c r="J60" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="K60" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="L60" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="M60" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="N60" s="45" t="s">
-        <v>273</v>
-      </c>
-      <c r="O60" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="P60" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q60" s="44" t="s">
+      <c r="A60" s="47" t="s">
+        <v>275</v>
+      </c>
+      <c r="B60" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C60" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="D60" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E60" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="F60" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="G60" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="H60" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="I60" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="J60" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="K60" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="L60" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="M60" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="N60" s="49" t="s">
+        <v>276</v>
+      </c>
+      <c r="O60" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="P60" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q60" s="48" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="43" t="s">
-        <v>274</v>
-      </c>
-      <c r="B61" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C61" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="D61" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="E61" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="F61" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="G61" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="H61" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="I61" s="44" t="s">
-        <v>179</v>
-      </c>
-      <c r="J61" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="K61" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="L61" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="M61" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="N61" s="45" t="s">
-        <v>275</v>
-      </c>
-      <c r="O61" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="P61" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q61" s="44" t="s">
+      <c r="A61" s="47" t="s">
+        <v>277</v>
+      </c>
+      <c r="B61" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C61" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="D61" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E61" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="F61" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="G61" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="H61" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="I61" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="J61" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="K61" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="L61" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="M61" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="N61" s="49" t="s">
+        <v>278</v>
+      </c>
+      <c r="O61" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="P61" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q61" s="48" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="43" t="s">
-        <v>276</v>
-      </c>
-      <c r="B62" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C62" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="D62" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="E62" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="F62" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="G62" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="H62" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="I62" s="44" t="s">
-        <v>184</v>
-      </c>
-      <c r="J62" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="K62" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="L62" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="M62" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="N62" s="45" t="s">
-        <v>277</v>
-      </c>
-      <c r="O62" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="P62" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q62" s="44" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="63" s="50" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="48" t="s">
-        <v>278</v>
-      </c>
-      <c r="B63" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="C63" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="D63" s="49" t="s">
-        <v>144</v>
-      </c>
-      <c r="E63" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="F63" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="G63" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="H63" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="I63" s="49" t="s">
-        <v>190</v>
-      </c>
-      <c r="J63" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="K63" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="L63" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="M63" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="N63" s="49" t="s">
+      <c r="A62" s="47" t="s">
         <v>279</v>
       </c>
-      <c r="O63" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="P63" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q63" s="49" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="64" s="50" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="48" t="s">
+      <c r="B62" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="D62" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E62" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="F62" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="G62" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="H62" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="I62" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="J62" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="K62" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="L62" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="M62" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="N62" s="49" t="s">
         <v>280</v>
       </c>
-      <c r="B64" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="C64" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="D64" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="E64" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="F64" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="G64" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="H64" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="I64" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="J64" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="K64" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="L64" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="M64" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="N64" s="49" t="s">
+      <c r="O62" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="P62" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q62" s="48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" s="54" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="52" t="s">
         <v>281</v>
       </c>
-      <c r="O64" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="P64" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q64" s="49" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="65" s="46" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="43" t="s">
+      <c r="B63" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C63" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="D63" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="E63" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="F63" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="G63" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="H63" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="I63" s="53" t="s">
+        <v>192</v>
+      </c>
+      <c r="J63" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="K63" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="L63" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="M63" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="N63" s="53" t="s">
         <v>282</v>
       </c>
-      <c r="B65" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C65" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="D65" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="E65" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="F65" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="G65" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="H65" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="I65" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="J65" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="K65" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="L65" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="M65" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="N65" s="45" t="s">
+      <c r="O63" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="P63" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q63" s="53" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" s="54" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="52" t="s">
         <v>283</v>
       </c>
-      <c r="O65" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="P65" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q65" s="44" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="66" s="46" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="43" t="s">
+      <c r="B64" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C64" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="D64" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="E64" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="F64" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="G64" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="H64" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="I64" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="J64" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="K64" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="L64" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="M64" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="N64" s="53" t="s">
         <v>284</v>
       </c>
-      <c r="B66" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C66" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="D66" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="E66" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="F66" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="G66" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="H66" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="I66" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="J66" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="K66" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="L66" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="M66" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="N66" s="45" t="s">
+      <c r="O64" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="P64" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q64" s="53" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" s="50" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="47" t="s">
         <v>285</v>
       </c>
-      <c r="O66" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="P66" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q66" s="44" t="s">
+      <c r="B65" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C65" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="D65" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="E65" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="F65" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="G65" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="H65" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="I65" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="J65" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="K65" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="L65" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="M65" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="N65" s="49" t="s">
+        <v>286</v>
+      </c>
+      <c r="O65" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="P65" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q65" s="48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" s="50" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="47" t="s">
+        <v>287</v>
+      </c>
+      <c r="B66" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C66" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="D66" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="E66" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="F66" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="G66" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="H66" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="I66" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="J66" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="K66" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="L66" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="M66" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="N66" s="49" t="s">
+        <v>288</v>
+      </c>
+      <c r="O66" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="P66" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q66" s="48" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>32</v>
@@ -5296,7 +5343,7 @@
         <v>32</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>32</v>
@@ -5326,10 +5373,10 @@
         <v>32</v>
       </c>
       <c r="N67" s="6" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="O67" s="6" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="P67" s="6" t="s">
         <v>32</v>
@@ -5340,7 +5387,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>32</v>
@@ -5379,10 +5426,10 @@
         <v>32</v>
       </c>
       <c r="N68" s="6" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="O68" s="6" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="P68" s="6" t="s">
         <v>32</v>
@@ -5393,10 +5440,10 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>32</v>
@@ -5429,10 +5476,10 @@
         <v>32</v>
       </c>
       <c r="M69" s="6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="N69" s="6" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="O69" s="6" t="s">
         <v>32</v>
@@ -5446,10 +5493,10 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>32</v>
@@ -5485,7 +5532,7 @@
         <v>32</v>
       </c>
       <c r="N70" s="6" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="O70" s="6" t="s">
         <v>32</v>
@@ -5499,10 +5546,10 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>32</v>
@@ -5538,10 +5585,10 @@
         <v>32</v>
       </c>
       <c r="N71" s="6" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="O71" s="6" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="P71" s="6" t="s">
         <v>32</v>
@@ -5552,10 +5599,10 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>32</v>
@@ -5591,10 +5638,10 @@
         <v>32</v>
       </c>
       <c r="N72" s="6" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="O72" s="6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P72" s="6" t="s">
         <v>32</v>
@@ -5605,10 +5652,10 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>32</v>
@@ -5644,10 +5691,10 @@
         <v>32</v>
       </c>
       <c r="N73" s="6" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="O73" s="6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P73" s="6" t="s">
         <v>32</v>
@@ -5656,486 +5703,486 @@
         <v>32</v>
       </c>
     </row>
-    <row r="74" s="46" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="43" t="s">
-        <v>306</v>
-      </c>
-      <c r="B74" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C74" s="44" t="s">
+    <row r="74" s="50" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="47" t="s">
+        <v>309</v>
+      </c>
+      <c r="B74" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C74" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="D74" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="E74" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="F74" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="G74" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="H74" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="I74" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="J74" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="K74" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="L74" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="M74" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="N74" s="45" t="s">
-        <v>307</v>
-      </c>
-      <c r="O74" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="P74" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q74" s="44" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="75" s="46" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="43" t="s">
-        <v>308</v>
-      </c>
-      <c r="B75" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C75" s="44" t="s">
+      <c r="D74" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E74" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="F74" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="G74" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="H74" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="I74" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="J74" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="K74" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="L74" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="M74" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="N74" s="49" t="s">
+        <v>310</v>
+      </c>
+      <c r="O74" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="P74" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q74" s="48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" s="50" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="47" t="s">
+        <v>311</v>
+      </c>
+      <c r="B75" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C75" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="D75" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="E75" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="F75" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="G75" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="H75" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="I75" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="J75" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="K75" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="L75" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="M75" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="N75" s="45" t="s">
-        <v>309</v>
-      </c>
-      <c r="O75" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="P75" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q75" s="44" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="76" s="46" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="43" t="s">
-        <v>310</v>
-      </c>
-      <c r="B76" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C76" s="44" t="s">
+      <c r="D75" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E75" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="F75" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="G75" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="H75" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="I75" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="J75" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="K75" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="L75" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="M75" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="N75" s="49" t="s">
+        <v>312</v>
+      </c>
+      <c r="O75" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="P75" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q75" s="48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76" s="50" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="47" t="s">
+        <v>313</v>
+      </c>
+      <c r="B76" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C76" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="D76" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="E76" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="F76" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="G76" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="H76" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="I76" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="J76" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="K76" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="L76" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="M76" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="N76" s="45" t="s">
-        <v>311</v>
-      </c>
-      <c r="O76" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="P76" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q76" s="44" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="77" s="46" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="43" t="s">
-        <v>312</v>
-      </c>
-      <c r="B77" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C77" s="44" t="s">
+      <c r="D76" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E76" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="F76" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="G76" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="H76" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="I76" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="J76" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="K76" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="L76" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="M76" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="N76" s="49" t="s">
+        <v>314</v>
+      </c>
+      <c r="O76" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="P76" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q76" s="48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" s="50" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="47" t="s">
+        <v>315</v>
+      </c>
+      <c r="B77" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C77" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="D77" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="E77" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="F77" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="G77" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="H77" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="I77" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="J77" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="K77" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="L77" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="M77" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="N77" s="45" t="s">
-        <v>313</v>
-      </c>
-      <c r="O77" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="P77" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q77" s="44" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="78" s="46" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="43" t="s">
-        <v>314</v>
-      </c>
-      <c r="B78" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C78" s="44" t="s">
+      <c r="D77" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E77" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="F77" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="G77" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="H77" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="I77" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="J77" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="K77" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="L77" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="M77" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="N77" s="49" t="s">
+        <v>316</v>
+      </c>
+      <c r="O77" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="P77" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q77" s="48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" s="50" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="47" t="s">
+        <v>317</v>
+      </c>
+      <c r="B78" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C78" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="D78" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="E78" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="F78" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="G78" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="H78" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="I78" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="J78" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="K78" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="L78" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="M78" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="N78" s="45" t="s">
-        <v>315</v>
-      </c>
-      <c r="O78" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="P78" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q78" s="44" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="79" s="46" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="43" t="s">
-        <v>316</v>
-      </c>
-      <c r="B79" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C79" s="44" t="s">
+      <c r="D78" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E78" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="F78" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="G78" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="H78" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="I78" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="J78" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="K78" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="L78" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="M78" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="N78" s="49" t="s">
+        <v>318</v>
+      </c>
+      <c r="O78" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="P78" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q78" s="48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" s="50" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="47" t="s">
+        <v>319</v>
+      </c>
+      <c r="B79" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C79" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="D79" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="E79" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="F79" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="G79" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="H79" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="I79" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="J79" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="K79" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="L79" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="M79" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="N79" s="45" t="s">
-        <v>317</v>
-      </c>
-      <c r="O79" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="P79" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q79" s="44" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="80" s="46" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="43" t="s">
-        <v>318</v>
-      </c>
-      <c r="B80" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C80" s="44" t="s">
+      <c r="D79" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E79" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="F79" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="G79" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="H79" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="I79" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="J79" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="K79" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="L79" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="M79" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="N79" s="49" t="s">
+        <v>320</v>
+      </c>
+      <c r="O79" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="P79" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q79" s="48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80" s="50" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="B80" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C80" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="D80" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="E80" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="F80" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="G80" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="H80" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="I80" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="J80" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="K80" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="L80" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="M80" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="N80" s="45" t="s">
-        <v>319</v>
-      </c>
-      <c r="O80" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="P80" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q80" s="44" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="81" s="46" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="43" t="s">
-        <v>320</v>
-      </c>
-      <c r="B81" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C81" s="44" t="s">
+      <c r="D80" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E80" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="F80" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="G80" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="H80" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="I80" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="J80" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="K80" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="L80" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="M80" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="N80" s="49" t="s">
+        <v>322</v>
+      </c>
+      <c r="O80" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="P80" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q80" s="48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81" s="50" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="47" t="s">
+        <v>323</v>
+      </c>
+      <c r="B81" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C81" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="D81" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="E81" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="F81" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="G81" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="H81" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="I81" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="J81" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="K81" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="L81" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="M81" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="N81" s="45" t="s">
-        <v>321</v>
-      </c>
-      <c r="O81" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="P81" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q81" s="44" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="82" s="46" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="43" t="s">
-        <v>322</v>
-      </c>
-      <c r="B82" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C82" s="44" t="s">
+      <c r="D81" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E81" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="F81" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="G81" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="H81" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="I81" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="J81" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="K81" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="L81" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="M81" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="N81" s="49" t="s">
+        <v>324</v>
+      </c>
+      <c r="O81" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="P81" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q81" s="48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="82" s="50" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="47" t="s">
+        <v>325</v>
+      </c>
+      <c r="B82" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C82" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="D82" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="E82" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="F82" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="G82" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="H82" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="I82" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="J82" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="K82" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="L82" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="M82" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="N82" s="45" t="s">
-        <v>323</v>
-      </c>
-      <c r="O82" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="P82" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q82" s="44" t="s">
+      <c r="D82" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E82" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="F82" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="G82" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="H82" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="I82" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="J82" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="K82" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="L82" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="M82" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="N82" s="49" t="s">
+        <v>326</v>
+      </c>
+      <c r="O82" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="P82" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q82" s="48" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>32</v>
@@ -6150,7 +6197,7 @@
         <v>32</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G83" s="6" t="s">
         <v>32</v>
@@ -6174,7 +6221,7 @@
         <v>32</v>
       </c>
       <c r="N83" s="6" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="O83" s="6" t="s">
         <v>32</v>
@@ -6188,7 +6235,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="5" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>32</v>
@@ -6203,7 +6250,7 @@
         <v>32</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G84" s="6" t="s">
         <v>32</v>
@@ -6227,7 +6274,7 @@
         <v>32</v>
       </c>
       <c r="N84" s="6" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="O84" s="6" t="s">
         <v>32</v>
@@ -6241,7 +6288,7 @@
     </row>
     <row r="85" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>32</v>
@@ -6256,7 +6303,7 @@
         <v>32</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G85" s="6" t="s">
         <v>32</v>
@@ -6280,7 +6327,7 @@
         <v>32</v>
       </c>
       <c r="N85" s="6" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="O85" s="6" t="s">
         <v>32</v>
@@ -6294,7 +6341,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="5" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>32</v>
@@ -6333,7 +6380,7 @@
         <v>32</v>
       </c>
       <c r="N86" s="6" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O86" s="6" t="s">
         <v>32</v>
@@ -6347,7 +6394,7 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>32</v>
@@ -6386,7 +6433,7 @@
         <v>32</v>
       </c>
       <c r="N87" s="6" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="O87" s="6" t="s">
         <v>32</v>
@@ -6400,7 +6447,7 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="5" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>32</v>
@@ -6439,7 +6486,7 @@
         <v>32</v>
       </c>
       <c r="N88" s="6" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="O88" s="6" t="s">
         <v>32</v>
@@ -6453,7 +6500,7 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="5" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>32</v>
@@ -6465,7 +6512,7 @@
         <v>32</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F89" s="6"/>
       <c r="G89" s="6" t="s">
@@ -6490,7 +6537,7 @@
         <v>32</v>
       </c>
       <c r="N89" s="6" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="O89" s="6" t="s">
         <v>32</v>
@@ -6504,7 +6551,7 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="5" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>32</v>
@@ -6516,7 +6563,7 @@
         <v>32</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F90" s="6"/>
       <c r="G90" s="6" t="s">
@@ -6541,7 +6588,7 @@
         <v>32</v>
       </c>
       <c r="N90" s="6" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="O90" s="6" t="s">
         <v>32</v>
@@ -6555,7 +6602,7 @@
     </row>
     <row r="91" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>32</v>
@@ -6594,7 +6641,7 @@
         <v>32</v>
       </c>
       <c r="N91" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="O91" s="6" t="s">
         <v>32</v>
@@ -6608,7 +6655,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="5" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>32</v>
@@ -6647,7 +6694,7 @@
         <v>32</v>
       </c>
       <c r="N92" s="6" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="O92" s="6" t="s">
         <v>32</v>
@@ -6661,7 +6708,7 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="5" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>32</v>
@@ -6700,7 +6747,7 @@
         <v>32</v>
       </c>
       <c r="N93" s="6" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="O93" s="6" t="s">
         <v>32</v>
@@ -6714,7 +6761,7 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="5" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>32</v>
@@ -6756,7 +6803,7 @@
         <v>32</v>
       </c>
       <c r="O94" s="6" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="P94" s="6" t="s">
         <v>32</v>
@@ -6767,7 +6814,7 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="5" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>32</v>
@@ -6806,7 +6853,7 @@
         <v>32</v>
       </c>
       <c r="N95" s="6" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="O95" s="6" t="s">
         <v>32</v>
@@ -6820,7 +6867,7 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="5" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>32</v>
@@ -6859,7 +6906,7 @@
         <v>32</v>
       </c>
       <c r="N96" s="6" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="O96" s="6" t="s">
         <v>32</v>
@@ -6873,7 +6920,7 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="5" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>32</v>
@@ -6912,7 +6959,7 @@
         <v>32</v>
       </c>
       <c r="N97" s="6" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O97" s="6" t="s">
         <v>32</v>
@@ -6926,7 +6973,7 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="5" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>32</v>
@@ -6965,7 +7012,7 @@
         <v>32</v>
       </c>
       <c r="N98" s="6" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="O98" s="6" t="s">
         <v>32</v>
@@ -6979,7 +7026,7 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="5" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>32</v>
@@ -7018,7 +7065,7 @@
         <v>32</v>
       </c>
       <c r="N99" s="6" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="O99" s="6" t="s">
         <v>32</v>
@@ -7032,7 +7079,7 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="5" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>32</v>
@@ -7071,7 +7118,7 @@
         <v>32</v>
       </c>
       <c r="N100" s="6" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="O100" s="6" t="s">
         <v>32</v>
@@ -7085,7 +7132,7 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="5" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>32</v>
@@ -7124,7 +7171,7 @@
         <v>32</v>
       </c>
       <c r="N101" s="6" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="O101" s="6" t="s">
         <v>32</v>
@@ -7138,7 +7185,7 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="5" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>32</v>
@@ -7177,7 +7224,7 @@
         <v>32</v>
       </c>
       <c r="N102" s="6" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="O102" s="6" t="s">
         <v>32</v>
@@ -7191,7 +7238,7 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="5" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>32</v>
@@ -7230,7 +7277,7 @@
         <v>32</v>
       </c>
       <c r="N103" s="6" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="O103" s="6" t="s">
         <v>32</v>
@@ -7244,7 +7291,7 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="5" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>32</v>
@@ -7283,7 +7330,7 @@
         <v>32</v>
       </c>
       <c r="N104" s="6" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="O104" s="6" t="s">
         <v>32</v>
@@ -7297,7 +7344,7 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="5" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>32</v>
@@ -7336,7 +7383,7 @@
         <v>32</v>
       </c>
       <c r="N105" s="6" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="O105" s="6" t="s">
         <v>32</v>
@@ -7350,7 +7397,7 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="5" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>32</v>
@@ -7377,7 +7424,7 @@
         <v>32</v>
       </c>
       <c r="J106" s="6" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K106" s="6" t="s">
         <v>32</v>
@@ -7389,7 +7436,7 @@
         <v>32</v>
       </c>
       <c r="N106" s="6" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="O106" s="6" t="s">
         <v>32</v>
@@ -7403,7 +7450,7 @@
     </row>
     <row r="107" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="5" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>32</v>
@@ -7430,7 +7477,7 @@
         <v>32</v>
       </c>
       <c r="J107" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="K107" s="6" t="s">
         <v>32</v>
@@ -7439,7 +7486,7 @@
         <v>32</v>
       </c>
       <c r="M107" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N107" s="6" t="s">
         <v>32</v>
@@ -7456,7 +7503,7 @@
     </row>
     <row r="108" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="5" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>32</v>
@@ -7483,7 +7530,7 @@
         <v>32</v>
       </c>
       <c r="J108" s="6" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="K108" s="6" t="s">
         <v>32</v>
@@ -7495,7 +7542,7 @@
         <v>32</v>
       </c>
       <c r="N108" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="O108" s="6" t="s">
         <v>32</v>
@@ -7509,7 +7556,7 @@
     </row>
     <row r="109" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="5" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>32</v>
@@ -7548,7 +7595,7 @@
         <v>32</v>
       </c>
       <c r="N109" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="O109" s="6" t="s">
         <v>32</v>
@@ -7562,7 +7609,7 @@
     </row>
     <row r="110" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="5" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>32</v>
@@ -7598,10 +7645,10 @@
         <v>32</v>
       </c>
       <c r="M110" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="N110" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="O110" s="6" t="s">
         <v>32</v>
@@ -7615,7 +7662,7 @@
     </row>
     <row r="111" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="5" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>32</v>
@@ -7642,7 +7689,7 @@
         <v>32</v>
       </c>
       <c r="J111" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="K111" s="6" t="s">
         <v>32</v>
@@ -7654,7 +7701,7 @@
         <v>32</v>
       </c>
       <c r="N111" s="6" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="O111" s="6" t="s">
         <v>32</v>
@@ -7668,7 +7715,7 @@
     </row>
     <row r="112" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="5" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>32</v>
@@ -7695,7 +7742,7 @@
         <v>32</v>
       </c>
       <c r="J112" s="6" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="K112" s="6" t="s">
         <v>32</v>
@@ -7704,10 +7751,10 @@
         <v>32</v>
       </c>
       <c r="M112" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="N112" s="6" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="O112" s="6" t="s">
         <v>32</v>
@@ -7721,7 +7768,7 @@
     </row>
     <row r="113" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="5" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>32</v>
@@ -7748,7 +7795,7 @@
         <v>32</v>
       </c>
       <c r="J113" s="6" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K113" s="6" t="s">
         <v>32</v>
@@ -7757,10 +7804,10 @@
         <v>32</v>
       </c>
       <c r="M113" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="N113" s="6" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="O113" s="6" t="s">
         <v>32</v>
@@ -7774,7 +7821,7 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="5" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>32</v>
@@ -7801,7 +7848,7 @@
         <v>32</v>
       </c>
       <c r="J114" s="6" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="K114" s="6" t="s">
         <v>32</v>
@@ -7816,7 +7863,7 @@
         <v>32</v>
       </c>
       <c r="O114" s="6" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="P114" s="6" t="s">
         <v>32</v>
@@ -7827,7 +7874,7 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="5" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>32</v>
@@ -7880,7 +7927,7 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="5" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>32</v>
@@ -7933,7 +7980,7 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="5" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>32</v>
@@ -7986,7 +8033,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="5" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>32</v>
@@ -8039,7 +8086,7 @@
     </row>
     <row r="119" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="5" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>32</v>
@@ -8054,7 +8101,7 @@
         <v>32</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G119" s="6" t="s">
         <v>32</v>
@@ -8072,7 +8119,7 @@
         <v>32</v>
       </c>
       <c r="L119" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M119" s="6" t="s">
         <v>32</v>
@@ -8092,7 +8139,7 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="5" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>32</v>
@@ -8107,7 +8154,7 @@
         <v>32</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G120" s="6" t="s">
         <v>32</v>
@@ -8145,7 +8192,7 @@
     </row>
     <row r="121" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="5" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>32</v>
@@ -8160,7 +8207,7 @@
         <v>32</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G121" s="6" t="s">
         <v>32</v>
@@ -8175,7 +8222,7 @@
         <v>32</v>
       </c>
       <c r="K121" s="6" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L121" s="6" t="s">
         <v>32</v>
@@ -8198,7 +8245,7 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="5" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>32</v>
@@ -8251,7 +8298,7 @@
     </row>
     <row r="123" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="5" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B123" s="6" t="s">
         <v>32</v>
@@ -8266,7 +8313,7 @@
         <v>32</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G123" s="6" t="s">
         <v>32</v>
@@ -8304,7 +8351,7 @@
     </row>
     <row r="124" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="5" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>32</v>
@@ -8334,7 +8381,7 @@
         <v>32</v>
       </c>
       <c r="K124" s="6" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L124" s="6" t="s">
         <v>32</v>
@@ -8357,7 +8404,7 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="5" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B125" s="6" t="s">
         <v>32</v>
@@ -8366,7 +8413,7 @@
         <v>32</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="E125" s="6" t="s">
         <v>32</v>
@@ -8393,7 +8440,7 @@
         <v>32</v>
       </c>
       <c r="M125" s="6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="N125" s="6" t="s">
         <v>32</v>
@@ -8410,7 +8457,7 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="5" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B126" s="6" t="s">
         <v>32</v>
@@ -8419,7 +8466,7 @@
         <v>32</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="E126" s="6" t="s">
         <v>32</v>
@@ -8452,7 +8499,7 @@
         <v>32</v>
       </c>
       <c r="O126" s="6" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="P126" s="6" t="s">
         <v>32</v>
@@ -8463,7 +8510,7 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="5" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B127" s="6" t="s">
         <v>32</v>
@@ -8472,7 +8519,7 @@
         <v>32</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E127" s="6" t="s">
         <v>32</v>
@@ -8505,7 +8552,7 @@
         <v>32</v>
       </c>
       <c r="O127" s="6" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="P127" s="6" t="s">
         <v>32</v>
@@ -8516,7 +8563,7 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="5" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B128" s="6" t="s">
         <v>32</v>
@@ -8555,7 +8602,7 @@
       <c r="N128" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="O128" s="51" t="s">
+      <c r="O128" s="55" t="s">
         <v>32</v>
       </c>
       <c r="P128" s="6" t="s">
@@ -8567,7 +8614,7 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="5" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B129" s="6" t="s">
         <v>32</v>
@@ -8609,7 +8656,7 @@
         <v>32</v>
       </c>
       <c r="O129" s="6" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="P129" s="6" t="s">
         <v>32</v>
@@ -8620,7 +8667,7 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="5" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B130" s="6" t="s">
         <v>32</v>
@@ -8662,7 +8709,7 @@
         <v>32</v>
       </c>
       <c r="O130" s="6" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="P130" s="6" t="s">
         <v>32</v>
@@ -8673,7 +8720,7 @@
     </row>
     <row r="131" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="5" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B131" s="6" t="s">
         <v>32</v>
@@ -8682,7 +8729,7 @@
         <v>32</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="E131" s="6" t="s">
         <v>32</v>
@@ -8691,7 +8738,7 @@
         <v>32</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H131" s="6" t="s">
         <v>32</v>
@@ -8715,7 +8762,7 @@
         <v>32</v>
       </c>
       <c r="O131" s="6" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="P131" s="6" t="s">
         <v>32</v>
@@ -8726,7 +8773,7 @@
     </row>
     <row r="132" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="5" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>32</v>
@@ -8744,7 +8791,7 @@
         <v>32</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H132" s="6" t="s">
         <v>32</v>
@@ -8768,7 +8815,7 @@
         <v>32</v>
       </c>
       <c r="O132" s="6" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="P132" s="6" t="s">
         <v>32</v>
@@ -8779,7 +8826,7 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="5" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>32</v>
@@ -8791,16 +8838,16 @@
         <v>32</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F133" s="6" t="s">
         <v>32</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H133" s="6" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I133" s="6" t="s">
         <v>32</v>
@@ -8821,7 +8868,7 @@
         <v>32</v>
       </c>
       <c r="O133" s="6" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="P133" s="6" t="s">
         <v>32</v>
@@ -8832,7 +8879,7 @@
     </row>
     <row r="134" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="5" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>32</v>
@@ -8850,7 +8897,7 @@
         <v>32</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H134" s="6" t="s">
         <v>32</v>
@@ -8874,7 +8921,7 @@
         <v>32</v>
       </c>
       <c r="O134" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P134" s="6" t="s">
         <v>32</v>
@@ -8885,7 +8932,7 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="5" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B135" s="6" t="s">
         <v>32</v>
@@ -8927,7 +8974,7 @@
         <v>32</v>
       </c>
       <c r="O135" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P135" s="6" t="s">
         <v>32</v>
@@ -8938,7 +8985,7 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="5" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B136" s="6" t="s">
         <v>32</v>
@@ -8950,7 +8997,7 @@
         <v>32</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F136" s="6" t="s">
         <v>32</v>
@@ -8980,7 +9027,7 @@
         <v>32</v>
       </c>
       <c r="O136" s="6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P136" s="6" t="s">
         <v>32</v>
@@ -8991,7 +9038,7 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="5" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B137" s="6" t="s">
         <v>32</v>
@@ -9003,7 +9050,7 @@
         <v>32</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F137" s="6" t="s">
         <v>32</v>
@@ -9033,7 +9080,7 @@
         <v>32</v>
       </c>
       <c r="O137" s="6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P137" s="6" t="s">
         <v>32</v>
@@ -9044,7 +9091,7 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="5" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>32</v>
@@ -9056,7 +9103,7 @@
         <v>32</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F138" s="6" t="s">
         <v>32</v>
@@ -9086,7 +9133,7 @@
         <v>32</v>
       </c>
       <c r="O138" s="6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P138" s="6" t="s">
         <v>32</v>
@@ -9097,7 +9144,7 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="5" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>32</v>
@@ -9150,7 +9197,7 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="5" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B140" s="6" t="s">
         <v>32</v>
@@ -9203,7 +9250,7 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="5" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B141" s="6" t="s">
         <v>32</v>
@@ -9256,7 +9303,7 @@
     </row>
     <row r="142" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="5" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B142" s="6" t="s">
         <v>32</v>
@@ -9289,7 +9336,7 @@
         <v>32</v>
       </c>
       <c r="L142" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M142" s="6" t="s">
         <v>32</v>

--- a/platform/embedded/stm32f407/stm32f4_function_mappings.xlsx
+++ b/platform/embedded/stm32f407/stm32f4_function_mappings.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2415" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2452" uniqueCount="463">
   <si>
     <t xml:space="preserve">Port</t>
   </si>
@@ -170,6 +170,9 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">ETH_REF_CLK</t>
+  </si>
+  <si>
     <t xml:space="preserve">PA2</t>
   </si>
   <si>
@@ -287,6 +290,9 @@
 _CRS_DV</t>
   </si>
   <si>
+    <t xml:space="preserve">ETH_CRS</t>
+  </si>
+  <si>
     <t xml:space="preserve">PA8</t>
   </si>
   <si>
@@ -303,6 +309,9 @@
   </si>
   <si>
     <t xml:space="preserve">OTG_FS_SOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">???</t>
   </si>
   <si>
     <t xml:space="preserve">PA9</t>
@@ -380,6 +389,9 @@
 SWCLK</t>
   </si>
   <si>
+    <t xml:space="preserve">LCD_CTRL</t>
+  </si>
+  <si>
     <t xml:space="preserve">PA15</t>
   </si>
   <si>
@@ -413,6 +425,9 @@
     <t xml:space="preserve">ETH_MII_RXD2</t>
   </si>
   <si>
+    <t xml:space="preserve">RS485_RE</t>
+  </si>
+  <si>
     <t xml:space="preserve">PB1</t>
   </si>
   <si>
@@ -430,6 +445,9 @@
   </si>
   <si>
     <t xml:space="preserve">ETH_MII_RXD3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS485_DE</t>
   </si>
   <si>
     <t xml:space="preserve">PB2</t>
@@ -603,6 +621,9 @@
 _RMII_TX_EN</t>
   </si>
   <si>
+    <t xml:space="preserve">ETH_TX_EN</t>
+  </si>
+  <si>
     <t xml:space="preserve">PB12</t>
   </si>
   <si>
@@ -617,6 +638,9 @@
     <t xml:space="preserve">USART3_CK</t>
   </si>
   <si>
+    <t xml:space="preserve">m</t>
+  </si>
+  <si>
     <t xml:space="preserve">OTG_HS_ULPI_
 D5</t>
   </si>
@@ -628,10 +652,16 @@
     <t xml:space="preserve">OTG_HS_ID</t>
   </si>
   <si>
+    <t xml:space="preserve">ETH_TX0</t>
+  </si>
+  <si>
     <t xml:space="preserve">PB13</t>
   </si>
   <si>
     <t xml:space="preserve">USART3_CTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mm</t>
   </si>
   <si>
     <t xml:space="preserve">OTG_HS_ULPI_
@@ -642,6 +672,9 @@
 ETH_RMII_TXD1</t>
   </si>
   <si>
+    <t xml:space="preserve">ETH_TX1</t>
+  </si>
+  <si>
     <t xml:space="preserve">PB14</t>
   </si>
   <si>
@@ -717,6 +750,9 @@
     <t xml:space="preserve">PC4</t>
   </si>
   <si>
+    <t xml:space="preserve">ETH_RX0</t>
+  </si>
+  <si>
     <t xml:space="preserve">PC5</t>
   </si>
   <si>
@@ -724,6 +760,9 @@
 ETH_RMII_RXD1</t>
   </si>
   <si>
+    <t xml:space="preserve">ETH_RX1</t>
+  </si>
+  <si>
     <t xml:space="preserve">PC6</t>
   </si>
   <si>
@@ -739,7 +778,7 @@
     <t xml:space="preserve">SDIO_D6</t>
   </si>
   <si>
-    <t xml:space="preserve">BusUart</t>
+    <t xml:space="preserve">RS485_DI</t>
   </si>
   <si>
     <t xml:space="preserve">PC7</t>
@@ -755,6 +794,9 @@
   </si>
   <si>
     <t xml:space="preserve">SDIO_D7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS485_DO</t>
   </si>
   <si>
     <t xml:space="preserve">PC8</t>
@@ -851,12 +893,18 @@
     <t xml:space="preserve">FSMC_D2</t>
   </si>
   <si>
+    <t xml:space="preserve">LCD_D2</t>
+  </si>
+  <si>
     <t xml:space="preserve">PD1</t>
   </si>
   <si>
     <t xml:space="preserve">FSMC_D3</t>
   </si>
   <si>
+    <t xml:space="preserve">LCD_D3</t>
+  </si>
+  <si>
     <t xml:space="preserve">PD2</t>
   </si>
   <si>
@@ -884,10 +932,16 @@
     <t xml:space="preserve">FSMC_NOE</t>
   </si>
   <si>
+    <t xml:space="preserve">LCD_RD</t>
+  </si>
+  <si>
     <t xml:space="preserve">PD5</t>
   </si>
   <si>
     <t xml:space="preserve">FSMC_NWE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCD_WR</t>
   </si>
   <si>
     <t xml:space="preserve">PD6</t>
@@ -903,30 +957,45 @@
 FSMC_NCE2</t>
   </si>
   <si>
+    <t xml:space="preserve">LCD_CS</t>
+  </si>
+  <si>
     <t xml:space="preserve">PD8</t>
   </si>
   <si>
     <t xml:space="preserve">FSMC_D13</t>
   </si>
   <si>
+    <t xml:space="preserve">LCD_D13</t>
+  </si>
+  <si>
     <t xml:space="preserve">PD9</t>
   </si>
   <si>
     <t xml:space="preserve">FSMC_D14</t>
   </si>
   <si>
+    <t xml:space="preserve">LCD_D14</t>
+  </si>
+  <si>
     <t xml:space="preserve">PD10</t>
   </si>
   <si>
     <t xml:space="preserve">FSMC_D15</t>
   </si>
   <si>
+    <t xml:space="preserve">LCD_D15</t>
+  </si>
+  <si>
     <t xml:space="preserve">PD11</t>
   </si>
   <si>
     <t xml:space="preserve">FSMC_A16</t>
   </si>
   <si>
+    <t xml:space="preserve">LCD_RS</t>
+  </si>
+  <si>
     <t xml:space="preserve">PD12</t>
   </si>
   <si>
@@ -945,6 +1014,9 @@
     <t xml:space="preserve">FSMC_D0</t>
   </si>
   <si>
+    <t xml:space="preserve">LCD_D0</t>
+  </si>
+  <si>
     <t xml:space="preserve">PD15</t>
   </si>
   <si>
@@ -960,6 +1032,9 @@
     <t xml:space="preserve">FSMC_NBL0</t>
   </si>
   <si>
+    <t xml:space="preserve">LCD_RESET</t>
+  </si>
+  <si>
     <t xml:space="preserve">PE1</t>
   </si>
   <si>
@@ -1017,52 +1092,79 @@
     <t xml:space="preserve">FSMC_D4</t>
   </si>
   <si>
+    <t xml:space="preserve">LCD_D4</t>
+  </si>
+  <si>
     <t xml:space="preserve">PE8</t>
   </si>
   <si>
     <t xml:space="preserve">FSMC_D5</t>
   </si>
   <si>
+    <t xml:space="preserve">LCD_D5</t>
+  </si>
+  <si>
     <t xml:space="preserve">PE9</t>
   </si>
   <si>
     <t xml:space="preserve">FSMC_D6</t>
   </si>
   <si>
+    <t xml:space="preserve">LCD_D6</t>
+  </si>
+  <si>
     <t xml:space="preserve">PE10</t>
   </si>
   <si>
     <t xml:space="preserve">FSMC_D7</t>
   </si>
   <si>
+    <t xml:space="preserve">LCD_D7</t>
+  </si>
+  <si>
     <t xml:space="preserve">PE11</t>
   </si>
   <si>
     <t xml:space="preserve">FSMC_D8</t>
   </si>
   <si>
+    <t xml:space="preserve">LCD_D8</t>
+  </si>
+  <si>
     <t xml:space="preserve">PE12</t>
   </si>
   <si>
     <t xml:space="preserve">FSMC_D9</t>
   </si>
   <si>
+    <t xml:space="preserve">LCD_D9</t>
+  </si>
+  <si>
     <t xml:space="preserve">PE13</t>
   </si>
   <si>
     <t xml:space="preserve">FSMC_D10</t>
   </si>
   <si>
+    <t xml:space="preserve">LCD_D10</t>
+  </si>
+  <si>
     <t xml:space="preserve">PE14</t>
   </si>
   <si>
     <t xml:space="preserve">FSMC_D11</t>
   </si>
   <si>
+    <t xml:space="preserve">LCD_D11</t>
+  </si>
+  <si>
     <t xml:space="preserve">PE15</t>
   </si>
   <si>
     <t xml:space="preserve">FSMC_D12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCD_D12</t>
   </si>
   <si>
     <t xml:space="preserve">PF0</t>
@@ -1429,6 +1531,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor rgb="FF00FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00FF66"/>
         <bgColor rgb="FF00FFFF"/>
       </patternFill>
@@ -1443,18 +1557,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF33FF"/>
         <bgColor rgb="FFFF00FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FFFF"/>
-        <bgColor rgb="FF00FFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -1498,7 +1600,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1547,16 +1649,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1571,7 +1669,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1580,38 +1678,30 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1619,20 +1709,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1641,10 +1723,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1660,7 +1738,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1671,32 +1757,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1707,11 +1777,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1719,8 +1789,48 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1731,7 +1841,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1823,11 +1933,11 @@
   <dimension ref="A1:R142"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="L20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="K23" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="L1" activeCellId="0" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="S2" activeCellId="0" sqref="S2"/>
+      <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+      <selection pane="bottomRight" activeCell="R40" activeCellId="0" sqref="R40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1847,7 +1957,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="0" width="8.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="10.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="0" width="8.37"/>
   </cols>
   <sheetData>
@@ -2056,23 +2166,25 @@
       <c r="Q4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="R4" s="12"/>
+      <c r="R4" s="12" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="5" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>32</v>
@@ -2084,7 +2196,7 @@
         <v>32</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J5" s="10" t="s">
         <v>32</v>
@@ -2095,8 +2207,8 @@
       <c r="L5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="14" t="s">
-        <v>50</v>
+      <c r="M5" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="N5" s="10" t="s">
         <v>32</v>
@@ -2110,23 +2222,25 @@
       <c r="Q5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="R5" s="12"/>
+      <c r="R5" s="12" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>32</v>
@@ -2138,7 +2252,7 @@
         <v>32</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>32</v>
@@ -2147,10 +2261,10 @@
         <v>32</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N6" s="7" t="s">
         <v>32</v>
@@ -2167,7 +2281,7 @@
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>32</v>
@@ -2185,13 +2299,13 @@
         <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>32</v>
@@ -2206,10 +2320,10 @@
         <v>32</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>32</v>
@@ -2220,25 +2334,25 @@
     </row>
     <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>32</v>
@@ -2253,7 +2367,7 @@
         <v>32</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M8" s="7" t="s">
         <v>32</v>
@@ -2273,25 +2387,25 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>32</v>
@@ -2303,7 +2417,7 @@
         <v>32</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>32</v>
@@ -2315,7 +2429,7 @@
         <v>32</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>32</v>
@@ -2326,25 +2440,25 @@
     </row>
     <row r="10" s="13" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>32</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>32</v>
@@ -2356,13 +2470,13 @@
         <v>32</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L10" s="10" t="s">
         <v>32</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N10" s="10" t="s">
         <v>32</v>
@@ -2376,17 +2490,19 @@
       <c r="Q10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="R10" s="12"/>
+      <c r="R10" s="12" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="11" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>32</v>
@@ -2395,7 +2511,7 @@
         <v>32</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>32</v>
@@ -2404,7 +2520,7 @@
         <v>32</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J11" s="10" t="s">
         <v>32</v>
@@ -2413,7 +2529,7 @@
         <v>32</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M11" s="10" t="s">
         <v>32</v>
@@ -2430,227 +2546,231 @@
       <c r="Q11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="R11" s="12"/>
-    </row>
-    <row r="12" s="19" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="17" t="s">
+      <c r="R11" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="G12" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="16" t="s">
+    </row>
+    <row r="12" s="18" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="J12" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L12" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="M12" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="N12" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="O12" s="16" t="s">
+      <c r="B12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="P12" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q12" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="R12" s="18"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15" t="s">
+      <c r="D12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="16" t="s">
+      <c r="G12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="16" t="s">
+      <c r="J12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="J13" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L13" s="20" t="s">
+      <c r="P12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="R12" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="M13" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="N13" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="O13" s="16" t="s">
+      <c r="B13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="P13" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q13" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15" t="s">
+      <c r="D13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="16" t="s">
+      <c r="J13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" s="16" t="s">
+      <c r="M13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="O13" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="J14" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14" s="16" t="s">
+      <c r="P13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q13" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="L14" s="20" t="s">
+      <c r="B14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="M14" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="N14" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="O14" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="P14" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q14" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15" t="s">
+      <c r="D14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="16" t="s">
+      <c r="J14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D15" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="16" t="s">
+      <c r="L14" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="J15" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="16" t="s">
+      <c r="M14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="N14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="O14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="P14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q14" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="L15" s="20" t="s">
+      <c r="B15" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="M15" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="N15" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="O15" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="P15" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q15" s="16" t="s">
+      <c r="D15" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="O15" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="P15" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q15" s="15" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>32</v>
@@ -2698,68 +2818,71 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="N17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>32</v>
+    <row r="17" s="21" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="N17" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="O17" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="P17" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q17" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="R17" s="22" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>32</v>
@@ -2771,10 +2894,10 @@
         <v>32</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>32</v>
@@ -2804,441 +2927,447 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L19" s="8" t="s">
+    <row r="19" s="24" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="M19" s="7" t="s">
+      <c r="B19" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="N19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
+      <c r="D19" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="7" t="s">
+      <c r="E19" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="F19" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="M19" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L20" s="8" t="s">
+      <c r="N19" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="O19" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="P19" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q19" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="R19" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="M20" s="7" t="s">
+    </row>
+    <row r="20" s="28" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="N20" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="21" t="s">
+      <c r="B20" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="B21" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="I21" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="J21" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="K21" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="L21" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O21" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="P21" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q21" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="R21" s="23" t="s">
+      <c r="D20" s="24" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="22" s="30" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="25" t="s">
+      <c r="E20" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="F20" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="M20" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="N20" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="O20" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="P20" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q20" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="R20" s="26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="O21" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="P21" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q21" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="R21" s="31" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" s="38" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="I22" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="J22" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="K22" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="L22" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="O22" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="P22" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q22" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="R22" s="29" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="23" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="H23" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="I23" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="J23" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="K23" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="L23" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="O23" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="P23" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q23" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="R23" s="29" t="s">
+      <c r="D22" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22" s="36" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="24" s="30" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="25" t="s">
+      <c r="I22" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="L22" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="O22" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="P22" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q22" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="R22" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="B24" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24" s="26" t="s">
+    </row>
+    <row r="23" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="G24" s="27" t="s">
+      <c r="B23" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="I23" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="J23" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="L23" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="O23" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="P23" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q23" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="R23" s="37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" s="38" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="H24" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="I24" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="J24" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="K24" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="L24" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="M24" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="N24" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="O24" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="P24" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q24" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="R24" s="29" t="s">
+      <c r="E24" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="34" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="25" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="15" t="s">
+      <c r="G24" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="B25" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="16" t="s">
+      <c r="I24" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="E25" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="16" t="s">
+      <c r="L24" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="G25" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H25" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I25" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="J25" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K25" s="16" t="s">
+      <c r="M24" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="L25" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="O25" s="16" t="s">
+      <c r="N24" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="O24" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="P25" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q25" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="R25" s="20" t="s">
+      <c r="P24" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q24" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="R24" s="37" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="26" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="15" t="s">
+    <row r="25" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="B26" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="16" t="s">
+      <c r="B25" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="E26" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="16" t="s">
+      <c r="E25" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="G26" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H26" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I26" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="J26" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K26" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L26" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16" t="s">
+      <c r="G25" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K25" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="O26" s="19" t="s">
+      <c r="L25" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="O25" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="P26" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q26" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="R26" s="20" t="s">
-        <v>152</v>
+      <c r="P25" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q25" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="R25" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K26" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="L26" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="O26" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="P26" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q26" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="R26" s="17" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>32</v>
@@ -3247,13 +3376,13 @@
         <v>32</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>32</v>
@@ -3268,19 +3397,19 @@
         <v>32</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>32</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>32</v>
@@ -3291,7 +3420,7 @@
     </row>
     <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>32</v>
@@ -3300,16 +3429,16 @@
         <v>32</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>32</v>
@@ -3321,17 +3450,17 @@
         <v>32</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>32</v>
       </c>
       <c r="M28" s="7"/>
       <c r="N28" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>32</v>
@@ -3340,71 +3469,71 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" s="24" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F29" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="G29" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="H29" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="I29" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="J29" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="K29" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="L29" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="M29" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="N29" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O29" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="P29" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q29" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="R29" s="23" t="s">
-        <v>129</v>
+    <row r="29" s="32" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="G29" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="H29" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="J29" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="K29" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="L29" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="M29" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="N29" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="O29" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="P29" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q29" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="R29" s="31" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="30" s="13" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>32</v>
@@ -3413,7 +3542,7 @@
         <v>32</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>32</v>
@@ -3422,7 +3551,7 @@
         <v>32</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="J30" s="10" t="s">
         <v>32</v>
@@ -3430,11 +3559,11 @@
       <c r="K30" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="L30" s="33" t="s">
-        <v>179</v>
+      <c r="L30" s="41" t="s">
+        <v>185</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="N30" s="10" t="s">
         <v>32</v>
@@ -3448,17 +3577,19 @@
       <c r="Q30" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="R30" s="12"/>
+      <c r="R30" s="12" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="31" s="13" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>32</v>
@@ -3466,32 +3597,32 @@
       <c r="E31" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F31" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="G31" s="33" t="s">
-        <v>183</v>
+      <c r="F31" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="G31" s="41" t="s">
+        <v>190</v>
       </c>
       <c r="H31" s="10" t="s">
         <v>32</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="J31" s="10" t="s">
         <v>32</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="L31" s="33" t="s">
-        <v>185</v>
+        <v>192</v>
+      </c>
+      <c r="L31" s="41" t="s">
+        <v>193</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="N31" s="10" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="O31" s="10" t="s">
         <v>32</v>
@@ -3502,17 +3633,19 @@
       <c r="Q31" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="R31" s="12"/>
+      <c r="R31" s="12" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="32" s="13" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>32</v>
@@ -3523,26 +3656,26 @@
       <c r="F32" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G32" s="33" t="s">
-        <v>172</v>
+      <c r="G32" s="41" t="s">
+        <v>178</v>
       </c>
       <c r="H32" s="10" t="s">
         <v>32</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="J32" s="10" t="s">
         <v>32</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="L32" s="33" t="s">
-        <v>190</v>
+        <v>199</v>
+      </c>
+      <c r="L32" s="41" t="s">
+        <v>200</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="N32" s="10" t="s">
         <v>32</v>
@@ -3556,41 +3689,43 @@
       <c r="Q32" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="R32" s="12"/>
+      <c r="R32" s="12" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>32</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>32</v>
@@ -3599,7 +3734,7 @@
         <v>32</v>
       </c>
       <c r="N33" s="7" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>32</v>
@@ -3613,25 +3748,25 @@
     </row>
     <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>32</v>
@@ -3643,7 +3778,7 @@
         <v>32</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>32</v>
@@ -3652,7 +3787,7 @@
         <v>32</v>
       </c>
       <c r="N34" s="7" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>32</v>
@@ -3664,65 +3799,65 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" s="38" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="34" t="s">
-        <v>203</v>
-      </c>
-      <c r="B35" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="F35" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="G35" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="H35" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="I35" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="J35" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="K35" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="L35" s="36" t="s">
-        <v>204</v>
-      </c>
-      <c r="M35" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="N35" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="O35" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="P35" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q35" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="R35" s="37" t="s">
-        <v>205</v>
+    <row r="35" s="46" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="B35" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="J35" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="K35" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="L35" s="44" t="s">
+        <v>215</v>
+      </c>
+      <c r="M35" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="N35" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="O35" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="P35" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q35" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="R35" s="45" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="36" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>32</v>
@@ -3757,8 +3892,8 @@
       <c r="L36" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="M36" s="14" t="s">
-        <v>207</v>
+      <c r="M36" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="N36" s="10" t="s">
         <v>32</v>
@@ -3772,86 +3907,88 @@
       <c r="Q36" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="R36" s="12"/>
-    </row>
-    <row r="37" s="24" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E37" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F37" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="G37" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="H37" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="I37" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="J37" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="K37" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="L37" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="M37" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="N37" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O37" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="P37" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q37" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="R37" s="23" t="s">
-        <v>129</v>
+      <c r="R36" s="12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="37" s="32" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="H37" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="I37" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="J37" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="K37" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="L37" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="M37" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="N37" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="O37" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="P37" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q37" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="R37" s="31" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>200</v>
-      </c>
       <c r="H38" s="7" t="s">
         <v>32</v>
       </c>
@@ -3865,10 +4002,10 @@
         <v>32</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="M38" s="8" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="N38" s="7" t="s">
         <v>32</v>
@@ -3886,7 +4023,7 @@
     </row>
     <row r="39" s="13" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>32</v>
@@ -3922,7 +4059,7 @@
         <v>32</v>
       </c>
       <c r="M39" s="11" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="N39" s="10" t="s">
         <v>32</v>
@@ -3936,11 +4073,13 @@
       <c r="Q39" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="R39" s="12"/>
+      <c r="R39" s="12" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="40" s="13" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>32</v>
@@ -3976,7 +4115,7 @@
         <v>32</v>
       </c>
       <c r="M40" s="11" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="N40" s="10" t="s">
         <v>32</v>
@@ -3990,718 +4129,726 @@
       <c r="Q40" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="R40" s="12"/>
-    </row>
-    <row r="41" s="42" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="39" t="s">
-        <v>217</v>
-      </c>
-      <c r="B41" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="C41" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="D41" s="40" t="s">
-        <v>218</v>
-      </c>
-      <c r="E41" s="40" t="s">
-        <v>218</v>
-      </c>
-      <c r="F41" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="G41" s="40" t="s">
-        <v>219</v>
-      </c>
-      <c r="H41" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="I41" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="J41" s="41" t="s">
-        <v>220</v>
-      </c>
-      <c r="K41" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="L41" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40" t="s">
-        <v>221</v>
-      </c>
-      <c r="O41" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="P41" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q41" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="R41" s="41" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="42" s="44" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="43" t="s">
-        <v>223</v>
-      </c>
-      <c r="B42" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C42" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42" s="44" t="s">
-        <v>224</v>
-      </c>
-      <c r="E42" s="44" t="s">
-        <v>224</v>
-      </c>
-      <c r="F42" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="G42" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="H42" s="44" t="s">
-        <v>225</v>
-      </c>
-      <c r="I42" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="J42" s="45" t="s">
-        <v>226</v>
-      </c>
-      <c r="K42" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="L42" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="M42" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="N42" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="O42" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="P42" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q42" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="R42" s="41" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="43" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="B43" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="C43" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="D43" s="35" t="s">
+      <c r="R40" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="E43" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="F43" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="G43" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="H43" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="I43" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="J43" s="35" t="s">
+    </row>
+    <row r="41" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="K43" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="L43" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="M43" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="N43" s="37" t="s">
+      <c r="B41" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="O43" s="35" t="s">
+      <c r="E41" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="F41" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" s="24" t="s">
         <v>232</v>
       </c>
-      <c r="P43" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q43" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="R43" s="46"/>
-    </row>
-    <row r="44" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="34" t="s">
+      <c r="H41" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I41" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="J41" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="B44" s="35" t="s">
+      <c r="K41" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="L41" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="C44" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="D44" s="35" t="s">
+      <c r="O41" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="P41" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q41" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="R41" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="E44" s="35" t="s">
-        <v>235</v>
-      </c>
-      <c r="F44" s="35" t="s">
+    </row>
+    <row r="42" s="48" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="G44" s="35" t="s">
+      <c r="B42" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="48" t="s">
         <v>237</v>
       </c>
-      <c r="H44" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="I44" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="J44" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="K44" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="L44" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="M44" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="N44" s="37" t="s">
+      <c r="E42" s="48" t="s">
+        <v>237</v>
+      </c>
+      <c r="F42" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="H42" s="48" t="s">
         <v>238</v>
       </c>
-      <c r="O44" s="35" t="s">
+      <c r="I42" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="J42" s="49" t="s">
         <v>239</v>
       </c>
-      <c r="P44" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q44" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="R44" s="46"/>
-    </row>
-    <row r="45" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="34" t="s">
+      <c r="K42" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="L42" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="M42" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="N42" s="48" t="s">
         <v>240</v>
       </c>
-      <c r="B45" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="C45" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="D45" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="E45" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="F45" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="G45" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="H45" s="47" t="s">
+      <c r="O42" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="P42" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q42" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="R42" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="I45" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="J45" s="35" t="s">
+    </row>
+    <row r="43" s="46" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="B43" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="E43" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F43" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="G43" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="H43" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="I43" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="J43" s="43" t="s">
+        <v>244</v>
+      </c>
+      <c r="K43" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="L43" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="M43" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="N43" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="O43" s="43" t="s">
+        <v>246</v>
+      </c>
+      <c r="P43" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q43" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="R43" s="50"/>
+    </row>
+    <row r="44" s="46" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="42" t="s">
+        <v>247</v>
+      </c>
+      <c r="B44" s="43" t="s">
+        <v>248</v>
+      </c>
+      <c r="C44" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="E44" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="F44" s="43" t="s">
+        <v>250</v>
+      </c>
+      <c r="G44" s="43" t="s">
+        <v>251</v>
+      </c>
+      <c r="H44" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="I44" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="J44" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="K44" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="L44" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="M44" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="N44" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="O44" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="P44" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q44" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="R44" s="50"/>
+    </row>
+    <row r="45" s="50" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="51" t="s">
+        <v>254</v>
+      </c>
+      <c r="B45" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="F45" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="G45" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="H45" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="I45" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="J45" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="K45" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="L45" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="M45" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="N45" s="37" t="s">
-        <v>242</v>
-      </c>
-      <c r="O45" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="P45" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q45" s="35" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="B46" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="C46" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="D46" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="E46" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="F46" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="G46" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="H46" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="I46" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="J46" s="35" t="s">
+      <c r="K45" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="L45" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="M45" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="N45" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="O45" s="50" t="s">
+        <v>257</v>
+      </c>
+      <c r="P45" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q45" s="50" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" s="46" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="42" t="s">
+        <v>258</v>
+      </c>
+      <c r="B46" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="F46" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="G46" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="H46" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="I46" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="J46" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="K46" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="L46" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="M46" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="N46" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="O46" s="35" t="s">
-        <v>246</v>
-      </c>
-      <c r="P46" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q46" s="35" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="34" t="s">
-        <v>247</v>
-      </c>
-      <c r="B47" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="C47" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="D47" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="E47" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="F47" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="G47" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="H47" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="I47" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="J47" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="K47" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="L47" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="M47" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="N47" s="37" t="s">
-        <v>249</v>
-      </c>
-      <c r="O47" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="P47" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q47" s="35" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="48" s="49" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="B48" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C48" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D48" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="E48" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="F48" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="G48" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="H48" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="I48" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="J48" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="K48" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="L48" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="M48" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="N48" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="O48" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="P48" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q48" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="R48" s="29" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="49" s="49" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="25" t="s">
-        <v>253</v>
-      </c>
-      <c r="B49" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C49" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D49" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="E49" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="F49" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="G49" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="H49" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="I49" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="J49" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="K49" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="L49" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="M49" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="N49" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="O49" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="P49" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q49" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="R49" s="29" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="50" s="49" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="B50" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C50" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D50" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="E50" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="F50" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="G50" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="H50" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="I50" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="J50" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="K50" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="L50" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="M50" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="N50" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="O50" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="P50" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q50" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="R50" s="29" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="51" s="54" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="50" t="s">
-        <v>257</v>
-      </c>
-      <c r="B51" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="C51" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="D51" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="E51" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="F51" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="G51" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="H51" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="I51" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="J51" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="K51" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="L51" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="M51" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="N51" s="52" t="s">
-        <v>258</v>
-      </c>
-      <c r="O51" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="P51" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q51" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="R51" s="53"/>
-    </row>
-    <row r="52" s="54" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="50" t="s">
+      <c r="K46" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="L46" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="M46" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="N46" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="B52" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="C52" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="D52" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="E52" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="F52" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="G52" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="H52" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="I52" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="J52" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="K52" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="L52" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="M52" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="N52" s="52" t="s">
+      <c r="O46" s="43" t="s">
         <v>260</v>
       </c>
-      <c r="O52" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="P52" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q52" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="R52" s="53"/>
-    </row>
-    <row r="53" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="34" t="s">
+      <c r="P46" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q46" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="R46" s="50"/>
+    </row>
+    <row r="47" s="46" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="42" t="s">
         <v>261</v>
       </c>
-      <c r="B53" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="C53" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="D53" s="35" t="s">
+      <c r="B47" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="F47" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="G47" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="H47" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="I47" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="J47" s="43" t="s">
         <v>262</v>
       </c>
-      <c r="E53" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="F53" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="G53" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="H53" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="I53" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="J53" s="35" t="s">
+      <c r="K47" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="L47" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="M47" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="N47" s="45" t="s">
         <v>263</v>
       </c>
-      <c r="K53" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="L53" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="M53" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="N53" s="37" t="s">
+      <c r="O47" s="43" t="s">
         <v>264</v>
       </c>
-      <c r="O53" s="35" t="s">
+      <c r="P47" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q47" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="R47" s="50"/>
+    </row>
+    <row r="48" s="53" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="P53" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q53" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="R53" s="46"/>
+      <c r="B48" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="F48" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="H48" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="I48" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="J48" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="K48" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="L48" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="M48" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="N48" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="O48" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="P48" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q48" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="R48" s="37" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="49" s="53" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="B49" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="F49" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="G49" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="H49" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="I49" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="J49" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="K49" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="L49" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="M49" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="N49" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="O49" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="P49" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q49" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="R49" s="37" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="50" s="53" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="B50" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="F50" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="G50" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="H50" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="I50" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="J50" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="K50" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="L50" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="M50" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="N50" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="O50" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="P50" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q50" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="R50" s="37" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="51" s="55" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="54" t="s">
+        <v>271</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F51" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G51" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H51" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I51" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J51" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K51" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="L51" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="M51" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="N51" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="O51" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="P51" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q51" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="R51" s="22" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="52" s="55" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="54" t="s">
+        <v>274</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F52" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G52" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H52" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I52" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J52" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K52" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="L52" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="M52" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="N52" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="O52" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="P52" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q52" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="R52" s="22" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="53" s="46" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="42" t="s">
+        <v>277</v>
+      </c>
+      <c r="B53" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" s="43" t="s">
+        <v>278</v>
+      </c>
+      <c r="E53" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="F53" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="H53" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="I53" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="J53" s="43" t="s">
+        <v>279</v>
+      </c>
+      <c r="K53" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="L53" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="M53" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="N53" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="O53" s="43" t="s">
+        <v>281</v>
+      </c>
+      <c r="P53" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q53" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="R53" s="50"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>32</v>
@@ -4740,7 +4887,7 @@
         <v>32</v>
       </c>
       <c r="N54" s="7" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="O54" s="7" t="s">
         <v>32</v>
@@ -4752,117 +4899,121 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" s="54" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="50" t="s">
-        <v>268</v>
-      </c>
-      <c r="B55" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="C55" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="D55" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="E55" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="F55" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="G55" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="H55" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="I55" s="51" t="s">
+    <row r="55" s="55" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="54" t="s">
+        <v>284</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F55" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G55" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H55" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I55" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="J55" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="K55" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="L55" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="M55" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="N55" s="52" t="s">
-        <v>269</v>
-      </c>
-      <c r="O55" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="P55" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q55" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="R55" s="53"/>
-    </row>
-    <row r="56" s="54" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="50" t="s">
-        <v>270</v>
-      </c>
-      <c r="B56" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="C56" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="D56" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="E56" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="F56" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="G56" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="H56" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="I56" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="J56" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="K56" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="L56" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="M56" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="N56" s="52" t="s">
-        <v>271</v>
-      </c>
-      <c r="O56" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="P56" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q56" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="R56" s="53"/>
+      <c r="J55" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K55" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="L55" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="M55" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="N55" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="O55" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="P55" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q55" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="R55" s="22" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="56" s="55" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="54" t="s">
+        <v>287</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E56" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F56" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G56" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H56" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I56" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="J56" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K56" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="L56" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="M56" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="N56" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="O56" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="P56" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q56" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="R56" s="22" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>32</v>
@@ -4886,7 +5037,7 @@
         <v>32</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J57" s="7" t="s">
         <v>32</v>
@@ -4901,7 +5052,7 @@
         <v>32</v>
       </c>
       <c r="N57" s="7" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="O57" s="7" t="s">
         <v>32</v>
@@ -4913,544 +5064,569 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" s="54" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="50" t="s">
-        <v>274</v>
-      </c>
-      <c r="B58" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="C58" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="D58" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="E58" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="F58" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="G58" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="H58" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="I58" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="J58" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="K58" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="L58" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="M58" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="N58" s="55" t="s">
-        <v>275</v>
-      </c>
-      <c r="O58" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="P58" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q58" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="R58" s="53"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="50" t="s">
-        <v>276</v>
-      </c>
-      <c r="B59" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="C59" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="D59" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="E59" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="F59" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="G59" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="H59" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="I59" s="51" t="s">
-        <v>173</v>
-      </c>
-      <c r="J59" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="K59" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="L59" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="M59" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="N59" s="52" t="s">
-        <v>277</v>
-      </c>
-      <c r="O59" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="P59" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q59" s="51" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="50" t="s">
-        <v>278</v>
-      </c>
-      <c r="B60" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="C60" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="D60" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="E60" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="F60" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="G60" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="H60" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="I60" s="51" t="s">
-        <v>178</v>
-      </c>
-      <c r="J60" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="K60" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="L60" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="M60" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="N60" s="52" t="s">
-        <v>279</v>
-      </c>
-      <c r="O60" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="P60" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q60" s="51" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="50" t="s">
-        <v>280</v>
-      </c>
-      <c r="B61" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="C61" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="D61" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="E61" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="F61" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="G61" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="H61" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="I61" s="51" t="s">
+    <row r="58" s="55" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D58" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F58" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G58" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H58" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I58" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="J58" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K58" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="L58" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="M58" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="N58" s="56" t="s">
+        <v>293</v>
+      </c>
+      <c r="O58" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="P58" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q58" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="R58" s="22" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="59" s="57" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="B59" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="C59" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="D59" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="E59" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="F59" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="G59" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="H59" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="I59" s="57" t="s">
+        <v>179</v>
+      </c>
+      <c r="J59" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="K59" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="L59" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="M59" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="N59" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="O59" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="P59" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q59" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="R59" s="22" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="60" s="57" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="B60" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="C60" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="D60" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="E60" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="F60" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="G60" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="H60" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="I60" s="57" t="s">
         <v>184</v>
       </c>
-      <c r="J61" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="K61" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="L61" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="M61" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="N61" s="52" t="s">
-        <v>281</v>
-      </c>
-      <c r="O61" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="P61" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q61" s="51" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="50" t="s">
-        <v>282</v>
-      </c>
-      <c r="B62" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="C62" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="D62" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="E62" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="F62" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="G62" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="H62" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="I62" s="51" t="s">
-        <v>189</v>
-      </c>
-      <c r="J62" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="K62" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="L62" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="M62" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="N62" s="52" t="s">
-        <v>283</v>
-      </c>
-      <c r="O62" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="P62" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q62" s="51" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="63" s="59" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="56" t="s">
-        <v>284</v>
-      </c>
-      <c r="B63" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="C63" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="D63" s="57" t="s">
-        <v>148</v>
-      </c>
-      <c r="E63" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="F63" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="G63" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="H63" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="I63" s="57" t="s">
-        <v>195</v>
-      </c>
-      <c r="J63" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="K63" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="L63" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="M63" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="N63" s="57" t="s">
-        <v>285</v>
-      </c>
-      <c r="O63" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="P63" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q63" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="R63" s="58"/>
-    </row>
-    <row r="64" s="59" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="56" t="s">
-        <v>286</v>
-      </c>
-      <c r="B64" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="C64" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="D64" s="57" t="s">
+      <c r="J60" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="K60" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="L60" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="M60" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="N60" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="O60" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="P60" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q60" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="R60" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" s="57" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="B61" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="C61" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="D61" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="E61" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="F61" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="G61" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="H61" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="I61" s="57" t="s">
+        <v>191</v>
+      </c>
+      <c r="J61" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="K61" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="L61" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="M61" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="N61" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="O61" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="P61" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q61" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="R61" s="22" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="62" s="57" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="B62" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="D62" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="E62" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="F62" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="G62" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="H62" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="I62" s="57" t="s">
+        <v>198</v>
+      </c>
+      <c r="J62" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="K62" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="L62" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="M62" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="N62" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="O62" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="P62" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q62" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="R62" s="22" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="63" s="61" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="58" t="s">
+        <v>307</v>
+      </c>
+      <c r="B63" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="C63" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="D63" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="E64" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="F64" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="G64" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="H64" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="I64" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="J64" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="K64" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="L64" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="M64" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="N64" s="57" t="s">
-        <v>287</v>
-      </c>
-      <c r="O64" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="P64" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q64" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="R64" s="58"/>
-    </row>
-    <row r="65" s="54" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="50" t="s">
-        <v>288</v>
-      </c>
-      <c r="B65" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="C65" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="D65" s="51" t="s">
-        <v>159</v>
-      </c>
-      <c r="E65" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="F65" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="G65" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="H65" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="I65" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="J65" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="K65" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="L65" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="M65" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="N65" s="52" t="s">
-        <v>289</v>
-      </c>
-      <c r="O65" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="P65" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q65" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="R65" s="53"/>
-    </row>
-    <row r="66" s="54" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="50" t="s">
-        <v>290</v>
-      </c>
-      <c r="B66" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="C66" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="D66" s="51" t="s">
+      <c r="E63" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="F63" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="G63" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="H63" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="I63" s="59" t="s">
+        <v>206</v>
+      </c>
+      <c r="J63" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="K63" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="L63" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="M63" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="N63" s="59" t="s">
+        <v>308</v>
+      </c>
+      <c r="O63" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="P63" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q63" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="R63" s="60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" s="61" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="58" t="s">
+        <v>309</v>
+      </c>
+      <c r="B64" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="C64" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="D64" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="E64" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="F64" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="G64" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="H64" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="I64" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="J64" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="K64" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="L64" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="M64" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="N64" s="59" t="s">
+        <v>310</v>
+      </c>
+      <c r="O64" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="P64" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q64" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="R64" s="60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" s="55" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="54" t="s">
+        <v>311</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D65" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="E66" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="F66" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="G66" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="H66" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="I66" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="J66" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="K66" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="L66" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="M66" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="N66" s="52" t="s">
-        <v>291</v>
-      </c>
-      <c r="O66" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="P66" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q66" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="R66" s="53"/>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H67" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I67" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J67" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K67" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L67" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M67" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="N67" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="O67" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="P67" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q67" s="7" t="s">
-        <v>32</v>
+      <c r="E65" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F65" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G65" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H65" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I65" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J65" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K65" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="L65" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="M65" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="N65" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="O65" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="P65" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q65" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="R65" s="22" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="66" s="55" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="54" t="s">
+        <v>314</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D66" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="E66" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F66" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G66" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H66" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I66" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J66" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K66" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="L66" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="M66" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="N66" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="O66" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="P66" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q66" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="R66" s="22" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="67" s="57" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="B67" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="C67" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="D67" s="57" t="s">
+        <v>317</v>
+      </c>
+      <c r="E67" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="F67" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="G67" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="H67" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="I67" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="J67" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="K67" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="L67" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="M67" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="N67" s="57" t="s">
+        <v>318</v>
+      </c>
+      <c r="O67" s="57" t="s">
+        <v>246</v>
+      </c>
+      <c r="P67" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q67" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="R67" s="22" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="s">
-        <v>295</v>
+        <v>320</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>32</v>
@@ -5489,10 +5665,10 @@
         <v>32</v>
       </c>
       <c r="N68" s="7" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="P68" s="7" t="s">
         <v>32</v>
@@ -5503,10 +5679,10 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="s">
-        <v>297</v>
+        <v>322</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>32</v>
@@ -5539,10 +5715,10 @@
         <v>32</v>
       </c>
       <c r="M69" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="N69" s="7" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="O69" s="7" t="s">
         <v>32</v>
@@ -5556,10 +5732,10 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="s">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>301</v>
+        <v>326</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>32</v>
@@ -5595,7 +5771,7 @@
         <v>32</v>
       </c>
       <c r="N70" s="7" t="s">
-        <v>302</v>
+        <v>327</v>
       </c>
       <c r="O70" s="7" t="s">
         <v>32</v>
@@ -5609,10 +5785,10 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>32</v>
@@ -5648,10 +5824,10 @@
         <v>32</v>
       </c>
       <c r="N71" s="7" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="P71" s="7" t="s">
         <v>32</v>
@@ -5662,10 +5838,10 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>32</v>
@@ -5674,7 +5850,7 @@
         <v>32</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>32</v>
@@ -5701,10 +5877,10 @@
         <v>32</v>
       </c>
       <c r="N72" s="7" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="P72" s="7" t="s">
         <v>32</v>
@@ -5715,10 +5891,10 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>32</v>
@@ -5727,7 +5903,7 @@
         <v>32</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F73" s="7" t="s">
         <v>32</v>
@@ -5754,10 +5930,10 @@
         <v>32</v>
       </c>
       <c r="N73" s="7" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="P73" s="7" t="s">
         <v>32</v>
@@ -5766,495 +5942,513 @@
         <v>32</v>
       </c>
     </row>
-    <row r="74" s="54" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="50" t="s">
-        <v>312</v>
-      </c>
-      <c r="B74" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="C74" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="D74" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="E74" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="F74" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="G74" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="H74" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="I74" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="J74" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="K74" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="L74" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="M74" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="N74" s="52" t="s">
-        <v>313</v>
-      </c>
-      <c r="O74" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="P74" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q74" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="R74" s="53"/>
-    </row>
-    <row r="75" s="54" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="50" t="s">
-        <v>314</v>
-      </c>
-      <c r="B75" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="C75" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="D75" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="E75" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="F75" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="G75" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="H75" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="I75" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="J75" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="K75" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="L75" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="M75" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="N75" s="52" t="s">
-        <v>315</v>
-      </c>
-      <c r="O75" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="P75" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q75" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="R75" s="53"/>
-    </row>
-    <row r="76" s="54" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="50" t="s">
-        <v>316</v>
-      </c>
-      <c r="B76" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="C76" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="D76" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="E76" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="F76" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="G76" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="H76" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="I76" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="J76" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="K76" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="L76" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="M76" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="N76" s="52" t="s">
-        <v>317</v>
-      </c>
-      <c r="O76" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="P76" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q76" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="R76" s="53"/>
-    </row>
-    <row r="77" s="54" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="50" t="s">
-        <v>318</v>
-      </c>
-      <c r="B77" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="C77" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="D77" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="E77" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="F77" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="G77" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="H77" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="I77" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="J77" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="K77" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="L77" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="M77" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="N77" s="52" t="s">
-        <v>319</v>
-      </c>
-      <c r="O77" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="P77" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q77" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="R77" s="53"/>
-    </row>
-    <row r="78" s="54" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="50" t="s">
-        <v>320</v>
-      </c>
-      <c r="B78" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="C78" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="D78" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="E78" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="F78" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="G78" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="H78" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="I78" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="J78" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="K78" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="L78" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="M78" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="N78" s="52" t="s">
-        <v>321</v>
-      </c>
-      <c r="O78" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="P78" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q78" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="R78" s="53"/>
-    </row>
-    <row r="79" s="54" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="50" t="s">
-        <v>322</v>
-      </c>
-      <c r="B79" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="C79" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="D79" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="E79" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="F79" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="G79" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="H79" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="I79" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="J79" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="K79" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="L79" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="M79" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="N79" s="52" t="s">
-        <v>323</v>
-      </c>
-      <c r="O79" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="P79" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q79" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="R79" s="53"/>
-    </row>
-    <row r="80" s="54" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="50" t="s">
-        <v>324</v>
-      </c>
-      <c r="B80" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="C80" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="D80" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="E80" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="F80" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="G80" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="H80" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="I80" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="J80" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="K80" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="L80" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="M80" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="N80" s="52" t="s">
-        <v>325</v>
-      </c>
-      <c r="O80" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="P80" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q80" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="R80" s="53"/>
-    </row>
-    <row r="81" s="54" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="50" t="s">
-        <v>326</v>
-      </c>
-      <c r="B81" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="C81" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="D81" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="E81" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="F81" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="G81" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="H81" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="I81" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="J81" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="K81" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="L81" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="M81" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="N81" s="52" t="s">
-        <v>327</v>
-      </c>
-      <c r="O81" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="P81" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q81" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="R81" s="53"/>
-    </row>
-    <row r="82" s="54" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="50" t="s">
-        <v>328</v>
-      </c>
-      <c r="B82" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="C82" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="D82" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="E82" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="F82" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="G82" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="H82" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="I82" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="J82" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="K82" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="L82" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="M82" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="N82" s="52" t="s">
-        <v>329</v>
-      </c>
-      <c r="O82" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="P82" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q82" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="R82" s="53"/>
+    <row r="74" s="55" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="54" t="s">
+        <v>337</v>
+      </c>
+      <c r="B74" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D74" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E74" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F74" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G74" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H74" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I74" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J74" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K74" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="L74" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="M74" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="N74" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="O74" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="P74" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q74" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="R74" s="22" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="75" s="55" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="54" t="s">
+        <v>340</v>
+      </c>
+      <c r="B75" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C75" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D75" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E75" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F75" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G75" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H75" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I75" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J75" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K75" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="L75" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="M75" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="N75" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="O75" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="P75" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q75" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="R75" s="22" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="76" s="55" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="54" t="s">
+        <v>343</v>
+      </c>
+      <c r="B76" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D76" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E76" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F76" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G76" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H76" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I76" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J76" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K76" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="L76" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="M76" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="N76" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="O76" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="P76" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q76" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="R76" s="22" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="77" s="55" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="B77" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C77" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="D77" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E77" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F77" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G77" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H77" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I77" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J77" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K77" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="L77" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="M77" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="N77" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="O77" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="P77" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q77" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="R77" s="22" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="78" s="55" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="54" t="s">
+        <v>349</v>
+      </c>
+      <c r="B78" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C78" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D78" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E78" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F78" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G78" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H78" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I78" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J78" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K78" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="L78" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="M78" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="N78" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="O78" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="P78" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q78" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="R78" s="22" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="79" s="55" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="54" t="s">
+        <v>352</v>
+      </c>
+      <c r="B79" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C79" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="D79" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E79" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F79" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G79" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H79" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I79" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J79" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K79" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="L79" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="M79" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="N79" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="O79" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="P79" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q79" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="R79" s="22" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="80" s="55" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="54" t="s">
+        <v>355</v>
+      </c>
+      <c r="B80" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D80" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E80" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F80" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G80" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H80" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I80" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J80" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K80" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="L80" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="M80" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="N80" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="O80" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="P80" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q80" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="R80" s="22" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="81" s="55" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="54" t="s">
+        <v>358</v>
+      </c>
+      <c r="B81" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C81" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D81" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E81" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F81" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G81" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H81" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I81" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J81" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K81" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="L81" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="M81" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="N81" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="O81" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="P81" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q81" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="R81" s="22" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="82" s="55" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="54" t="s">
+        <v>361</v>
+      </c>
+      <c r="B82" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C82" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D82" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E82" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F82" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G82" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H82" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I82" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J82" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K82" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="L82" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="M82" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="N82" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="O82" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="P82" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q82" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="R82" s="22" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>32</v>
@@ -6269,7 +6463,7 @@
         <v>32</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="G83" s="7" t="s">
         <v>32</v>
@@ -6293,7 +6487,7 @@
         <v>32</v>
       </c>
       <c r="N83" s="7" t="s">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="O83" s="7" t="s">
         <v>32</v>
@@ -6307,7 +6501,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="s">
-        <v>332</v>
+        <v>366</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>32</v>
@@ -6322,7 +6516,7 @@
         <v>32</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="G84" s="7" t="s">
         <v>32</v>
@@ -6346,7 +6540,7 @@
         <v>32</v>
       </c>
       <c r="N84" s="7" t="s">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="O84" s="7" t="s">
         <v>32</v>
@@ -6360,7 +6554,7 @@
     </row>
     <row r="85" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="s">
-        <v>334</v>
+        <v>368</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>32</v>
@@ -6375,7 +6569,7 @@
         <v>32</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="G85" s="7" t="s">
         <v>32</v>
@@ -6399,7 +6593,7 @@
         <v>32</v>
       </c>
       <c r="N85" s="7" t="s">
-        <v>335</v>
+        <v>369</v>
       </c>
       <c r="O85" s="7" t="s">
         <v>32</v>
@@ -6413,7 +6607,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="s">
-        <v>336</v>
+        <v>370</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>32</v>
@@ -6452,7 +6646,7 @@
         <v>32</v>
       </c>
       <c r="N86" s="7" t="s">
-        <v>337</v>
+        <v>371</v>
       </c>
       <c r="O86" s="7" t="s">
         <v>32</v>
@@ -6466,7 +6660,7 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="s">
-        <v>338</v>
+        <v>372</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>32</v>
@@ -6505,7 +6699,7 @@
         <v>32</v>
       </c>
       <c r="N87" s="7" t="s">
-        <v>339</v>
+        <v>373</v>
       </c>
       <c r="O87" s="7" t="s">
         <v>32</v>
@@ -6519,7 +6713,7 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="s">
-        <v>340</v>
+        <v>374</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>32</v>
@@ -6558,7 +6752,7 @@
         <v>32</v>
       </c>
       <c r="N88" s="7" t="s">
-        <v>341</v>
+        <v>375</v>
       </c>
       <c r="O88" s="7" t="s">
         <v>32</v>
@@ -6572,7 +6766,7 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="s">
-        <v>342</v>
+        <v>376</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>32</v>
@@ -6584,7 +6778,7 @@
         <v>32</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="F89" s="7"/>
       <c r="G89" s="7" t="s">
@@ -6609,7 +6803,7 @@
         <v>32</v>
       </c>
       <c r="N89" s="7" t="s">
-        <v>343</v>
+        <v>377</v>
       </c>
       <c r="O89" s="7" t="s">
         <v>32</v>
@@ -6623,7 +6817,7 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="s">
-        <v>344</v>
+        <v>378</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>32</v>
@@ -6635,7 +6829,7 @@
         <v>32</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="F90" s="7"/>
       <c r="G90" s="7" t="s">
@@ -6660,7 +6854,7 @@
         <v>32</v>
       </c>
       <c r="N90" s="7" t="s">
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="O90" s="7" t="s">
         <v>32</v>
@@ -6674,7 +6868,7 @@
     </row>
     <row r="91" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="s">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>32</v>
@@ -6704,7 +6898,7 @@
         <v>32</v>
       </c>
       <c r="K91" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L91" s="7" t="s">
         <v>32</v>
@@ -6713,7 +6907,7 @@
         <v>32</v>
       </c>
       <c r="N91" s="8" t="s">
-        <v>347</v>
+        <v>381</v>
       </c>
       <c r="O91" s="7" t="s">
         <v>32</v>
@@ -6727,7 +6921,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="s">
-        <v>348</v>
+        <v>382</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>32</v>
@@ -6757,7 +6951,7 @@
         <v>32</v>
       </c>
       <c r="K92" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L92" s="7" t="s">
         <v>32</v>
@@ -6766,7 +6960,7 @@
         <v>32</v>
       </c>
       <c r="N92" s="7" t="s">
-        <v>349</v>
+        <v>383</v>
       </c>
       <c r="O92" s="7" t="s">
         <v>32</v>
@@ -6780,7 +6974,7 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="s">
-        <v>350</v>
+        <v>384</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>32</v>
@@ -6819,7 +7013,7 @@
         <v>32</v>
       </c>
       <c r="N93" s="7" t="s">
-        <v>351</v>
+        <v>385</v>
       </c>
       <c r="O93" s="7" t="s">
         <v>32</v>
@@ -6833,7 +7027,7 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="s">
-        <v>352</v>
+        <v>386</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>32</v>
@@ -6875,7 +7069,7 @@
         <v>32</v>
       </c>
       <c r="O94" s="7" t="s">
-        <v>353</v>
+        <v>387</v>
       </c>
       <c r="P94" s="7" t="s">
         <v>32</v>
@@ -6886,7 +7080,7 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="s">
-        <v>354</v>
+        <v>388</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>32</v>
@@ -6925,7 +7119,7 @@
         <v>32</v>
       </c>
       <c r="N95" s="7" t="s">
-        <v>355</v>
+        <v>389</v>
       </c>
       <c r="O95" s="7" t="s">
         <v>32</v>
@@ -6939,7 +7133,7 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="s">
-        <v>356</v>
+        <v>390</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>32</v>
@@ -6978,7 +7172,7 @@
         <v>32</v>
       </c>
       <c r="N96" s="7" t="s">
-        <v>357</v>
+        <v>391</v>
       </c>
       <c r="O96" s="7" t="s">
         <v>32</v>
@@ -6992,7 +7186,7 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="s">
-        <v>358</v>
+        <v>392</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>32</v>
@@ -7031,7 +7225,7 @@
         <v>32</v>
       </c>
       <c r="N97" s="7" t="s">
-        <v>359</v>
+        <v>393</v>
       </c>
       <c r="O97" s="7" t="s">
         <v>32</v>
@@ -7045,7 +7239,7 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="s">
-        <v>360</v>
+        <v>394</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>32</v>
@@ -7084,7 +7278,7 @@
         <v>32</v>
       </c>
       <c r="N98" s="7" t="s">
-        <v>361</v>
+        <v>395</v>
       </c>
       <c r="O98" s="7" t="s">
         <v>32</v>
@@ -7098,7 +7292,7 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="6" t="s">
-        <v>362</v>
+        <v>396</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>32</v>
@@ -7137,7 +7331,7 @@
         <v>32</v>
       </c>
       <c r="N99" s="7" t="s">
-        <v>363</v>
+        <v>397</v>
       </c>
       <c r="O99" s="7" t="s">
         <v>32</v>
@@ -7151,7 +7345,7 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="6" t="s">
-        <v>364</v>
+        <v>398</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>32</v>
@@ -7190,7 +7384,7 @@
         <v>32</v>
       </c>
       <c r="N100" s="7" t="s">
-        <v>365</v>
+        <v>399</v>
       </c>
       <c r="O100" s="7" t="s">
         <v>32</v>
@@ -7204,7 +7398,7 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="s">
-        <v>366</v>
+        <v>400</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>32</v>
@@ -7243,7 +7437,7 @@
         <v>32</v>
       </c>
       <c r="N101" s="7" t="s">
-        <v>367</v>
+        <v>401</v>
       </c>
       <c r="O101" s="7" t="s">
         <v>32</v>
@@ -7257,7 +7451,7 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="s">
-        <v>368</v>
+        <v>402</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>32</v>
@@ -7296,7 +7490,7 @@
         <v>32</v>
       </c>
       <c r="N102" s="7" t="s">
-        <v>369</v>
+        <v>403</v>
       </c>
       <c r="O102" s="7" t="s">
         <v>32</v>
@@ -7310,7 +7504,7 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="s">
-        <v>370</v>
+        <v>404</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>32</v>
@@ -7349,7 +7543,7 @@
         <v>32</v>
       </c>
       <c r="N103" s="7" t="s">
-        <v>371</v>
+        <v>405</v>
       </c>
       <c r="O103" s="7" t="s">
         <v>32</v>
@@ -7363,7 +7557,7 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="s">
-        <v>372</v>
+        <v>406</v>
       </c>
       <c r="B104" s="7" t="s">
         <v>32</v>
@@ -7402,7 +7596,7 @@
         <v>32</v>
       </c>
       <c r="N104" s="7" t="s">
-        <v>373</v>
+        <v>407</v>
       </c>
       <c r="O104" s="7" t="s">
         <v>32</v>
@@ -7416,7 +7610,7 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>32</v>
@@ -7455,7 +7649,7 @@
         <v>32</v>
       </c>
       <c r="N105" s="7" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="O105" s="7" t="s">
         <v>32</v>
@@ -7469,7 +7663,7 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>32</v>
@@ -7496,7 +7690,7 @@
         <v>32</v>
       </c>
       <c r="J106" s="7" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="K106" s="7" t="s">
         <v>32</v>
@@ -7508,7 +7702,7 @@
         <v>32</v>
       </c>
       <c r="N106" s="7" t="s">
-        <v>377</v>
+        <v>411</v>
       </c>
       <c r="O106" s="7" t="s">
         <v>32</v>
@@ -7522,7 +7716,7 @@
     </row>
     <row r="107" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="6" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>32</v>
@@ -7549,7 +7743,7 @@
         <v>32</v>
       </c>
       <c r="J107" s="8" t="s">
-        <v>379</v>
+        <v>413</v>
       </c>
       <c r="K107" s="7" t="s">
         <v>32</v>
@@ -7558,7 +7752,7 @@
         <v>32</v>
       </c>
       <c r="M107" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="N107" s="7" t="s">
         <v>32</v>
@@ -7575,7 +7769,7 @@
     </row>
     <row r="108" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="6" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>32</v>
@@ -7602,7 +7796,7 @@
         <v>32</v>
       </c>
       <c r="J108" s="7" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="K108" s="7" t="s">
         <v>32</v>
@@ -7614,7 +7808,7 @@
         <v>32</v>
       </c>
       <c r="N108" s="8" t="s">
-        <v>381</v>
+        <v>415</v>
       </c>
       <c r="O108" s="7" t="s">
         <v>32</v>
@@ -7628,7 +7822,7 @@
     </row>
     <row r="109" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="s">
-        <v>382</v>
+        <v>416</v>
       </c>
       <c r="B109" s="7" t="s">
         <v>32</v>
@@ -7667,7 +7861,7 @@
         <v>32</v>
       </c>
       <c r="N109" s="8" t="s">
-        <v>383</v>
+        <v>417</v>
       </c>
       <c r="O109" s="7" t="s">
         <v>32</v>
@@ -7681,7 +7875,7 @@
     </row>
     <row r="110" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="s">
-        <v>384</v>
+        <v>418</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>32</v>
@@ -7717,10 +7911,10 @@
         <v>32</v>
       </c>
       <c r="M110" s="8" t="s">
-        <v>385</v>
+        <v>419</v>
       </c>
       <c r="N110" s="8" t="s">
-        <v>386</v>
+        <v>420</v>
       </c>
       <c r="O110" s="7" t="s">
         <v>32</v>
@@ -7734,7 +7928,7 @@
     </row>
     <row r="111" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="s">
-        <v>387</v>
+        <v>421</v>
       </c>
       <c r="B111" s="7" t="s">
         <v>32</v>
@@ -7761,7 +7955,7 @@
         <v>32</v>
       </c>
       <c r="J111" s="8" t="s">
-        <v>379</v>
+        <v>413</v>
       </c>
       <c r="K111" s="7" t="s">
         <v>32</v>
@@ -7773,7 +7967,7 @@
         <v>32</v>
       </c>
       <c r="N111" s="7" t="s">
-        <v>388</v>
+        <v>422</v>
       </c>
       <c r="O111" s="7" t="s">
         <v>32</v>
@@ -7787,7 +7981,7 @@
     </row>
     <row r="112" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="s">
-        <v>389</v>
+        <v>423</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>32</v>
@@ -7814,7 +8008,7 @@
         <v>32</v>
       </c>
       <c r="J112" s="7" t="s">
-        <v>390</v>
+        <v>424</v>
       </c>
       <c r="K112" s="7" t="s">
         <v>32</v>
@@ -7823,10 +8017,10 @@
         <v>32</v>
       </c>
       <c r="M112" s="8" t="s">
-        <v>391</v>
+        <v>425</v>
       </c>
       <c r="N112" s="7" t="s">
-        <v>392</v>
+        <v>426</v>
       </c>
       <c r="O112" s="7" t="s">
         <v>32</v>
@@ -7840,7 +8034,7 @@
     </row>
     <row r="113" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="s">
-        <v>393</v>
+        <v>427</v>
       </c>
       <c r="B113" s="7" t="s">
         <v>32</v>
@@ -7867,7 +8061,7 @@
         <v>32</v>
       </c>
       <c r="J113" s="7" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="K113" s="7" t="s">
         <v>32</v>
@@ -7876,10 +8070,10 @@
         <v>32</v>
       </c>
       <c r="M113" s="8" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="N113" s="7" t="s">
-        <v>394</v>
+        <v>428</v>
       </c>
       <c r="O113" s="7" t="s">
         <v>32</v>
@@ -7893,7 +8087,7 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="s">
-        <v>395</v>
+        <v>429</v>
       </c>
       <c r="B114" s="7" t="s">
         <v>32</v>
@@ -7920,7 +8114,7 @@
         <v>32</v>
       </c>
       <c r="J114" s="7" t="s">
-        <v>390</v>
+        <v>424</v>
       </c>
       <c r="K114" s="7" t="s">
         <v>32</v>
@@ -7935,7 +8129,7 @@
         <v>32</v>
       </c>
       <c r="O114" s="7" t="s">
-        <v>396</v>
+        <v>430</v>
       </c>
       <c r="P114" s="7" t="s">
         <v>32</v>
@@ -7946,7 +8140,7 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="s">
-        <v>397</v>
+        <v>431</v>
       </c>
       <c r="B115" s="7" t="s">
         <v>32</v>
@@ -7999,7 +8193,7 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6" t="s">
-        <v>398</v>
+        <v>432</v>
       </c>
       <c r="B116" s="7" t="s">
         <v>32</v>
@@ -8052,7 +8246,7 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="6" t="s">
-        <v>399</v>
+        <v>433</v>
       </c>
       <c r="B117" s="7" t="s">
         <v>32</v>
@@ -8105,7 +8299,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="B118" s="7" t="s">
         <v>32</v>
@@ -8141,7 +8335,7 @@
         <v>32</v>
       </c>
       <c r="M118" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N118" s="7" t="s">
         <v>32</v>
@@ -8158,7 +8352,7 @@
     </row>
     <row r="119" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="s">
-        <v>401</v>
+        <v>435</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>32</v>
@@ -8173,7 +8367,7 @@
         <v>32</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="G119" s="7" t="s">
         <v>32</v>
@@ -8191,7 +8385,7 @@
         <v>32</v>
       </c>
       <c r="L119" s="8" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="M119" s="7" t="s">
         <v>32</v>
@@ -8211,7 +8405,7 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="6" t="s">
-        <v>402</v>
+        <v>436</v>
       </c>
       <c r="B120" s="7" t="s">
         <v>32</v>
@@ -8226,7 +8420,7 @@
         <v>32</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="G120" s="7" t="s">
         <v>32</v>
@@ -8264,7 +8458,7 @@
     </row>
     <row r="121" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="s">
-        <v>403</v>
+        <v>437</v>
       </c>
       <c r="B121" s="7" t="s">
         <v>32</v>
@@ -8279,7 +8473,7 @@
         <v>32</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="G121" s="7" t="s">
         <v>32</v>
@@ -8294,13 +8488,13 @@
         <v>32</v>
       </c>
       <c r="K121" s="7" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="L121" s="7" t="s">
         <v>32</v>
       </c>
       <c r="M121" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="N121" s="7" t="s">
         <v>32</v>
@@ -8317,7 +8511,7 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="s">
-        <v>404</v>
+        <v>438</v>
       </c>
       <c r="B122" s="7" t="s">
         <v>32</v>
@@ -8332,7 +8526,7 @@
         <v>32</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G122" s="7" t="s">
         <v>32</v>
@@ -8353,7 +8547,7 @@
         <v>32</v>
       </c>
       <c r="M122" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="N122" s="7" t="s">
         <v>32</v>
@@ -8370,7 +8564,7 @@
     </row>
     <row r="123" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6" t="s">
-        <v>405</v>
+        <v>439</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>32</v>
@@ -8385,7 +8579,7 @@
         <v>32</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="G123" s="7" t="s">
         <v>32</v>
@@ -8412,7 +8606,7 @@
         <v>32</v>
       </c>
       <c r="O123" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P123" s="7" t="s">
         <v>32</v>
@@ -8423,7 +8617,7 @@
     </row>
     <row r="124" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6" t="s">
-        <v>406</v>
+        <v>440</v>
       </c>
       <c r="B124" s="7" t="s">
         <v>32</v>
@@ -8438,7 +8632,7 @@
         <v>32</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G124" s="7" t="s">
         <v>32</v>
@@ -8453,7 +8647,7 @@
         <v>32</v>
       </c>
       <c r="K124" s="7" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="L124" s="7" t="s">
         <v>32</v>
@@ -8465,7 +8659,7 @@
         <v>32</v>
       </c>
       <c r="O124" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P124" s="7" t="s">
         <v>32</v>
@@ -8476,7 +8670,7 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="6" t="s">
-        <v>407</v>
+        <v>441</v>
       </c>
       <c r="B125" s="7" t="s">
         <v>32</v>
@@ -8485,7 +8679,7 @@
         <v>32</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>408</v>
+        <v>442</v>
       </c>
       <c r="E125" s="7" t="s">
         <v>32</v>
@@ -8512,13 +8706,13 @@
         <v>32</v>
       </c>
       <c r="M125" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="N125" s="7" t="s">
         <v>32</v>
       </c>
       <c r="O125" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="P125" s="7" t="s">
         <v>32</v>
@@ -8529,7 +8723,7 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6" t="s">
-        <v>409</v>
+        <v>443</v>
       </c>
       <c r="B126" s="7" t="s">
         <v>32</v>
@@ -8538,7 +8732,7 @@
         <v>32</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>410</v>
+        <v>444</v>
       </c>
       <c r="E126" s="7" t="s">
         <v>32</v>
@@ -8571,7 +8765,7 @@
         <v>32</v>
       </c>
       <c r="O126" s="7" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="P126" s="7" t="s">
         <v>32</v>
@@ -8582,7 +8776,7 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="6" t="s">
-        <v>411</v>
+        <v>445</v>
       </c>
       <c r="B127" s="7" t="s">
         <v>32</v>
@@ -8591,7 +8785,7 @@
         <v>32</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>412</v>
+        <v>446</v>
       </c>
       <c r="E127" s="7" t="s">
         <v>32</v>
@@ -8624,7 +8818,7 @@
         <v>32</v>
       </c>
       <c r="O127" s="7" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="P127" s="7" t="s">
         <v>32</v>
@@ -8635,7 +8829,7 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="6" t="s">
-        <v>413</v>
+        <v>447</v>
       </c>
       <c r="B128" s="7" t="s">
         <v>32</v>
@@ -8645,7 +8839,7 @@
       </c>
       <c r="D128" s="7"/>
       <c r="E128" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F128" s="7" t="s">
         <v>32</v>
@@ -8663,7 +8857,7 @@
         <v>32</v>
       </c>
       <c r="K128" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L128" s="7" t="s">
         <v>32</v>
@@ -8674,7 +8868,7 @@
       <c r="N128" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="O128" s="60" t="s">
+      <c r="O128" s="62" t="s">
         <v>32</v>
       </c>
       <c r="P128" s="7" t="s">
@@ -8686,7 +8880,7 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6" t="s">
-        <v>414</v>
+        <v>448</v>
       </c>
       <c r="B129" s="7" t="s">
         <v>32</v>
@@ -8698,7 +8892,7 @@
         <v>32</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F129" s="7" t="s">
         <v>32</v>
@@ -8728,7 +8922,7 @@
         <v>32</v>
       </c>
       <c r="O129" s="7" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="P129" s="7" t="s">
         <v>32</v>
@@ -8739,7 +8933,7 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="6" t="s">
-        <v>415</v>
+        <v>449</v>
       </c>
       <c r="B130" s="7" t="s">
         <v>32</v>
@@ -8751,7 +8945,7 @@
         <v>32</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F130" s="7" t="s">
         <v>32</v>
@@ -8781,7 +8975,7 @@
         <v>32</v>
       </c>
       <c r="O130" s="7" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="P130" s="7" t="s">
         <v>32</v>
@@ -8792,7 +8986,7 @@
     </row>
     <row r="131" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="6" t="s">
-        <v>416</v>
+        <v>450</v>
       </c>
       <c r="B131" s="7" t="s">
         <v>32</v>
@@ -8801,7 +8995,7 @@
         <v>32</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>417</v>
+        <v>451</v>
       </c>
       <c r="E131" s="7" t="s">
         <v>32</v>
@@ -8810,7 +9004,7 @@
         <v>32</v>
       </c>
       <c r="G131" s="8" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H131" s="7" t="s">
         <v>32</v>
@@ -8834,7 +9028,7 @@
         <v>32</v>
       </c>
       <c r="O131" s="7" t="s">
-        <v>396</v>
+        <v>430</v>
       </c>
       <c r="P131" s="7" t="s">
         <v>32</v>
@@ -8845,7 +9039,7 @@
     </row>
     <row r="132" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="6" t="s">
-        <v>418</v>
+        <v>452</v>
       </c>
       <c r="B132" s="7" t="s">
         <v>32</v>
@@ -8863,7 +9057,7 @@
         <v>32</v>
       </c>
       <c r="G132" s="8" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="H132" s="7" t="s">
         <v>32</v>
@@ -8887,7 +9081,7 @@
         <v>32</v>
       </c>
       <c r="O132" s="7" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="P132" s="7" t="s">
         <v>32</v>
@@ -8898,7 +9092,7 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6" t="s">
-        <v>419</v>
+        <v>453</v>
       </c>
       <c r="B133" s="7" t="s">
         <v>32</v>
@@ -8910,16 +9104,16 @@
         <v>32</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="F133" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="H133" s="7" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="I133" s="7" t="s">
         <v>32</v>
@@ -8940,7 +9134,7 @@
         <v>32</v>
       </c>
       <c r="O133" s="7" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="P133" s="7" t="s">
         <v>32</v>
@@ -8951,7 +9145,7 @@
     </row>
     <row r="134" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="6" t="s">
-        <v>420</v>
+        <v>454</v>
       </c>
       <c r="B134" s="7" t="s">
         <v>32</v>
@@ -8969,7 +9163,7 @@
         <v>32</v>
       </c>
       <c r="G134" s="8" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="H134" s="7" t="s">
         <v>32</v>
@@ -8993,7 +9187,7 @@
         <v>32</v>
       </c>
       <c r="O134" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="P134" s="7" t="s">
         <v>32</v>
@@ -9004,7 +9198,7 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="6" t="s">
-        <v>421</v>
+        <v>455</v>
       </c>
       <c r="B135" s="7" t="s">
         <v>32</v>
@@ -9016,7 +9210,7 @@
         <v>32</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F135" s="7" t="s">
         <v>32</v>
@@ -9046,7 +9240,7 @@
         <v>32</v>
       </c>
       <c r="O135" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="P135" s="7" t="s">
         <v>32</v>
@@ -9057,7 +9251,7 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="6" t="s">
-        <v>422</v>
+        <v>456</v>
       </c>
       <c r="B136" s="7" t="s">
         <v>32</v>
@@ -9069,7 +9263,7 @@
         <v>32</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="F136" s="7" t="s">
         <v>32</v>
@@ -9099,7 +9293,7 @@
         <v>32</v>
       </c>
       <c r="O136" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="P136" s="7" t="s">
         <v>32</v>
@@ -9110,7 +9304,7 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="6" t="s">
-        <v>423</v>
+        <v>457</v>
       </c>
       <c r="B137" s="7" t="s">
         <v>32</v>
@@ -9122,7 +9316,7 @@
         <v>32</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="F137" s="7" t="s">
         <v>32</v>
@@ -9152,7 +9346,7 @@
         <v>32</v>
       </c>
       <c r="O137" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="P137" s="7" t="s">
         <v>32</v>
@@ -9163,7 +9357,7 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="6" t="s">
-        <v>424</v>
+        <v>458</v>
       </c>
       <c r="B138" s="7" t="s">
         <v>32</v>
@@ -9175,7 +9369,7 @@
         <v>32</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="F138" s="7" t="s">
         <v>32</v>
@@ -9205,7 +9399,7 @@
         <v>32</v>
       </c>
       <c r="O138" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="P138" s="7" t="s">
         <v>32</v>
@@ -9216,7 +9410,7 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="6" t="s">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="B139" s="7" t="s">
         <v>32</v>
@@ -9269,7 +9463,7 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="6" t="s">
-        <v>426</v>
+        <v>460</v>
       </c>
       <c r="B140" s="7" t="s">
         <v>32</v>
@@ -9299,7 +9493,7 @@
         <v>32</v>
       </c>
       <c r="K140" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="L140" s="7" t="s">
         <v>32</v>
@@ -9322,7 +9516,7 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="6" t="s">
-        <v>427</v>
+        <v>461</v>
       </c>
       <c r="B141" s="7" t="s">
         <v>32</v>
@@ -9375,7 +9569,7 @@
     </row>
     <row r="142" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="6" t="s">
-        <v>428</v>
+        <v>462</v>
       </c>
       <c r="B142" s="7" t="s">
         <v>32</v>
@@ -9408,7 +9602,7 @@
         <v>32</v>
       </c>
       <c r="L142" s="8" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="M142" s="7" t="s">
         <v>32</v>
